--- a/test.xlsx
+++ b/test.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAB-2\Desktop\2024-mso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\2024-mso\2024-mso-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C715CAF0-9EB2-420F-A29A-64D80DE3C8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37460BB8-F502-47C1-A028-392BCECDE3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="11520" windowHeight="7875" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3276" windowWidth="17280" windowHeight="8964" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="besd" sheetId="1" r:id="rId1"/>
-    <sheet name="case1" sheetId="2" r:id="rId2"/>
-    <sheet name="Wilcoxon" sheetId="3" r:id="rId3"/>
-    <sheet name="Friedman" sheetId="4" r:id="rId4"/>
-    <sheet name="Wstatistic" sheetId="5" r:id="rId5"/>
-    <sheet name="Fstatistic" sheetId="6" r:id="rId6"/>
+    <sheet name="koa_case1" sheetId="12" r:id="rId1"/>
+    <sheet name="koa_case2" sheetId="13" r:id="rId2"/>
+    <sheet name="koa_case3" sheetId="14" r:id="rId3"/>
+    <sheet name="koa_case4" sheetId="15" r:id="rId4"/>
+    <sheet name="koa_case5" sheetId="16" r:id="rId5"/>
+    <sheet name="koa_case6" sheetId="10" r:id="rId6"/>
+    <sheet name="koa_case7" sheetId="11" r:id="rId7"/>
+    <sheet name="koa_case8" sheetId="17" r:id="rId8"/>
+    <sheet name="Wilcoxon" sheetId="18" r:id="rId9"/>
+    <sheet name="Friedman" sheetId="19" r:id="rId10"/>
+    <sheet name="Wstatistic" sheetId="20" r:id="rId11"/>
+    <sheet name="Fstatistic" sheetId="21" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,18 +36,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
   <si>
-    <t>BESD</t>
+    <t>KOA_CASE1</t>
   </si>
   <si>
-    <t>CASE1</t>
+    <t>KOA_CASE2</t>
+  </si>
+  <si>
+    <t>KOA_CASE3</t>
+  </si>
+  <si>
+    <t>KOA_CASE4</t>
+  </si>
+  <si>
+    <t>KOA_CASE5</t>
+  </si>
+  <si>
+    <t>KOA_CASE6</t>
+  </si>
+  <si>
+    <t>KOA_CASE7</t>
+  </si>
+  <si>
+    <t>KOA_CASE8</t>
   </si>
   <si>
     <t>cec2022</t>
   </si>
   <si>
-    <t>0/12/0</t>
+    <t>0_12_0</t>
+  </si>
+  <si>
+    <t>11_1_0</t>
+  </si>
+  <si>
+    <t>1_3_8</t>
+  </si>
+  <si>
+    <t>8_3_1</t>
   </si>
 </sst>
 </file>
@@ -77,9 +110,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,793 +391,1326 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413AF43D-367E-41D6-9306-2ED38DC4561C}">
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>71969.807221141295</v>
+        <v>5653.8962969535078</v>
       </c>
       <c r="B1">
-        <v>138668.55021489595</v>
+        <v>11978.001143465133</v>
       </c>
       <c r="C1">
-        <v>74246.64744857981</v>
+        <v>11720.626748294913</v>
       </c>
       <c r="D1">
-        <v>67569.833509082047</v>
+        <v>12633.029415525056</v>
       </c>
       <c r="E1">
-        <v>60329.670713599684</v>
+        <v>14620.381555405665</v>
       </c>
       <c r="F1">
-        <v>57330.303839686429</v>
+        <v>8293.5318760554619</v>
       </c>
       <c r="G1">
-        <v>53901.514366511256</v>
+        <v>18034.731546148541</v>
       </c>
       <c r="H1">
-        <v>64232.305223266732</v>
+        <v>7209.5923984150004</v>
       </c>
       <c r="I1">
-        <v>104895.07998538803</v>
+        <v>18024.023917600061</v>
       </c>
       <c r="J1">
-        <v>61099.888732721927</v>
+        <v>4318.7561638178422</v>
       </c>
       <c r="K1">
-        <v>69252.243875518878</v>
+        <v>7660.8505823726164</v>
       </c>
       <c r="L1">
-        <v>59769.663844666284</v>
+        <v>18137.459176857097</v>
       </c>
       <c r="M1">
-        <v>77719.130772234697</v>
+        <v>15252.235608875684</v>
       </c>
       <c r="N1">
-        <v>59574.03103121544</v>
+        <v>21866.881866446172</v>
       </c>
       <c r="O1">
-        <v>60344.483143218065</v>
+        <v>11097.869651143545</v>
       </c>
       <c r="P1">
-        <v>57103.553239191999</v>
+        <v>5956.7748841929124</v>
       </c>
       <c r="Q1">
-        <v>55723.297261808788</v>
+        <v>14666.944478688949</v>
       </c>
       <c r="R1">
-        <v>60936.6001489271</v>
+        <v>7161.258815529849</v>
       </c>
       <c r="S1">
-        <v>91354.685414843363</v>
+        <v>16059.293282357658</v>
       </c>
       <c r="T1">
-        <v>57349.775563228271</v>
+        <v>18014.227522700472</v>
       </c>
       <c r="U1">
-        <v>78697.364894982005</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>6653.1814387489985</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2857.532458667657</v>
+        <v>76.172912764734974</v>
       </c>
       <c r="B2">
-        <v>3957.0727791807849</v>
+        <v>71.80133632682066</v>
       </c>
       <c r="C2">
-        <v>3380.474876139664</v>
+        <v>49.206862172311048</v>
       </c>
       <c r="D2">
-        <v>2385.9145615191132</v>
+        <v>49.12364510372413</v>
       </c>
       <c r="E2">
-        <v>3469.426245315844</v>
+        <v>71.089195324849243</v>
       </c>
       <c r="F2">
-        <v>1788.141541914089</v>
+        <v>44.896412149605567</v>
       </c>
       <c r="G2">
-        <v>2269.9194933933713</v>
+        <v>49.113591879603405</v>
       </c>
       <c r="H2">
-        <v>1582.9428319637104</v>
+        <v>190.94000650271335</v>
       </c>
       <c r="I2">
-        <v>2517.9249108906856</v>
+        <v>49.105281011035288</v>
       </c>
       <c r="J2">
-        <v>3236.1970983542283</v>
+        <v>68.204010191379211</v>
       </c>
       <c r="K2">
-        <v>3261.3068646586516</v>
+        <v>49.157762089278719</v>
       </c>
       <c r="L2">
-        <v>2781.3876153746905</v>
+        <v>49.101673975894187</v>
       </c>
       <c r="M2">
-        <v>3127.8495807392374</v>
+        <v>49.100003479079191</v>
       </c>
       <c r="N2">
-        <v>4212.7711992463792</v>
+        <v>49.124835963276212</v>
       </c>
       <c r="O2">
-        <v>2889.3946330603108</v>
+        <v>49.115868755779047</v>
       </c>
       <c r="P2">
-        <v>4087.3507368797655</v>
+        <v>49.13741158875672</v>
       </c>
       <c r="Q2">
-        <v>4226.1699465370339</v>
+        <v>49.084753706918093</v>
       </c>
       <c r="R2">
-        <v>3109.8035784520534</v>
+        <v>49.318848892563665</v>
       </c>
       <c r="S2">
-        <v>4632.7207040598996</v>
+        <v>75.261901346756133</v>
       </c>
       <c r="T2">
-        <v>3940.4108474543718</v>
+        <v>49.103508798567304</v>
       </c>
       <c r="U2">
-        <v>3240.002755340995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>54.656229757500341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>82.112730895943514</v>
+        <v>0.95036230978860203</v>
       </c>
       <c r="B3">
-        <v>98.045466739535186</v>
+        <v>0.11335610487583381</v>
       </c>
       <c r="C3">
-        <v>78.184674941909634</v>
+        <v>0.56536525226738377</v>
       </c>
       <c r="D3">
-        <v>91.014349595554904</v>
+        <v>0.17372259876151475</v>
       </c>
       <c r="E3">
-        <v>95.316392469892321</v>
+        <v>1.1994627215376568</v>
       </c>
       <c r="F3">
-        <v>77.535206666738759</v>
+        <v>0.51475764932149559</v>
       </c>
       <c r="G3">
-        <v>97.379083409149871</v>
+        <v>0.81279183607398409</v>
       </c>
       <c r="H3">
-        <v>95.909615099390294</v>
+        <v>0.36515252014430644</v>
       </c>
       <c r="I3">
-        <v>94.745220868460478</v>
+        <v>0.1621516655529831</v>
       </c>
       <c r="J3">
-        <v>92.584827528055825</v>
+        <v>0.84956913235510001</v>
       </c>
       <c r="K3">
-        <v>88.112650828046185</v>
+        <v>0.32947271955379165</v>
       </c>
       <c r="L3">
-        <v>90.715999011058443</v>
+        <v>0.85534347881184658</v>
       </c>
       <c r="M3">
-        <v>92.136265693636119</v>
+        <v>0.33327200094390719</v>
       </c>
       <c r="N3">
-        <v>88.153142953889869</v>
+        <v>0.87680493023515282</v>
       </c>
       <c r="O3">
-        <v>97.35749665609876</v>
+        <v>0.33449033533440797</v>
       </c>
       <c r="P3">
-        <v>96.703118939780666</v>
+        <v>0.3728203615911525</v>
       </c>
       <c r="Q3">
-        <v>87.485258752616232</v>
+        <v>1.3394268884539997</v>
       </c>
       <c r="R3">
-        <v>88.506788470763922</v>
+        <v>0.4621764072149972</v>
       </c>
       <c r="S3">
-        <v>86.741170599332463</v>
+        <v>2.4839223023013801</v>
       </c>
       <c r="T3">
-        <v>92.821992925751488</v>
+        <v>0.72626828460090564</v>
       </c>
       <c r="U3">
-        <v>86.1327249140204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.85961024532298325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>226.29594508369428</v>
+        <v>118.00894267282433</v>
       </c>
       <c r="B4">
-        <v>260.81736230366414</v>
+        <v>111.04278934040758</v>
       </c>
       <c r="C4">
-        <v>228.72256759301217</v>
+        <v>101.8904348412957</v>
       </c>
       <c r="D4">
-        <v>256.12957395674994</v>
+        <v>124.89021120752534</v>
       </c>
       <c r="E4">
-        <v>253.38232114805419</v>
+        <v>131.63813394104659</v>
       </c>
       <c r="F4">
-        <v>227.60016090119802</v>
+        <v>122.50943625593061</v>
       </c>
       <c r="G4">
-        <v>235.36183354208947</v>
+        <v>101.57621253837578</v>
       </c>
       <c r="H4">
-        <v>249.37907153154674</v>
+        <v>115.13905867556036</v>
       </c>
       <c r="I4">
-        <v>246.43600435512849</v>
+        <v>92.116029349200517</v>
       </c>
       <c r="J4">
-        <v>249.18125441999882</v>
+        <v>116.03466435010705</v>
       </c>
       <c r="K4">
-        <v>232.9901271322592</v>
+        <v>126.26916110763955</v>
       </c>
       <c r="L4">
-        <v>233.15603875657598</v>
+        <v>116.43599278659349</v>
       </c>
       <c r="M4">
-        <v>247.2860852662136</v>
+        <v>121.76861252750018</v>
       </c>
       <c r="N4">
-        <v>246.93675541206699</v>
+        <v>102.74379780760648</v>
       </c>
       <c r="O4">
-        <v>201.87485857041634</v>
+        <v>115.6255423384614</v>
       </c>
       <c r="P4">
-        <v>236.82118798022725</v>
+        <v>99.058503646205963</v>
       </c>
       <c r="Q4">
-        <v>280.8689101993632</v>
+        <v>97.057186617045318</v>
       </c>
       <c r="R4">
-        <v>259.97011260042632</v>
+        <v>129.0158003652358</v>
       </c>
       <c r="S4">
-        <v>204.21261649370433</v>
+        <v>127.58372792665523</v>
       </c>
       <c r="T4">
-        <v>248.33094507879105</v>
+        <v>118.67388003552878</v>
       </c>
       <c r="U4">
-        <v>214.91125352622703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>111.6199354440638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>8988.6018779890692</v>
+        <v>5.8033678790995964</v>
       </c>
       <c r="B5">
-        <v>6919.00953386944</v>
+        <v>2.5946451188915489</v>
       </c>
       <c r="C5">
-        <v>8790.5517332273448</v>
+        <v>3.6935157334523865</v>
       </c>
       <c r="D5">
-        <v>7301.3303886574613</v>
+        <v>4.9509204420476181</v>
       </c>
       <c r="E5">
-        <v>5740.7441065338262</v>
+        <v>7.2334906243030446</v>
       </c>
       <c r="F5">
-        <v>7084.0167275548065</v>
+        <v>91.752298141544429</v>
       </c>
       <c r="G5">
-        <v>7402.7866216916318</v>
+        <v>47.042160719446429</v>
       </c>
       <c r="H5">
-        <v>8335.3958427425132</v>
+        <v>4.3416788730347662</v>
       </c>
       <c r="I5">
-        <v>7387.7813126691581</v>
+        <v>2.9211906298813801</v>
       </c>
       <c r="J5">
-        <v>6329.2161822251765</v>
+        <v>4.399188930986611</v>
       </c>
       <c r="K5">
-        <v>5639.8146779239887</v>
+        <v>1.3252494042303624</v>
       </c>
       <c r="L5">
-        <v>10396.295538573748</v>
+        <v>89.120028755349495</v>
       </c>
       <c r="M5">
-        <v>5867.9862657260273</v>
+        <v>3.4563449806553308</v>
       </c>
       <c r="N5">
-        <v>7856.4637385756359</v>
+        <v>13.439501898674393</v>
       </c>
       <c r="O5">
-        <v>6591.867387852195</v>
+        <v>3.0378006780780424</v>
       </c>
       <c r="P5">
-        <v>5927.5180321060352</v>
+        <v>4.6112193147689595</v>
       </c>
       <c r="Q5">
-        <v>6812.4769703820748</v>
+        <v>2.4126873096835197</v>
       </c>
       <c r="R5">
-        <v>6707.4801666448084</v>
+        <v>0.97771751198467882</v>
       </c>
       <c r="S5">
-        <v>6102.4940186275953</v>
+        <v>14.966467993774017</v>
       </c>
       <c r="T5">
-        <v>5340.2517231864595</v>
+        <v>13.211312047444267</v>
       </c>
       <c r="U5">
-        <v>5343.0982014907549</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>5.7984055167274846</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3844897355.2535787</v>
+        <v>11664.776335344328</v>
       </c>
       <c r="B6">
-        <v>2737579996.7248049</v>
+        <v>110175.93112548727</v>
       </c>
       <c r="C6">
-        <v>2888786522.4839959</v>
+        <v>25414.628808928726</v>
       </c>
       <c r="D6">
-        <v>3310483987.1576548</v>
+        <v>6142.0944398833863</v>
       </c>
       <c r="E6">
-        <v>2821710407.4184012</v>
+        <v>80667.516197058125</v>
       </c>
       <c r="F6">
-        <v>2364762519.2919078</v>
+        <v>80948.509989918064</v>
       </c>
       <c r="G6">
-        <v>2337576463.9237981</v>
+        <v>75645.930534955027</v>
       </c>
       <c r="H6">
-        <v>2986268452.5767574</v>
+        <v>21192.304504552005</v>
       </c>
       <c r="I6">
-        <v>4580489510.6712379</v>
+        <v>25660.331417094432</v>
       </c>
       <c r="J6">
-        <v>3628170846.8584232</v>
+        <v>218373.50160187809</v>
       </c>
       <c r="K6">
-        <v>3459146669.2114458</v>
+        <v>507614.94697325275</v>
       </c>
       <c r="L6">
-        <v>3025117020.5845113</v>
+        <v>3426.3550859140305</v>
       </c>
       <c r="M6">
-        <v>3148137948.7619281</v>
+        <v>153501.57254571264</v>
       </c>
       <c r="N6">
-        <v>493818650.78013837</v>
+        <v>72803.411796737244</v>
       </c>
       <c r="O6">
-        <v>2844156117.218708</v>
+        <v>4338.5847001099492</v>
       </c>
       <c r="P6">
-        <v>1560985776.7701688</v>
+        <v>1502.1961030371813</v>
       </c>
       <c r="Q6">
-        <v>1058553465.881269</v>
+        <v>5128.309439731469</v>
       </c>
       <c r="R6">
-        <v>2733544599.872211</v>
+        <v>42273.560642590994</v>
       </c>
       <c r="S6">
-        <v>4102269364.4456105</v>
+        <v>71381.84569165486</v>
       </c>
       <c r="T6">
-        <v>2758432812.5268564</v>
+        <v>14780.944319807153</v>
       </c>
       <c r="U6">
-        <v>2942851349.3437014</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>41951.904840120653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>364.69590117525877</v>
+        <v>90.046231705034643</v>
       </c>
       <c r="B7">
-        <v>343.30964377246801</v>
+        <v>81.203929020171927</v>
       </c>
       <c r="C7">
-        <v>401.29665468468465</v>
+        <v>81.965355574763635</v>
       </c>
       <c r="D7">
-        <v>336.63281997779723</v>
+        <v>53.685459205397819</v>
       </c>
       <c r="E7">
-        <v>395.89596722694387</v>
+        <v>68.019372346071123</v>
       </c>
       <c r="F7">
-        <v>331.9923064615009</v>
+        <v>125.41302746688507</v>
       </c>
       <c r="G7">
-        <v>353.25466824083787</v>
+        <v>46.352623688182803</v>
       </c>
       <c r="H7">
-        <v>297.97968357368336</v>
+        <v>97.505707504057227</v>
       </c>
       <c r="I7">
-        <v>368.38199630840109</v>
+        <v>78.255545471055029</v>
       </c>
       <c r="J7">
-        <v>437.68562156617645</v>
+        <v>89.561660962462156</v>
       </c>
       <c r="K7">
-        <v>297.34960371409852</v>
+        <v>63.08069920971684</v>
       </c>
       <c r="L7">
-        <v>379.24822179369221</v>
+        <v>74.675419650040112</v>
       </c>
       <c r="M7">
-        <v>254.91966999934539</v>
+        <v>115.16654569358889</v>
       </c>
       <c r="N7">
-        <v>385.54185102736119</v>
+        <v>65.080851716939833</v>
       </c>
       <c r="O7">
-        <v>250.34341504234999</v>
+        <v>93.592519816713775</v>
       </c>
       <c r="P7">
-        <v>384.29798571375522</v>
+        <v>101.39719660444734</v>
       </c>
       <c r="Q7">
-        <v>280.46774183483785</v>
+        <v>100.52645499982918</v>
       </c>
       <c r="R7">
-        <v>345.93840924255892</v>
+        <v>110.9285310883547</v>
       </c>
       <c r="S7">
-        <v>455.05568529889842</v>
+        <v>108.25988943011089</v>
       </c>
       <c r="T7">
-        <v>260.86825362300988</v>
+        <v>94.600621310538827</v>
       </c>
       <c r="U7">
-        <v>324.59899523768263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <v>99.299227916611926</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>81.224899072849439</v>
+        <v>38.102217371974803</v>
       </c>
       <c r="B8">
-        <v>226.30295824062296</v>
+        <v>37.490843456633684</v>
       </c>
       <c r="C8">
-        <v>191.7088939793648</v>
+        <v>34.68199640904686</v>
       </c>
       <c r="D8">
-        <v>154.75133299049594</v>
+        <v>36.488736888086351</v>
       </c>
       <c r="E8">
-        <v>85.578651825337147</v>
+        <v>41.745581116663288</v>
       </c>
       <c r="F8">
-        <v>246.88870109509389</v>
+        <v>38.767722638368468</v>
       </c>
       <c r="G8">
-        <v>131.55056645735385</v>
+        <v>35.176863116729237</v>
       </c>
       <c r="H8">
-        <v>357.26551601776464</v>
+        <v>40.222908899820141</v>
       </c>
       <c r="I8">
-        <v>176.22459567456599</v>
+        <v>38.994141505355401</v>
       </c>
       <c r="J8">
-        <v>76.514940683385703</v>
+        <v>37.096798585275337</v>
       </c>
       <c r="K8">
-        <v>193.65081351515528</v>
+        <v>34.798835665724255</v>
       </c>
       <c r="L8">
-        <v>132.70692518412716</v>
+        <v>38.726588702254048</v>
       </c>
       <c r="M8">
-        <v>313.86506733597753</v>
+        <v>33.782407858914212</v>
       </c>
       <c r="N8">
-        <v>276.96024897505094</v>
+        <v>41.051593198625142</v>
       </c>
       <c r="O8">
-        <v>83.251481449073253</v>
+        <v>43.086826567696789</v>
       </c>
       <c r="P8">
-        <v>88.882411697743009</v>
+        <v>40.397535773241998</v>
       </c>
       <c r="Q8">
-        <v>351.84459832873017</v>
+        <v>36.431759863844491</v>
       </c>
       <c r="R8">
-        <v>316.46313984502922</v>
+        <v>42.556092410755355</v>
       </c>
       <c r="S8">
-        <v>99.096412496126959</v>
+        <v>38.957884674654451</v>
       </c>
       <c r="T8">
-        <v>117.81208316665607</v>
+        <v>36.936717515668988</v>
       </c>
       <c r="U8">
-        <v>390.96608886126296</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>38.124352949507738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1243.5085994858009</v>
+        <v>180.81556999878012</v>
       </c>
       <c r="B9">
-        <v>1004.2587924947484</v>
+        <v>180.82058719103816</v>
       </c>
       <c r="C9">
-        <v>982.3757997742523</v>
+        <v>180.81063519913323</v>
       </c>
       <c r="D9">
-        <v>1410.5464954767203</v>
+        <v>180.78626953316007</v>
       </c>
       <c r="E9">
-        <v>1073.1776508648054</v>
+        <v>180.7946950581445</v>
       </c>
       <c r="F9">
-        <v>801.1393089941871</v>
+        <v>180.81316996196711</v>
       </c>
       <c r="G9">
-        <v>1191.0181079993849</v>
+        <v>180.79479240654427</v>
       </c>
       <c r="H9">
-        <v>970.74641231013902</v>
+        <v>180.80051433188783</v>
       </c>
       <c r="I9">
-        <v>1354.0398441541815</v>
+        <v>180.803779938562</v>
       </c>
       <c r="J9">
-        <v>730.29007542070167</v>
+        <v>180.79393018711016</v>
       </c>
       <c r="K9">
-        <v>1207.2134778567815</v>
+        <v>180.82301994102727</v>
       </c>
       <c r="L9">
-        <v>962.37020731486018</v>
+        <v>180.79829776842325</v>
       </c>
       <c r="M9">
-        <v>845.15620679869517</v>
+        <v>180.78606554065891</v>
       </c>
       <c r="N9">
-        <v>1384.6865985089044</v>
+        <v>180.80975023518931</v>
       </c>
       <c r="O9">
-        <v>1023.7010459625353</v>
+        <v>180.82997926704229</v>
       </c>
       <c r="P9">
-        <v>846.5750061044937</v>
+        <v>180.79561597598013</v>
       </c>
       <c r="Q9">
-        <v>930.71734684926014</v>
+        <v>180.81458474939154</v>
       </c>
       <c r="R9">
-        <v>1151.2157869420062</v>
+        <v>180.81621188772897</v>
       </c>
       <c r="S9">
-        <v>1042.2918843709949</v>
+        <v>181.37636573537475</v>
       </c>
       <c r="T9">
-        <v>1084.6678636860684</v>
+        <v>180.79831667495137</v>
       </c>
       <c r="U9">
-        <v>624.89745134973691</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>180.78770988334418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>869.91780813076821</v>
+        <v>2470.2084853224915</v>
       </c>
       <c r="B10">
-        <v>343.9974971655497</v>
+        <v>100.74986435171195</v>
       </c>
       <c r="C10">
-        <v>4354.3482243954741</v>
+        <v>100.740660258145</v>
       </c>
       <c r="D10">
-        <v>4582.8842982229435</v>
+        <v>1851.0986066081987</v>
       </c>
       <c r="E10">
-        <v>4421.1087289369416</v>
+        <v>100.77286798330306</v>
       </c>
       <c r="F10">
-        <v>1716.80495801286</v>
+        <v>100.78392634706552</v>
       </c>
       <c r="G10">
-        <v>3927.9066157584211</v>
+        <v>2078.2920571273899</v>
       </c>
       <c r="H10">
-        <v>4919.9269964797495</v>
+        <v>101.02586570807034</v>
       </c>
       <c r="I10">
-        <v>4734.0962489914682</v>
+        <v>292.32658989181164</v>
       </c>
       <c r="J10">
-        <v>4560.242668443816</v>
+        <v>107.63705562134237</v>
       </c>
       <c r="K10">
-        <v>1055.7945477331259</v>
+        <v>100.64195808624027</v>
       </c>
       <c r="L10">
-        <v>2947.6970331987422</v>
+        <v>2788.4396021939283</v>
       </c>
       <c r="M10">
-        <v>910.19809766283788</v>
+        <v>100.90177037807234</v>
       </c>
       <c r="N10">
-        <v>4781.2487532327559</v>
+        <v>310.91763675876155</v>
       </c>
       <c r="O10">
-        <v>3654.6210133530058</v>
+        <v>100.77375281572677</v>
       </c>
       <c r="P10">
-        <v>4878.5550806375386</v>
+        <v>294.90122168102744</v>
       </c>
       <c r="Q10">
-        <v>4177.4595685886743</v>
+        <v>100.85963815625473</v>
       </c>
       <c r="R10">
-        <v>4710.6357324080336</v>
+        <v>140.67515785513388</v>
       </c>
       <c r="S10">
-        <v>2614.418411746472</v>
+        <v>304.27917083045031</v>
       </c>
       <c r="T10">
-        <v>2914.0928067366767</v>
+        <v>100.73383752910513</v>
       </c>
       <c r="U10">
-        <v>4048.4345123033527</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>100.79009202098223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>4894.8603289980301</v>
+        <v>894.96046219538357</v>
       </c>
       <c r="B11">
-        <v>8238.232997238254</v>
+        <v>300.05495190628335</v>
       </c>
       <c r="C11">
-        <v>7048.6925121504501</v>
+        <v>300.05964654693889</v>
       </c>
       <c r="D11">
-        <v>6203.3397767839942</v>
+        <v>1018.9193100809207</v>
       </c>
       <c r="E11">
-        <v>6227.0764659521919</v>
+        <v>300.057815209821</v>
       </c>
       <c r="F11">
-        <v>5810.9918829035323</v>
+        <v>300.43997239621012</v>
       </c>
       <c r="G11">
-        <v>8819.4923449665639</v>
+        <v>300.02855044771968</v>
       </c>
       <c r="H11">
-        <v>6384.0029987955077</v>
+        <v>400.22445601400432</v>
       </c>
       <c r="I11">
-        <v>10596.71001988715</v>
+        <v>401.66383398159996</v>
       </c>
       <c r="J11">
-        <v>7462.2406157832374</v>
+        <v>300.06905879984924</v>
       </c>
       <c r="K11">
-        <v>7607.6379341581305</v>
+        <v>300.01288274375975</v>
       </c>
       <c r="L11">
-        <v>7208.6479021487648</v>
+        <v>300.08335869227085</v>
       </c>
       <c r="M11">
-        <v>7360.9881285824049</v>
+        <v>300.02486345137822</v>
       </c>
       <c r="N11">
-        <v>8424.6241860383707</v>
+        <v>300.00982063577248</v>
       </c>
       <c r="O11">
-        <v>7977.0718335833935</v>
+        <v>300.01059710136133</v>
       </c>
       <c r="P11">
-        <v>9091.2647083933207</v>
+        <v>401.09190960249316</v>
       </c>
       <c r="Q11">
-        <v>6969.2999506772503</v>
+        <v>300.16539318676223</v>
       </c>
       <c r="R11">
-        <v>6436.3150257510752</v>
+        <v>300.18616997895833</v>
       </c>
       <c r="S11">
-        <v>5990.3115437964661</v>
+        <v>300.07159760328159</v>
       </c>
       <c r="T11">
-        <v>7546.3858330249132</v>
+        <v>400.17861392115947</v>
       </c>
       <c r="U11">
-        <v>6961.0641338907062</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.10250604564180321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1248.9754355182149</v>
+        <v>255.1561527173244</v>
       </c>
       <c r="B12">
-        <v>1403.356653288839</v>
+        <v>278.7721478124904</v>
       </c>
       <c r="C12">
-        <v>1248.8338129248787</v>
+        <v>255.29300505209085</v>
       </c>
       <c r="D12">
-        <v>1052.8489974467038</v>
+        <v>263.89086689423402</v>
       </c>
       <c r="E12">
-        <v>938.02400587705552</v>
+        <v>252.95633274629108</v>
       </c>
       <c r="F12">
-        <v>1130.4873362997478</v>
+        <v>269.42809288473563</v>
       </c>
       <c r="G12">
-        <v>1358.6718357516002</v>
+        <v>266.38417974186132</v>
       </c>
       <c r="H12">
-        <v>1366.5603411502907</v>
+        <v>256.13021167174929</v>
       </c>
       <c r="I12">
-        <v>884.28994902928389</v>
+        <v>253.34673124759684</v>
       </c>
       <c r="J12">
-        <v>1299.8356843921802</v>
+        <v>273.58636332330934</v>
       </c>
       <c r="K12">
-        <v>1361.5952250124747</v>
+        <v>268.52847344401653</v>
       </c>
       <c r="L12">
-        <v>1184.623381387124</v>
+        <v>269.30301273258601</v>
       </c>
       <c r="M12">
-        <v>1249.3643326844472</v>
+        <v>259.04516663377217</v>
       </c>
       <c r="N12">
-        <v>1168.5404292819367</v>
+        <v>261.76536619364833</v>
       </c>
       <c r="O12">
-        <v>1164.9339623799506</v>
+        <v>245.97465335638526</v>
       </c>
       <c r="P12">
-        <v>850.28753252904653</v>
+        <v>270.2856651527236</v>
       </c>
       <c r="Q12">
-        <v>1028.7248652245235</v>
+        <v>248.48026346735514</v>
       </c>
       <c r="R12">
-        <v>1208.5882306559197</v>
+        <v>255.51198061734067</v>
       </c>
       <c r="S12">
-        <v>1470.2390129167425</v>
+        <v>259.65028688710709</v>
       </c>
       <c r="T12">
-        <v>1390.4779513233598</v>
+        <v>256.27048582379575</v>
       </c>
       <c r="U12">
-        <v>1268.2404976626021</v>
+        <v>255.36437601523767</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E0215E-AB81-44BB-8963-D5D6965B0E7B}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>6.7619047619047619</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>7.9047619047619051</v>
+      </c>
+      <c r="D1">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="E1">
+        <v>3.1428571428571428</v>
+      </c>
+      <c r="F1">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="G1">
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="H1">
+        <v>2.8571428571428572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>6.7142857142857144</v>
+      </c>
+      <c r="B2">
+        <v>2.3095238095238093</v>
+      </c>
+      <c r="C2">
+        <v>7.5238095238095237</v>
+      </c>
+      <c r="D2">
+        <v>6.1904761904761907</v>
+      </c>
+      <c r="E2">
+        <v>3.5238095238095237</v>
+      </c>
+      <c r="F2">
+        <v>3.2142857142857144</v>
+      </c>
+      <c r="G2">
+        <v>2.9047619047619047</v>
+      </c>
+      <c r="H2">
+        <v>3.6190476190476191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>6.6190476190476186</v>
+      </c>
+      <c r="B3">
+        <v>2.1904761904761907</v>
+      </c>
+      <c r="C3">
+        <v>7.8571428571428568</v>
+      </c>
+      <c r="D3">
+        <v>6.5238095238095237</v>
+      </c>
+      <c r="E3">
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="F3">
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="G3">
+        <v>3.6190476190476191</v>
+      </c>
+      <c r="H3">
+        <v>3.1904761904761907</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>7.0476190476190474</v>
+      </c>
+      <c r="B4">
+        <v>1.0952380952380953</v>
+      </c>
+      <c r="C4">
+        <v>7.3809523809523814</v>
+      </c>
+      <c r="D4">
+        <v>6.5714285714285712</v>
+      </c>
+      <c r="E4">
+        <v>3.2857142857142856</v>
+      </c>
+      <c r="F4">
+        <v>3.8095238095238093</v>
+      </c>
+      <c r="G4">
+        <v>3.3809523809523809</v>
+      </c>
+      <c r="H4">
+        <v>3.4285714285714284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5.8571428571428568</v>
+      </c>
+      <c r="B5">
+        <v>1.9523809523809523</v>
+      </c>
+      <c r="C5">
+        <v>7.7142857142857144</v>
+      </c>
+      <c r="D5">
+        <v>6.7619047619047619</v>
+      </c>
+      <c r="E5">
+        <v>3.2380952380952381</v>
+      </c>
+      <c r="F5">
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="G5">
+        <v>4.5238095238095237</v>
+      </c>
+      <c r="H5">
+        <v>3.3809523809523809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4.5</v>
+      </c>
+      <c r="B6">
+        <v>4.5</v>
+      </c>
+      <c r="C6">
+        <v>4.5</v>
+      </c>
+      <c r="D6">
+        <v>4.5</v>
+      </c>
+      <c r="E6">
+        <v>4.5</v>
+      </c>
+      <c r="F6">
+        <v>4.5</v>
+      </c>
+      <c r="G6">
+        <v>4.5</v>
+      </c>
+      <c r="H6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7.3809523809523814</v>
+      </c>
+      <c r="B7">
+        <v>1.0952380952380953</v>
+      </c>
+      <c r="C7">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>2.9523809523809526</v>
+      </c>
+      <c r="F7">
+        <v>3.6190476190476191</v>
+      </c>
+      <c r="G7">
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="H7">
+        <v>3.9047619047619047</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6.9523809523809526</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="D8">
+        <v>6.3809523809523814</v>
+      </c>
+      <c r="E8">
+        <v>3.4285714285714284</v>
+      </c>
+      <c r="F8">
+        <v>4.0476190476190474</v>
+      </c>
+      <c r="G8">
+        <v>3.4761904761904763</v>
+      </c>
+      <c r="H8">
+        <v>3.0476190476190474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2.0952380952380953</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>2.9761904761904763</v>
+      </c>
+      <c r="F9">
+        <v>3.0476190476190474</v>
+      </c>
+      <c r="G9">
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="H9">
+        <v>4.0238095238095237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="C10">
+        <v>6.4285714285714288</v>
+      </c>
+      <c r="D10">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="E10">
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="F10">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="G10">
+        <v>5.1904761904761907</v>
+      </c>
+      <c r="H10">
+        <v>3.2857142857142856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5.8095238095238093</v>
+      </c>
+      <c r="B11">
+        <v>3.5</v>
+      </c>
+      <c r="C11">
+        <v>6.5714285714285712</v>
+      </c>
+      <c r="D11">
+        <v>5.5714285714285712</v>
+      </c>
+      <c r="E11">
+        <v>3.5952380952380953</v>
+      </c>
+      <c r="F11">
+        <v>3.8095238095238093</v>
+      </c>
+      <c r="G11">
+        <v>4.0476190476190474</v>
+      </c>
+      <c r="H11">
+        <v>3.0952380952380953</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7.2380952380952381</v>
+      </c>
+      <c r="B12">
+        <v>2.3809523809523809</v>
+      </c>
+      <c r="C12">
+        <v>6.1904761904761907</v>
+      </c>
+      <c r="D12">
+        <v>4.7142857142857144</v>
+      </c>
+      <c r="E12">
+        <v>3.4761904761904763</v>
+      </c>
+      <c r="F12">
+        <v>3.1428571428571428</v>
+      </c>
+      <c r="G12">
+        <v>3.1428571428571428</v>
+      </c>
+      <c r="H12">
+        <v>5.7142857142857144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6.5734126984126986</v>
+      </c>
+      <c r="B13">
+        <v>2.0694444444444442</v>
+      </c>
+      <c r="C13">
+        <v>7.0892857142857144</v>
+      </c>
+      <c r="D13">
+        <v>5.9067460317460316</v>
+      </c>
+      <c r="E13">
+        <v>3.4722222222222219</v>
+      </c>
+      <c r="F13">
+        <v>3.4623015873015874</v>
+      </c>
+      <c r="G13">
+        <v>3.7559523809523814</v>
+      </c>
+      <c r="H13">
+        <v>3.6706349206349209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F517F0FD-007E-43E9-A5BF-7F316537EBC7}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E169FEB4-5846-42E7-9748-7AC0ACDC8EAE}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>6.5734126984126986</v>
+      </c>
+      <c r="C2">
+        <v>2.0694444444444442</v>
+      </c>
+      <c r="D2">
+        <v>7.0892857142857144</v>
+      </c>
+      <c r="E2">
+        <v>5.9067460317460316</v>
+      </c>
+      <c r="F2">
+        <v>3.4722222222222219</v>
+      </c>
+      <c r="G2">
+        <v>3.4623015873015874</v>
+      </c>
+      <c r="H2">
+        <v>3.7559523809523814</v>
+      </c>
+      <c r="I2">
+        <v>3.6706349206349209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1154,793 +1719,793 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF66E7B-69CE-49BC-BF53-DDFDBA469D8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21330B8D-E017-4FE9-901B-B1DF87C151E7}">
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>52250.769588684489</v>
+        <v>5.6843418860808015E-14</v>
       </c>
       <c r="B1">
-        <v>98127.276599349469</v>
+        <v>5.6843418860808015E-14</v>
       </c>
       <c r="C1">
-        <v>71982.570161318639</v>
+        <v>5.6843418860808015E-14</v>
       </c>
       <c r="D1">
-        <v>48382.751296422313</v>
+        <v>5.6843418860808015E-14</v>
       </c>
       <c r="E1">
-        <v>70717.762156518147</v>
+        <v>5.6843418860808015E-14</v>
       </c>
       <c r="F1">
-        <v>69882.41080037698</v>
+        <v>1.1368683772161603E-13</v>
       </c>
       <c r="G1">
-        <v>75896.612172570894</v>
+        <v>5.6843418860808015E-14</v>
       </c>
       <c r="H1">
-        <v>61156.327292492664</v>
+        <v>5.6843418860808015E-14</v>
       </c>
       <c r="I1">
-        <v>32043.977254637284</v>
+        <v>5.6843418860808015E-14</v>
       </c>
       <c r="J1">
-        <v>58423.966937896039</v>
+        <v>5.6843418860808015E-14</v>
       </c>
       <c r="K1">
-        <v>93618.017161304859</v>
+        <v>5.6843418860808015E-14</v>
       </c>
       <c r="L1">
-        <v>77222.556331502215</v>
+        <v>5.6843418860808015E-14</v>
       </c>
       <c r="M1">
-        <v>75002.820227771721</v>
+        <v>5.6843418860808015E-14</v>
       </c>
       <c r="N1">
-        <v>86497.507507589355</v>
+        <v>5.6843418860808015E-14</v>
       </c>
       <c r="O1">
-        <v>85847.172049790912</v>
+        <v>5.6843418860808015E-14</v>
       </c>
       <c r="P1">
-        <v>64048.685139890898</v>
+        <v>5.6843418860808015E-14</v>
       </c>
       <c r="Q1">
-        <v>28728.356367885775</v>
+        <v>5.6843418860808015E-14</v>
       </c>
       <c r="R1">
-        <v>54462.528156762979</v>
+        <v>5.6843418860808015E-14</v>
       </c>
       <c r="S1">
-        <v>34742.834793236158</v>
+        <v>5.6843418860808015E-14</v>
       </c>
       <c r="T1">
-        <v>85824.213058737208</v>
+        <v>5.6843418860808015E-14</v>
       </c>
       <c r="U1">
-        <v>63866.184643041473</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>5.6843418860808015E-14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1122.7557060022157</v>
+        <v>49.084478979481332</v>
       </c>
       <c r="B2">
-        <v>675.74247949528217</v>
+        <v>49.084478979481446</v>
       </c>
       <c r="C2">
-        <v>2125.2309501446189</v>
+        <v>49.084478979481219</v>
       </c>
       <c r="D2">
-        <v>1254.6239011356729</v>
+        <v>49.084478979481219</v>
       </c>
       <c r="E2">
-        <v>571.60258487683245</v>
+        <v>49.084478979481219</v>
       </c>
       <c r="F2">
-        <v>1136.3329305863124</v>
+        <v>49.084478979481219</v>
       </c>
       <c r="G2">
-        <v>2290.3426053898411</v>
+        <v>49.084478979481219</v>
       </c>
       <c r="H2">
-        <v>1922.9919132764312</v>
+        <v>5.6843418860808015E-14</v>
       </c>
       <c r="I2">
-        <v>1443.9795221066429</v>
+        <v>49.084478979481332</v>
       </c>
       <c r="J2">
-        <v>1445.2326021191088</v>
+        <v>5.6843418860808015E-14</v>
       </c>
       <c r="K2">
-        <v>1956.0281374582305</v>
+        <v>5.6843418860808015E-14</v>
       </c>
       <c r="L2">
-        <v>2026.6206344238644</v>
+        <v>1.7053025658242404E-13</v>
       </c>
       <c r="M2">
-        <v>790.65006251794807</v>
+        <v>4.0302601581373665</v>
       </c>
       <c r="N2">
-        <v>1516.928916740796</v>
+        <v>49.084478979481219</v>
       </c>
       <c r="O2">
-        <v>2419.8955193030597</v>
+        <v>4.0302601581373096</v>
       </c>
       <c r="P2">
-        <v>1876.8949732257415</v>
+        <v>49.084478979481219</v>
       </c>
       <c r="Q2">
-        <v>1540.3349544644523</v>
+        <v>44.89546931745133</v>
       </c>
       <c r="R2">
-        <v>1453.0705201828894</v>
+        <v>5.6843418860808015E-13</v>
       </c>
       <c r="S2">
-        <v>1457.3314140056018</v>
+        <v>1.1368683772161603E-13</v>
       </c>
       <c r="T2">
-        <v>2173.9764928722648</v>
+        <v>44.895469317451273</v>
       </c>
       <c r="U2">
-        <v>1192.2828259829207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>49.084478979481219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>63.794448486730289</v>
+        <v>8.3629747223312734E-5</v>
       </c>
       <c r="B3">
-        <v>66.646987885625549</v>
+        <v>1.1368683772161603E-13</v>
       </c>
       <c r="C3">
-        <v>62.782347817926052</v>
+        <v>1.4091906223256956E-5</v>
       </c>
       <c r="D3">
-        <v>87.121864937725604</v>
+        <v>1.9929132122342708E-6</v>
       </c>
       <c r="E3">
-        <v>52.756204106307678</v>
+        <v>7.1746387675375445E-7</v>
       </c>
       <c r="F3">
-        <v>91.021008982817989</v>
+        <v>1.1368683772161603E-13</v>
       </c>
       <c r="G3">
-        <v>75.053890859191938</v>
+        <v>1.2754744602716528E-6</v>
       </c>
       <c r="H3">
-        <v>73.799120398316404</v>
+        <v>1.283287031128566E-5</v>
       </c>
       <c r="I3">
-        <v>67.499185809065011</v>
+        <v>1.2754644558299333E-6</v>
       </c>
       <c r="J3">
-        <v>74.514672151198056</v>
+        <v>5.9619328567350749E-6</v>
       </c>
       <c r="K3">
-        <v>80.922424853825873</v>
+        <v>8.7416318592659081E-6</v>
       </c>
       <c r="L3">
-        <v>74.952411713445258</v>
+        <v>3.1888396279100562E-7</v>
       </c>
       <c r="M3">
-        <v>78.369820717372932</v>
+        <v>1.9929383370254072E-6</v>
       </c>
       <c r="N3">
-        <v>63.396061923550974</v>
+        <v>1.2754786666846485E-6</v>
       </c>
       <c r="O3">
-        <v>69.6850772250815</v>
+        <v>3.1888464491203194E-7</v>
       </c>
       <c r="P3">
-        <v>70.94009798040247</v>
+        <v>4.662582000491966E-6</v>
       </c>
       <c r="Q3">
-        <v>73.536100923453432</v>
+        <v>1.4935579997654713E-5</v>
       </c>
       <c r="R3">
-        <v>83.850014423019843</v>
+        <v>3.5232047821409651E-6</v>
       </c>
       <c r="S3">
-        <v>89.527779005415823</v>
+        <v>2.7038620373787126E-6</v>
       </c>
       <c r="T3">
-        <v>66.2002702550202</v>
+        <v>2.5428349772482761E-6</v>
       </c>
       <c r="U3">
-        <v>75.095805993757608</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.6625559662061278E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>211.88716086958516</v>
+        <v>19.899166028408672</v>
       </c>
       <c r="B4">
-        <v>214.54793182923299</v>
+        <v>20.894125085501969</v>
       </c>
       <c r="C4">
-        <v>223.43405418889597</v>
+        <v>14.924385856399454</v>
       </c>
       <c r="D4">
-        <v>216.25302524563892</v>
+        <v>14.924380818580403</v>
       </c>
       <c r="E4">
-        <v>201.1929429801188</v>
+        <v>18.904212009134426</v>
       </c>
       <c r="F4">
-        <v>212.99323557449088</v>
+        <v>13.929416723667941</v>
       </c>
       <c r="G4">
-        <v>254.66871237796795</v>
+        <v>18.904212009134426</v>
       </c>
       <c r="H4">
-        <v>204.14950587450471</v>
+        <v>24.873961313875157</v>
       </c>
       <c r="I4">
-        <v>157.87356517630701</v>
+        <v>17.90925798986018</v>
       </c>
       <c r="J4">
-        <v>209.04784569015408</v>
+        <v>25.868895136434844</v>
       </c>
       <c r="K4">
-        <v>220.08982166883447</v>
+        <v>22.884017965154953</v>
       </c>
       <c r="L4">
-        <v>152.01602399223066</v>
+        <v>17.909252952041243</v>
       </c>
       <c r="M4">
-        <v>223.84035763600025</v>
+        <v>16.914293894947946</v>
       </c>
       <c r="N4">
-        <v>181.98422557072649</v>
+        <v>21.889089180414317</v>
       </c>
       <c r="O4">
-        <v>199.72055098859244</v>
+        <v>20.89413012332102</v>
       </c>
       <c r="P4">
-        <v>220.16592105280824</v>
+        <v>17.909247914222078</v>
       </c>
       <c r="Q4">
-        <v>226.35006072620035</v>
+        <v>21.889084142595266</v>
       </c>
       <c r="R4">
-        <v>153.97084851075499</v>
+        <v>29.848746523703426</v>
       </c>
       <c r="S4">
-        <v>186.24046622098979</v>
+        <v>17.909247914222078</v>
       </c>
       <c r="T4">
-        <v>195.78908403525634</v>
+        <v>15.919329800035598</v>
       </c>
       <c r="U4">
-        <v>237.53175010568202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>20.894125085501969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3844.3965674692336</v>
+        <v>2.2737367544323206E-13</v>
       </c>
       <c r="B5">
-        <v>4965.789179357279</v>
+        <v>0.45432401859102356</v>
       </c>
       <c r="C5">
-        <v>8192.3706873440897</v>
+        <v>0.54385226900740236</v>
       </c>
       <c r="D5">
-        <v>8955.0255464051297</v>
+        <v>8.952825041660617E-2</v>
       </c>
       <c r="E5">
-        <v>6097.5332921135141</v>
+        <v>0.26858475124947745</v>
       </c>
       <c r="F5">
-        <v>5901.0078441232909</v>
+        <v>0.63338051942378115</v>
       </c>
       <c r="G5">
-        <v>5382.1459871147426</v>
+        <v>0.90864803718181975</v>
       </c>
       <c r="H5">
-        <v>5259.1222134545833</v>
+        <v>8.952825041660617E-2</v>
       </c>
       <c r="I5">
-        <v>4358.1337350171807</v>
+        <v>2.3611271874569866</v>
       </c>
       <c r="J5">
-        <v>7054.3479156730891</v>
+        <v>0.63338051942389484</v>
       </c>
       <c r="K5">
-        <v>3972.8128186498152</v>
+        <v>0.17905650083309865</v>
       </c>
       <c r="L5">
-        <v>6675.4305043963404</v>
+        <v>1.1772327884309561</v>
       </c>
       <c r="M5">
-        <v>10547.878761228605</v>
+        <v>1.1368683772161603E-13</v>
       </c>
       <c r="N5">
-        <v>4968.5460302945221</v>
+        <v>3.4106051316484809E-13</v>
       </c>
       <c r="O5">
-        <v>4971.5975477287493</v>
+        <v>8.9528250416492483E-2</v>
       </c>
       <c r="P5">
-        <v>9970.5881335168651</v>
+        <v>0.26858475124936376</v>
       </c>
       <c r="Q5">
-        <v>7414.0875451751417</v>
+        <v>1.906803168865963</v>
       </c>
       <c r="R5">
-        <v>8411.2362560772017</v>
+        <v>0.26858475124947745</v>
       </c>
       <c r="S5">
-        <v>5061.6847989649377</v>
+        <v>0.17905650083298497</v>
       </c>
       <c r="T5">
-        <v>6051.2861916071388</v>
+        <v>0.54385226900728867</v>
       </c>
       <c r="U5">
-        <v>8007.6717998886561</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.1368683772161603E-13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1584134605.5999694</v>
+        <v>1.214525283119201</v>
       </c>
       <c r="B6">
-        <v>411794471.24890327</v>
+        <v>92.327642247325912</v>
       </c>
       <c r="C6">
-        <v>906167815.88225937</v>
+        <v>46.86329960384478</v>
       </c>
       <c r="D6">
-        <v>398166397.72580308</v>
+        <v>6.3380762239439719</v>
       </c>
       <c r="E6">
-        <v>951139182.17941773</v>
+        <v>13.713365548669572</v>
       </c>
       <c r="F6">
-        <v>1635097566.9145739</v>
+        <v>49.784494917583288</v>
       </c>
       <c r="G6">
-        <v>970490514.52929103</v>
+        <v>64.39427963230537</v>
       </c>
       <c r="H6">
-        <v>727542032.98552847</v>
+        <v>58.340271645571875</v>
       </c>
       <c r="I6">
-        <v>1106305804.8189511</v>
+        <v>41.177880781592421</v>
       </c>
       <c r="J6">
-        <v>478168724.73340654</v>
+        <v>16.890266770866901</v>
       </c>
       <c r="K6">
-        <v>1692297912.809756</v>
+        <v>13.04412330773448</v>
       </c>
       <c r="L6">
-        <v>921899804.6288482</v>
+        <v>22.809861347687047</v>
       </c>
       <c r="M6">
-        <v>1601645245.6473258</v>
+        <v>24.087786483977425</v>
       </c>
       <c r="N6">
-        <v>1519810847.7668407</v>
+        <v>61.48556900622134</v>
       </c>
       <c r="O6">
-        <v>635182191.02359521</v>
+        <v>22.369169446187016</v>
       </c>
       <c r="P6">
-        <v>920545386.96672928</v>
+        <v>24.839105482290734</v>
       </c>
       <c r="Q6">
-        <v>1021464126.0671846</v>
+        <v>36.018469747840527</v>
       </c>
       <c r="R6">
-        <v>1088274463.1136971</v>
+        <v>20.40233059556931</v>
       </c>
       <c r="S6">
-        <v>921587831.80452597</v>
+        <v>30.191659843813341</v>
       </c>
       <c r="T6">
-        <v>1263825703.0233049</v>
+        <v>30.357988219603385</v>
       </c>
       <c r="U6">
-        <v>2628713318.4581804</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.5369372693078276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>215.15264588714717</v>
+        <v>4.9777316486383825</v>
       </c>
       <c r="B7">
-        <v>165.08824472266042</v>
+        <v>12.273646728768881</v>
       </c>
       <c r="C7">
-        <v>411.21248908660073</v>
+        <v>16.903643607680351</v>
       </c>
       <c r="D7">
-        <v>281.25559812645724</v>
+        <v>22.04261807140756</v>
       </c>
       <c r="E7">
-        <v>334.8712797307021</v>
+        <v>20.374568067259588</v>
       </c>
       <c r="F7">
-        <v>223.00490379964776</v>
+        <v>5.971779765852034</v>
       </c>
       <c r="G7">
-        <v>352.07222447801996</v>
+        <v>18.038614000803591</v>
       </c>
       <c r="H7">
-        <v>338.72744968022698</v>
+        <v>20.0212694310801</v>
       </c>
       <c r="I7">
-        <v>247.19158072129767</v>
+        <v>21.256630862747215</v>
       </c>
       <c r="J7">
-        <v>369.24797710712937</v>
+        <v>8.6075524708940065</v>
       </c>
       <c r="K7">
-        <v>279.1717891203798</v>
+        <v>21.529994994378285</v>
       </c>
       <c r="L7">
-        <v>414.31251828711447</v>
+        <v>2.6158596216596379</v>
       </c>
       <c r="M7">
-        <v>312.00976494606221</v>
+        <v>21.612141059563328</v>
       </c>
       <c r="N7">
-        <v>295.24207611633483</v>
+        <v>1.3071502906893784</v>
       </c>
       <c r="O7">
-        <v>229.45948341431995</v>
+        <v>20.096591930007662</v>
       </c>
       <c r="P7">
-        <v>250.26334799007554</v>
+        <v>3.6098027505588561</v>
       </c>
       <c r="Q7">
-        <v>210.0378942575926</v>
+        <v>6.4665672293165244</v>
       </c>
       <c r="R7">
-        <v>248.44550410409147</v>
+        <v>1.990538108499095</v>
       </c>
       <c r="S7">
-        <v>472.34055079162044</v>
+        <v>2.6142646308994699</v>
       </c>
       <c r="T7">
-        <v>316.90374470223196</v>
+        <v>1.3073154453061306</v>
       </c>
       <c r="U7">
-        <v>365.65754002813492</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <v>20.322548037412389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>139.2469779114881</v>
+        <v>22.159232517953114</v>
       </c>
       <c r="B8">
-        <v>311.40864593666447</v>
+        <v>22.195402198287866</v>
       </c>
       <c r="C8">
-        <v>297.3372304739155</v>
+        <v>21.201607332541244</v>
       </c>
       <c r="D8">
-        <v>346.71541794907398</v>
+        <v>21.160628429345707</v>
       </c>
       <c r="E8">
-        <v>206.41649772475466</v>
+        <v>21.143650675905519</v>
       </c>
       <c r="F8">
-        <v>302.06003294654192</v>
+        <v>21.175653102037359</v>
       </c>
       <c r="G8">
-        <v>292.28749990465803</v>
+        <v>22.39645512513016</v>
       </c>
       <c r="H8">
-        <v>405.05200160972754</v>
+        <v>21.900228891669485</v>
       </c>
       <c r="I8">
-        <v>226.11667542198074</v>
+        <v>20.928863268939494</v>
       </c>
       <c r="J8">
-        <v>429.70698218565894</v>
+        <v>21.799773258913319</v>
       </c>
       <c r="K8">
-        <v>216.15149388056034</v>
+        <v>22.054287562342779</v>
       </c>
       <c r="L8">
-        <v>340.18351471886899</v>
+        <v>21.7958329443004</v>
       </c>
       <c r="M8">
-        <v>125.03562947565797</v>
+        <v>22.16494009814005</v>
       </c>
       <c r="N8">
-        <v>468.71175481785303</v>
+        <v>21.526612964797096</v>
       </c>
       <c r="O8">
-        <v>573.11784627468523</v>
+        <v>22.686417572396749</v>
       </c>
       <c r="P8">
-        <v>117.85981297029548</v>
+        <v>22.256378977521308</v>
       </c>
       <c r="Q8">
-        <v>311.32721840652403</v>
+        <v>22.074471231350344</v>
       </c>
       <c r="R8">
-        <v>191.75106954890589</v>
+        <v>20.578310335949482</v>
       </c>
       <c r="S8">
-        <v>345.10615242177937</v>
+        <v>22.194381774823796</v>
       </c>
       <c r="T8">
-        <v>534.10777752065724</v>
+        <v>21.181909775424629</v>
       </c>
       <c r="U8">
-        <v>404.84392713182797</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>21.840993343799255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>804.16372885557257</v>
+        <v>180.7812716777471</v>
       </c>
       <c r="B9">
-        <v>609.10023523177733</v>
+        <v>180.7812716777471</v>
       </c>
       <c r="C9">
-        <v>822.02988774360801</v>
+        <v>180.78127167774664</v>
       </c>
       <c r="D9">
-        <v>694.68241620370418</v>
+        <v>180.78127167774664</v>
       </c>
       <c r="E9">
-        <v>559.93461785053842</v>
+        <v>180.78127167774664</v>
       </c>
       <c r="F9">
-        <v>809.23052422267028</v>
+        <v>180.7812716777471</v>
       </c>
       <c r="G9">
-        <v>873.60469927272743</v>
+        <v>180.78127167774664</v>
       </c>
       <c r="H9">
-        <v>1079.6420686642814</v>
+        <v>180.78127167774664</v>
       </c>
       <c r="I9">
-        <v>555.31287726458049</v>
+        <v>180.78127167774664</v>
       </c>
       <c r="J9">
-        <v>793.70227019117692</v>
+        <v>180.78127167774664</v>
       </c>
       <c r="K9">
-        <v>853.37046110040046</v>
+        <v>180.78127167774664</v>
       </c>
       <c r="L9">
-        <v>611.94908406260765</v>
+        <v>180.7812716777471</v>
       </c>
       <c r="M9">
-        <v>622.28324353225889</v>
+        <v>180.78127167774664</v>
       </c>
       <c r="N9">
-        <v>800.40764128141109</v>
+        <v>180.78127167774664</v>
       </c>
       <c r="O9">
-        <v>441.37805381693852</v>
+        <v>180.7812716777471</v>
       </c>
       <c r="P9">
-        <v>787.11525215980237</v>
+        <v>180.78127167774664</v>
       </c>
       <c r="Q9">
-        <v>826.83288345447545</v>
+        <v>180.78127167774664</v>
       </c>
       <c r="R9">
-        <v>828.19840138116433</v>
+        <v>180.7812716777471</v>
       </c>
       <c r="S9">
-        <v>1060.8612735766465</v>
+        <v>180.78127167774664</v>
       </c>
       <c r="T9">
-        <v>685.27910435320382</v>
+        <v>180.7812716777471</v>
       </c>
       <c r="U9">
-        <v>985.91547333218432</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>180.7812716777471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2437.651056929305</v>
+        <v>100.26067272260116</v>
       </c>
       <c r="B10">
-        <v>3826.2686379221241</v>
+        <v>100.21978984093539</v>
       </c>
       <c r="C10">
-        <v>2346.6105415068969</v>
+        <v>231.79476955763948</v>
       </c>
       <c r="D10">
-        <v>3631.1803459819221</v>
+        <v>100.2527527367738</v>
       </c>
       <c r="E10">
-        <v>3992.6824718807038</v>
+        <v>100.26406696872709</v>
       </c>
       <c r="F10">
-        <v>3651.1550996008309</v>
+        <v>100.31483964558356</v>
       </c>
       <c r="G10">
-        <v>3600.0929026111025</v>
+        <v>100.24139885816976</v>
       </c>
       <c r="H10">
-        <v>1971.3081752826092</v>
+        <v>100.39177452908416</v>
       </c>
       <c r="I10">
-        <v>3784.9311271089473</v>
+        <v>100.25411563645685</v>
       </c>
       <c r="J10">
-        <v>3454.7018926262435</v>
+        <v>100.20380653766733</v>
       </c>
       <c r="K10">
-        <v>4012.1388956010214</v>
+        <v>100.28167267980962</v>
       </c>
       <c r="L10">
-        <v>3689.869116951706</v>
+        <v>100.23656055842093</v>
       </c>
       <c r="M10">
-        <v>4133.9668980014994</v>
+        <v>100.24013475280708</v>
       </c>
       <c r="N10">
-        <v>2442.1849005558124</v>
+        <v>100.26209794302076</v>
       </c>
       <c r="O10">
-        <v>3704.6602074476887</v>
+        <v>100.26050090222861</v>
       </c>
       <c r="P10">
-        <v>2049.0333119455809</v>
+        <v>100.32288458169569</v>
       </c>
       <c r="Q10">
-        <v>3030.3823794182008</v>
+        <v>100.31041807974088</v>
       </c>
       <c r="R10">
-        <v>3848.1673978822419</v>
+        <v>100.26706015290119</v>
       </c>
       <c r="S10">
-        <v>3779.5242178218377</v>
+        <v>223.55230599348761</v>
       </c>
       <c r="T10">
-        <v>2156.7788187558544</v>
+        <v>100.25832419223161</v>
       </c>
       <c r="U10">
-        <v>4241.7329674660814</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>100.261831421637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>5760.5593480570678</v>
+        <v>300.00000000000045</v>
       </c>
       <c r="B11">
-        <v>5957.6361648602797</v>
+        <v>300.00000000000091</v>
       </c>
       <c r="C11">
-        <v>5012.5821598207667</v>
+        <v>400.00000000000045</v>
       </c>
       <c r="D11">
-        <v>5100.2551995038548</v>
+        <v>400.00000000000045</v>
       </c>
       <c r="E11">
-        <v>5679.8789147382449</v>
+        <v>300.00000000000091</v>
       </c>
       <c r="F11">
-        <v>5337.8399636647437</v>
+        <v>400.00000000000045</v>
       </c>
       <c r="G11">
-        <v>5331.789313595762</v>
+        <v>300.00000000000091</v>
       </c>
       <c r="H11">
-        <v>4956.310338086123</v>
+        <v>300.00000000000045</v>
       </c>
       <c r="I11">
-        <v>5390.0062535042071</v>
+        <v>300.00000000000091</v>
       </c>
       <c r="J11">
-        <v>5694.5020495507579</v>
+        <v>300.00000000000091</v>
       </c>
       <c r="K11">
-        <v>7071.4035413116599</v>
+        <v>400.00000000000045</v>
       </c>
       <c r="L11">
-        <v>4939.5250581549008</v>
+        <v>300.00000000000091</v>
       </c>
       <c r="M11">
-        <v>4828.9636657484425</v>
+        <v>300.00000000000045</v>
       </c>
       <c r="N11">
-        <v>5138.2516583264114</v>
+        <v>400.00000000000045</v>
       </c>
       <c r="O11">
-        <v>3896.7424491268084</v>
+        <v>300.00000000000091</v>
       </c>
       <c r="P11">
-        <v>7939.2146854085368</v>
+        <v>300.00000000000091</v>
       </c>
       <c r="Q11">
-        <v>6534.9394123799102</v>
+        <v>4.5474735088646412E-13</v>
       </c>
       <c r="R11">
-        <v>6474.5737893953847</v>
+        <v>300.00000000000091</v>
       </c>
       <c r="S11">
-        <v>5447.477023596095</v>
+        <v>4.5474735088646412E-13</v>
       </c>
       <c r="T11">
-        <v>4393.4160144366078</v>
+        <v>400.00000000000045</v>
       </c>
       <c r="U11">
-        <v>6990.5672501048957</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>300.00000000000091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>944.75889679231022</v>
+        <v>241.04861578450982</v>
       </c>
       <c r="B12">
-        <v>849.76120666004772</v>
+        <v>235.65492041127527</v>
       </c>
       <c r="C12">
-        <v>987.77494846339141</v>
+        <v>239.63741517973995</v>
       </c>
       <c r="D12">
-        <v>1103.7680091629804</v>
+        <v>243.05289810739896</v>
       </c>
       <c r="E12">
-        <v>931.46722770202177</v>
+        <v>241.47470727873406</v>
       </c>
       <c r="F12">
-        <v>910.38916644029268</v>
+        <v>245.71899579971614</v>
       </c>
       <c r="G12">
-        <v>803.19163371362174</v>
+        <v>238.40003604201411</v>
       </c>
       <c r="H12">
-        <v>1174.0994041207787</v>
+        <v>240.38126959747387</v>
       </c>
       <c r="I12">
-        <v>1130.630843955465</v>
+        <v>238.06820445397307</v>
       </c>
       <c r="J12">
-        <v>1327.7291888259342</v>
+        <v>242.83947695858933</v>
       </c>
       <c r="K12">
-        <v>1130.3121351004365</v>
+        <v>243.8802009827632</v>
       </c>
       <c r="L12">
-        <v>1135.9957734778118</v>
+        <v>240.34953639595096</v>
       </c>
       <c r="M12">
-        <v>1190.0183114534093</v>
+        <v>234.32413524834874</v>
       </c>
       <c r="N12">
-        <v>1223.9772326664606</v>
+        <v>234.93411859143771</v>
       </c>
       <c r="O12">
-        <v>758.52815232744251</v>
+        <v>236.45615763939213</v>
       </c>
       <c r="P12">
-        <v>691.05246073519629</v>
+        <v>243.09005846220361</v>
       </c>
       <c r="Q12">
-        <v>1232.4735121239119</v>
+        <v>238.01260253004057</v>
       </c>
       <c r="R12">
-        <v>586.32435255128576</v>
+        <v>244.43298018086534</v>
       </c>
       <c r="S12">
-        <v>878.57103838285548</v>
+        <v>243.45356905735753</v>
       </c>
       <c r="T12">
-        <v>728.16855463032016</v>
+        <v>236.83040329675305</v>
       </c>
       <c r="U12">
-        <v>932.54380243495007</v>
+        <v>233.61407157731128</v>
       </c>
     </row>
   </sheetData>
@@ -1949,493 +2514,793 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B249921-B8DB-49B3-973A-A40CD78528B7}">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAE62DB-49E6-47D4-B218-34B9C58C7BE4}">
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F24"/>
+      <selection sqref="A1:U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>53901.514366511256</v>
+        <v>21984.338687794025</v>
       </c>
       <c r="B1">
-        <v>70574.687164033705</v>
+        <v>31332.260968683891</v>
       </c>
       <c r="C1">
-        <v>20112.574590024986</v>
+        <v>16277.633238746814</v>
       </c>
       <c r="D1">
-        <v>61099.888732721927</v>
+        <v>30254.260463392391</v>
       </c>
       <c r="E1">
-        <v>138668.55021489595</v>
+        <v>23732.092041850265</v>
       </c>
       <c r="F1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18148.93967027522</v>
+      </c>
+      <c r="G1">
+        <v>16981.291275386615</v>
+      </c>
+      <c r="H1">
+        <v>14281.966018516294</v>
+      </c>
+      <c r="I1">
+        <v>21091.829140185633</v>
+      </c>
+      <c r="J1">
+        <v>29330.343730487079</v>
+      </c>
+      <c r="K1">
+        <v>13788.577882633481</v>
+      </c>
+      <c r="L1">
+        <v>27002.291891356195</v>
+      </c>
+      <c r="M1">
+        <v>22663.983693962102</v>
+      </c>
+      <c r="N1">
+        <v>26382.47659087427</v>
+      </c>
+      <c r="O1">
+        <v>18515.007397758836</v>
+      </c>
+      <c r="P1">
+        <v>30705.432312813668</v>
+      </c>
+      <c r="Q1">
+        <v>34444.114767352323</v>
+      </c>
+      <c r="R1">
+        <v>25379.467261834074</v>
+      </c>
+      <c r="S1">
+        <v>14871.847018360484</v>
+      </c>
+      <c r="T1">
+        <v>37785.47954226088</v>
+      </c>
+      <c r="U1">
+        <v>21171.529694039193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>28728.356367885775</v>
+        <v>51.738217277749413</v>
       </c>
       <c r="B2">
-        <v>66129.776176084793</v>
+        <v>49.981424049440363</v>
       </c>
       <c r="C2">
-        <v>19520.014275665395</v>
+        <v>78.065730461692112</v>
       </c>
       <c r="D2">
-        <v>69882.41080037698</v>
+        <v>71.870586549120389</v>
       </c>
       <c r="E2">
-        <v>98127.276599349469</v>
+        <v>53.880442795812712</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73.520376339666143</v>
+      </c>
+      <c r="G2">
+        <v>57.642865911910008</v>
+      </c>
+      <c r="H2">
+        <v>50.393420259639186</v>
+      </c>
+      <c r="I2">
+        <v>78.716526553517269</v>
+      </c>
+      <c r="J2">
+        <v>90.92166661052056</v>
+      </c>
+      <c r="K2">
+        <v>64.964955655544145</v>
+      </c>
+      <c r="L2">
+        <v>66.802118953333093</v>
+      </c>
+      <c r="M2">
+        <v>58.955758258248409</v>
+      </c>
+      <c r="N2">
+        <v>49.343032430217363</v>
+      </c>
+      <c r="O2">
+        <v>55.438301211147859</v>
+      </c>
+      <c r="P2">
+        <v>76.258634248392525</v>
+      </c>
+      <c r="Q2">
+        <v>72.812964399599934</v>
+      </c>
+      <c r="R2">
+        <v>105.22285135485834</v>
+      </c>
+      <c r="S2">
+        <v>49.133831041149676</v>
+      </c>
+      <c r="T2">
+        <v>49.595332165386367</v>
+      </c>
+      <c r="U2">
+        <v>50.846790164952949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1582.9428319637104</v>
+        <v>4.0309789927023303</v>
       </c>
       <c r="B3">
-        <v>3188.3197742448829</v>
+        <v>2.4946318043512292</v>
       </c>
       <c r="C3">
-        <v>810.94728222816968</v>
+        <v>3.483533541725933</v>
       </c>
       <c r="D3">
-        <v>3236.1970983542283</v>
+        <v>4.8761227808852254</v>
       </c>
       <c r="E3">
-        <v>4632.7207040598996</v>
+        <v>0.86790174386794661</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.524677709740331</v>
+      </c>
+      <c r="G3">
+        <v>4.7956417848979527</v>
+      </c>
+      <c r="H3">
+        <v>7.5753364098379734</v>
+      </c>
+      <c r="I3">
+        <v>7.6898118907398612</v>
+      </c>
+      <c r="J3">
+        <v>1.8992028551722342</v>
+      </c>
+      <c r="K3">
+        <v>3.2840384777751979</v>
+      </c>
+      <c r="L3">
+        <v>1.655961434847768</v>
+      </c>
+      <c r="M3">
+        <v>7.2323921291629176</v>
+      </c>
+      <c r="N3">
+        <v>3.7755215977806529</v>
+      </c>
+      <c r="O3">
+        <v>3.4964576499086206</v>
+      </c>
+      <c r="P3">
+        <v>3.6617639421408512</v>
+      </c>
+      <c r="Q3">
+        <v>3.6800153997917278</v>
+      </c>
+      <c r="R3">
+        <v>1.9053429843271488</v>
+      </c>
+      <c r="S3">
+        <v>1.9555697220700949</v>
+      </c>
+      <c r="T3">
+        <v>0.91729423385697828</v>
+      </c>
+      <c r="U3">
+        <v>1.8060845472986102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>571.60258487683245</v>
+        <v>119.07774288424014</v>
       </c>
       <c r="B4">
-        <v>1542.5166498243204</v>
+        <v>101.45800412043536</v>
       </c>
       <c r="C4">
-        <v>527.74753878407728</v>
+        <v>148.23293330072863</v>
       </c>
       <c r="D4">
-        <v>1457.3314140056018</v>
+        <v>105.80675342564689</v>
       </c>
       <c r="E4">
-        <v>2419.8955193030597</v>
+        <v>108.57171347498888</v>
       </c>
       <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117.70140471069737</v>
+      </c>
+      <c r="G4">
+        <v>121.36574181634614</v>
+      </c>
+      <c r="H4">
+        <v>108.88129203313099</v>
+      </c>
+      <c r="I4">
+        <v>139.94230271763422</v>
+      </c>
+      <c r="J4">
+        <v>129.0761843592179</v>
+      </c>
+      <c r="K4">
+        <v>121.96246243204109</v>
+      </c>
+      <c r="L4">
+        <v>127.18890528222732</v>
+      </c>
+      <c r="M4">
+        <v>120.49073570127905</v>
+      </c>
+      <c r="N4">
+        <v>132.48574383353889</v>
+      </c>
+      <c r="O4">
+        <v>129.67733793522473</v>
+      </c>
+      <c r="P4">
+        <v>123.56936449177783</v>
+      </c>
+      <c r="Q4">
+        <v>113.19598544848679</v>
+      </c>
+      <c r="R4">
+        <v>130.48253096352209</v>
+      </c>
+      <c r="S4">
+        <v>108.05483529391972</v>
+      </c>
+      <c r="T4">
+        <v>152.57128027615897</v>
+      </c>
+      <c r="U4">
+        <v>133.09141060286504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>77.535206666738759</v>
+        <v>156.40921108395287</v>
       </c>
       <c r="B5">
-        <v>90.366389426648837</v>
+        <v>117.70408430949442</v>
       </c>
       <c r="C5">
-        <v>6.0006879674769378</v>
+        <v>39.866381720567915</v>
       </c>
       <c r="D5">
-        <v>91.014349595554904</v>
+        <v>40.551373374415334</v>
       </c>
       <c r="E5">
-        <v>98.045466739535186</v>
+        <v>5.6096161795032913</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>658.06630295706509</v>
+      </c>
+      <c r="G5">
+        <v>325.77582836258875</v>
+      </c>
+      <c r="H5">
+        <v>388.05596982383781</v>
+      </c>
+      <c r="I5">
+        <v>344.64698203559146</v>
+      </c>
+      <c r="J5">
+        <v>206.21794512658698</v>
+      </c>
+      <c r="K5">
+        <v>182.84228998798562</v>
+      </c>
+      <c r="L5">
+        <v>38.866269227222006</v>
+      </c>
+      <c r="M5">
+        <v>116.20895040791959</v>
+      </c>
+      <c r="N5">
+        <v>480.17802329763867</v>
+      </c>
+      <c r="O5">
+        <v>436.57191110493932</v>
+      </c>
+      <c r="P5">
+        <v>108.81417058840941</v>
+      </c>
+      <c r="Q5">
+        <v>22.481024896513986</v>
+      </c>
+      <c r="R5">
+        <v>254.87734031094237</v>
+      </c>
+      <c r="S5">
+        <v>109.54514318719418</v>
+      </c>
+      <c r="T5">
+        <v>238.7219308839376</v>
+      </c>
+      <c r="U5">
+        <v>195.95489857731582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>52.756204106307678</v>
+        <v>10908.179489911825</v>
       </c>
       <c r="B6">
-        <v>73.403123640440498</v>
+        <v>22750.832972990611</v>
       </c>
       <c r="C6">
-        <v>9.5973477908711544</v>
+        <v>228183.02225947267</v>
       </c>
       <c r="D6">
-        <v>73.799120398316404</v>
+        <v>2861417.181562555</v>
       </c>
       <c r="E6">
-        <v>91.021008982817989</v>
+        <v>4018.5311972095787</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2247.3537954432036</v>
+      </c>
+      <c r="G6">
+        <v>4258.6094465230908</v>
+      </c>
+      <c r="H6">
+        <v>71275.337279101426</v>
+      </c>
+      <c r="I6">
+        <v>183183.38983797017</v>
+      </c>
+      <c r="J6">
+        <v>15905.933318788004</v>
+      </c>
+      <c r="K6">
+        <v>538340.29414749134</v>
+      </c>
+      <c r="L6">
+        <v>13735.509059354896</v>
+      </c>
+      <c r="M6">
+        <v>27761.533802937625</v>
+      </c>
+      <c r="N6">
+        <v>41456.598517614824</v>
+      </c>
+      <c r="O6">
+        <v>3205.9727146632194</v>
+      </c>
+      <c r="P6">
+        <v>7984128.3551703691</v>
+      </c>
+      <c r="Q6">
+        <v>30063.337019048849</v>
+      </c>
+      <c r="R6">
+        <v>59438.475459972884</v>
+      </c>
+      <c r="S6">
+        <v>16915.292463843118</v>
+      </c>
+      <c r="T6">
+        <v>167992.35235956573</v>
+      </c>
+      <c r="U6">
+        <v>54535.232511190188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>201.87485857041634</v>
+        <v>97.597543354774189</v>
       </c>
       <c r="B7">
-        <v>240.03166599292422</v>
+        <v>115.07971059264037</v>
       </c>
       <c r="C7">
-        <v>19.086645636994401</v>
+        <v>107.51118001407349</v>
       </c>
       <c r="D7">
-        <v>246.43600435512849</v>
+        <v>128.45869937101088</v>
       </c>
       <c r="E7">
-        <v>280.8689101993632</v>
+        <v>43.670487254841646</v>
       </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>104.84215583924424</v>
+      </c>
+      <c r="G7">
+        <v>100.98164611579477</v>
+      </c>
+      <c r="H7">
+        <v>102.96067402217113</v>
+      </c>
+      <c r="I7">
+        <v>81.836752037046153</v>
+      </c>
+      <c r="J7">
+        <v>92.540172008626087</v>
+      </c>
+      <c r="K7">
+        <v>78.199319921530787</v>
+      </c>
+      <c r="L7">
+        <v>122.67944561366039</v>
+      </c>
+      <c r="M7">
+        <v>89.375382794577945</v>
+      </c>
+      <c r="N7">
+        <v>69.658528637971813</v>
+      </c>
+      <c r="O7">
+        <v>62.899809404290409</v>
+      </c>
+      <c r="P7">
+        <v>51.868658701162531</v>
+      </c>
+      <c r="Q7">
+        <v>89.807594178112595</v>
+      </c>
+      <c r="R7">
+        <v>80.550716970802114</v>
+      </c>
+      <c r="S7">
+        <v>81.855712645769017</v>
+      </c>
+      <c r="T7">
+        <v>58.576410250684148</v>
+      </c>
+      <c r="U7">
+        <v>120.11295547866575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>152.01602399223066</v>
+        <v>44.208452815738383</v>
       </c>
       <c r="B8">
-        <v>204.94033763404636</v>
+        <v>40.778228493915776</v>
       </c>
       <c r="C8">
-        <v>26.57139841213905</v>
+        <v>40.031268983706468</v>
       </c>
       <c r="D8">
-        <v>211.88716086958516</v>
+        <v>51.63144240590691</v>
       </c>
       <c r="E8">
-        <v>254.66871237796795</v>
+        <v>38.178613854659034</v>
       </c>
       <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48.729762503111033</v>
+      </c>
+      <c r="G8">
+        <v>45.605056240864542</v>
+      </c>
+      <c r="H8">
+        <v>39.891313896476277</v>
+      </c>
+      <c r="I8">
+        <v>41.751658969109485</v>
+      </c>
+      <c r="J8">
+        <v>45.891580705091656</v>
+      </c>
+      <c r="K8">
+        <v>44.183709271194402</v>
+      </c>
+      <c r="L8">
+        <v>50.395617527420654</v>
+      </c>
+      <c r="M8">
+        <v>42.086636737085428</v>
+      </c>
+      <c r="N8">
+        <v>44.1940110725468</v>
+      </c>
+      <c r="O8">
+        <v>42.697035223215607</v>
+      </c>
+      <c r="P8">
+        <v>42.656634175937597</v>
+      </c>
+      <c r="Q8">
+        <v>66.706061332906302</v>
+      </c>
+      <c r="R8">
+        <v>47.114268890415588</v>
+      </c>
+      <c r="S8">
+        <v>37.595095934571418</v>
+      </c>
+      <c r="T8">
+        <v>54.118439450597634</v>
+      </c>
+      <c r="U8">
+        <v>46.245938997024041</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5340.2517231864595</v>
+        <v>181.12587068588527</v>
       </c>
       <c r="B9">
-        <v>6993.5800499166553</v>
+        <v>181.4169787967212</v>
       </c>
       <c r="C9">
-        <v>1314.1304281330185</v>
+        <v>185.22406183671137</v>
       </c>
       <c r="D9">
-        <v>6812.4769703820748</v>
+        <v>180.92647906003504</v>
       </c>
       <c r="E9">
-        <v>10396.295538573748</v>
+        <v>181.57261333705083</v>
       </c>
       <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>181.48658418082368</v>
+      </c>
+      <c r="G9">
+        <v>181.8858344203486</v>
+      </c>
+      <c r="H9">
+        <v>182.77736520492817</v>
+      </c>
+      <c r="I9">
+        <v>181.38496960513248</v>
+      </c>
+      <c r="J9">
+        <v>181.62196130194343</v>
+      </c>
+      <c r="K9">
+        <v>185.47408789186966</v>
+      </c>
+      <c r="L9">
+        <v>181.28767818339202</v>
+      </c>
+      <c r="M9">
+        <v>181.10678796501861</v>
+      </c>
+      <c r="N9">
+        <v>181.29353174221433</v>
+      </c>
+      <c r="O9">
+        <v>181.12401840444591</v>
+      </c>
+      <c r="P9">
+        <v>182.04370925320745</v>
+      </c>
+      <c r="Q9">
+        <v>181.64912586628452</v>
+      </c>
+      <c r="R9">
+        <v>181.60109376352921</v>
+      </c>
+      <c r="S9">
+        <v>183.06318237055257</v>
+      </c>
+      <c r="T9">
+        <v>180.86262296587756</v>
+      </c>
+      <c r="U9">
+        <v>181.34997312544328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3844.3965674692336</v>
+        <v>100.50579607491409</v>
       </c>
       <c r="B10">
-        <v>6479.1758740761961</v>
+        <v>100.87277198338052</v>
       </c>
       <c r="C10">
-        <v>1937.1874409610921</v>
+        <v>100.71360470610625</v>
       </c>
       <c r="D10">
-        <v>6051.2861916071388</v>
+        <v>100.91430801951628</v>
       </c>
       <c r="E10">
-        <v>10547.878761228605</v>
+        <v>101.35202678222367</v>
       </c>
       <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100.79407240062392</v>
+      </c>
+      <c r="G10">
+        <v>100.70870389249785</v>
+      </c>
+      <c r="H10">
+        <v>100.66042480371334</v>
+      </c>
+      <c r="I10">
+        <v>101.04150881058467</v>
+      </c>
+      <c r="J10">
+        <v>100.88772184116669</v>
+      </c>
+      <c r="K10">
+        <v>100.93007318228501</v>
+      </c>
+      <c r="L10">
+        <v>101.09566797888556</v>
+      </c>
+      <c r="M10">
+        <v>101.85260235159058</v>
+      </c>
+      <c r="N10">
+        <v>100.88005371808276</v>
+      </c>
+      <c r="O10">
+        <v>101.07486095725335</v>
+      </c>
+      <c r="P10">
+        <v>100.75286846627705</v>
+      </c>
+      <c r="Q10">
+        <v>101.00337658242188</v>
+      </c>
+      <c r="R10">
+        <v>101.1283029094925</v>
+      </c>
+      <c r="S10">
+        <v>100.97886427195044</v>
+      </c>
+      <c r="T10">
+        <v>101.38328704042215</v>
+      </c>
+      <c r="U10">
+        <v>100.90669430861635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0</v>
+        <v>408.40096333554857</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>314.22345293501985</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>407.99713761700605</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>301.71738563785402</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>300.61307554384575</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>324.74468545358968</v>
+      </c>
+      <c r="G11">
+        <v>315.92915728711432</v>
+      </c>
+      <c r="H11">
+        <v>19.183826185249927</v>
+      </c>
+      <c r="I11">
+        <v>301.04234493797458</v>
+      </c>
+      <c r="J11">
+        <v>596.90481834809225</v>
+      </c>
+      <c r="K11">
+        <v>300.79407072837921</v>
+      </c>
+      <c r="L11">
+        <v>304.0527294198846</v>
+      </c>
+      <c r="M11">
+        <v>320.67208615948039</v>
+      </c>
+      <c r="N11">
+        <v>301.00312684869323</v>
+      </c>
+      <c r="O11">
+        <v>301.28903989723085</v>
+      </c>
+      <c r="P11">
+        <v>610.79659122585599</v>
+      </c>
+      <c r="Q11">
+        <v>309.59455214623677</v>
+      </c>
+      <c r="R11">
+        <v>400.32291632603392</v>
+      </c>
+      <c r="S11">
+        <v>302.79160183810473</v>
+      </c>
+      <c r="T11">
+        <v>420.29906424416004</v>
+      </c>
+      <c r="U11">
+        <v>306.2529143266529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0</v>
+        <v>241.27048415300851</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>275.47968462387007</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>263.57883390373081</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>246.26789517230964</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244.87123080580204</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>250.34341504234999</v>
-      </c>
-      <c r="B13">
-        <v>345.22643311977816</v>
-      </c>
-      <c r="C13">
-        <v>57.13262266068466</v>
-      </c>
-      <c r="D13">
-        <v>345.93840924255892</v>
-      </c>
-      <c r="E13">
-        <v>455.05568529889842</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>165.08824472266042</v>
-      </c>
-      <c r="B14">
-        <v>301.50802890942128</v>
-      </c>
-      <c r="C14">
-        <v>78.478774646816134</v>
-      </c>
-      <c r="D14">
-        <v>295.24207611633483</v>
-      </c>
-      <c r="E14">
-        <v>472.34055079162044</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>76.514940683385703</v>
-      </c>
-      <c r="B15">
-        <v>194.92906318532224</v>
-      </c>
-      <c r="C15">
-        <v>104.00888491731548</v>
-      </c>
-      <c r="D15">
-        <v>176.22459567456599</v>
-      </c>
-      <c r="E15">
-        <v>390.96608886126296</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>117.85981297029548</v>
-      </c>
-      <c r="B16">
-        <v>313.54972186819424</v>
-      </c>
-      <c r="C16">
-        <v>126.80991048968755</v>
-      </c>
-      <c r="D16">
-        <v>311.32721840652403</v>
-      </c>
-      <c r="E16">
-        <v>573.11784627468523</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>624.89745134973691</v>
-      </c>
-      <c r="B17">
-        <v>1041.1711410818696</v>
-      </c>
-      <c r="C17">
-        <v>211.02718161803617</v>
-      </c>
-      <c r="D17">
-        <v>1023.7010459625353</v>
-      </c>
-      <c r="E17">
-        <v>1410.5464954767203</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>441.37805381693852</v>
-      </c>
-      <c r="B18">
-        <v>766.9044855977013</v>
-      </c>
-      <c r="C18">
-        <v>164.64216595330106</v>
-      </c>
-      <c r="D18">
-        <v>800.40764128141109</v>
-      </c>
-      <c r="E18">
-        <v>1079.6420686642814</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>343.9974971655497</v>
-      </c>
-      <c r="B19">
-        <v>3386.875695339962</v>
-      </c>
-      <c r="C19">
-        <v>1537.7127568277917</v>
-      </c>
-      <c r="D19">
-        <v>4048.4345123033527</v>
-      </c>
-      <c r="E19">
-        <v>4919.9269964797495</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1971.3081752826092</v>
-      </c>
-      <c r="B20">
-        <v>3323.0962553951531</v>
-      </c>
-      <c r="C20">
-        <v>753.71800666756462</v>
-      </c>
-      <c r="D20">
-        <v>3651.1550996008309</v>
-      </c>
-      <c r="E20">
-        <v>4241.7329674660814</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>4894.8603289980301</v>
-      </c>
-      <c r="B21">
-        <v>7298.0595773097011</v>
-      </c>
-      <c r="C21">
-        <v>1286.9785763511975</v>
-      </c>
-      <c r="D21">
-        <v>7208.6479021487648</v>
-      </c>
-      <c r="E21">
-        <v>10596.71001988715</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>3896.7424491268084</v>
-      </c>
-      <c r="B22">
-        <v>5613.1635358748299</v>
-      </c>
-      <c r="C22">
-        <v>953.75601542885943</v>
-      </c>
-      <c r="D22">
-        <v>5390.0062535042071</v>
-      </c>
-      <c r="E22">
-        <v>7939.2146854085368</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>850.28753252904653</v>
-      </c>
-      <c r="B23">
-        <v>1203.6904510827108</v>
-      </c>
-      <c r="C23">
-        <v>173.23514486996575</v>
-      </c>
-      <c r="D23">
-        <v>1248.8338129248787</v>
-      </c>
-      <c r="E23">
-        <v>1470.2390129167425</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>586.32435255128576</v>
-      </c>
-      <c r="B24">
-        <v>983.40646912956765</v>
-      </c>
-      <c r="C24">
-        <v>203.82165375775827</v>
-      </c>
-      <c r="D24">
-        <v>944.75889679231022</v>
-      </c>
-      <c r="E24">
-        <v>1327.7291888259342</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
+        <v>244.31458265616084</v>
+      </c>
+      <c r="G12">
+        <v>254.89333234745118</v>
+      </c>
+      <c r="H12">
+        <v>245.39733613972703</v>
+      </c>
+      <c r="I12">
+        <v>248.8166917042322</v>
+      </c>
+      <c r="J12">
+        <v>279.08951026766772</v>
+      </c>
+      <c r="K12">
+        <v>252.74075233411804</v>
+      </c>
+      <c r="L12">
+        <v>253.67989511696305</v>
+      </c>
+      <c r="M12">
+        <v>252.80513553969558</v>
+      </c>
+      <c r="N12">
+        <v>255.14378567986751</v>
+      </c>
+      <c r="O12">
+        <v>258.93201906019567</v>
+      </c>
+      <c r="P12">
+        <v>246.70547881772836</v>
+      </c>
+      <c r="Q12">
+        <v>244.89395996029498</v>
+      </c>
+      <c r="R12">
+        <v>257.24078745090947</v>
+      </c>
+      <c r="S12">
+        <v>261.83075294101172</v>
+      </c>
+      <c r="T12">
+        <v>250.63656223862745</v>
+      </c>
+      <c r="U12">
+        <v>258.55722146875269</v>
       </c>
     </row>
   </sheetData>
@@ -2444,117 +3309,793 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93EF123-B5EA-4CD1-ADD8-B40A7ACEA37B}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C2743D-C6EB-4FA5-B18E-E56A501BB58F}">
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B13"/>
+      <selection sqref="A1:U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1.5714285714285714</v>
+        <v>7614.9905290510314</v>
       </c>
       <c r="B1">
-        <v>1.4285714285714286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10042.515389001019</v>
+      </c>
+      <c r="C1">
+        <v>5554.9977028224312</v>
+      </c>
+      <c r="D1">
+        <v>9829.6593859155782</v>
+      </c>
+      <c r="E1">
+        <v>7626.2339693391332</v>
+      </c>
+      <c r="F1">
+        <v>11336.331701394451</v>
+      </c>
+      <c r="G1">
+        <v>2687.0943882380334</v>
+      </c>
+      <c r="H1">
+        <v>7905.4496270365962</v>
+      </c>
+      <c r="I1">
+        <v>7523.9411113718115</v>
+      </c>
+      <c r="J1">
+        <v>3084.8993267888891</v>
+      </c>
+      <c r="K1">
+        <v>11305.948846140816</v>
+      </c>
+      <c r="L1">
+        <v>9885.2580231647025</v>
+      </c>
+      <c r="M1">
+        <v>16923.156042179722</v>
+      </c>
+      <c r="N1">
+        <v>7622.0598344616274</v>
+      </c>
+      <c r="O1">
+        <v>14078.13274096064</v>
+      </c>
+      <c r="P1">
+        <v>6011.0868649359954</v>
+      </c>
+      <c r="Q1">
+        <v>8970.3668862789546</v>
+      </c>
+      <c r="R1">
+        <v>6684.0594530674834</v>
+      </c>
+      <c r="S1">
+        <v>8567.2409840808705</v>
+      </c>
+      <c r="T1">
+        <v>8330.13452253988</v>
+      </c>
+      <c r="U1">
+        <v>6163.853699915534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1.9047619047619047</v>
+        <v>44.895503408646505</v>
       </c>
       <c r="B2">
-        <v>1.0952380952380953</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49.090602158053855</v>
+      </c>
+      <c r="C2">
+        <v>44.895490609892136</v>
+      </c>
+      <c r="D2">
+        <v>49.085507283025322</v>
+      </c>
+      <c r="E2">
+        <v>49.0853969009911</v>
+      </c>
+      <c r="F2">
+        <v>49.089104102761382</v>
+      </c>
+      <c r="G2">
+        <v>49.095068911718897</v>
+      </c>
+      <c r="H2">
+        <v>49.086699945594773</v>
+      </c>
+      <c r="I2">
+        <v>49.08558373637203</v>
+      </c>
+      <c r="J2">
+        <v>49.088588409824922</v>
+      </c>
+      <c r="K2">
+        <v>49.085087089146555</v>
+      </c>
+      <c r="L2">
+        <v>71.240924342368373</v>
+      </c>
+      <c r="M2">
+        <v>49.085258059971466</v>
+      </c>
+      <c r="N2">
+        <v>51.964827480852875</v>
+      </c>
+      <c r="O2">
+        <v>49.085876255839651</v>
+      </c>
+      <c r="P2">
+        <v>67.328506485624132</v>
+      </c>
+      <c r="Q2">
+        <v>49.084840693836554</v>
+      </c>
+      <c r="R2">
+        <v>49.24213748732916</v>
+      </c>
+      <c r="S2">
+        <v>49.087802319364755</v>
+      </c>
+      <c r="T2">
+        <v>73.899396287098114</v>
+      </c>
+      <c r="U2">
+        <v>73.748942364207551</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1.9047619047619047</v>
+        <v>2.0810729472864296</v>
       </c>
       <c r="B3">
-        <v>1.0952380952380953</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.30783864916850234</v>
+      </c>
+      <c r="C3">
+        <v>0.94523021335874091</v>
+      </c>
+      <c r="D3">
+        <v>3.5074333025884243</v>
+      </c>
+      <c r="E3">
+        <v>1.2502110759198786</v>
+      </c>
+      <c r="F3">
+        <v>0.13336902996627487</v>
+      </c>
+      <c r="G3">
+        <v>0.30195266419718791</v>
+      </c>
+      <c r="H3">
+        <v>0.52381751259031262</v>
+      </c>
+      <c r="I3">
+        <v>6.6722640309990311E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.6277308576326277</v>
+      </c>
+      <c r="K3">
+        <v>0.77465721255271092</v>
+      </c>
+      <c r="L3">
+        <v>0.18327412928442754</v>
+      </c>
+      <c r="M3">
+        <v>0.88939285869082596</v>
+      </c>
+      <c r="N3">
+        <v>1.3983436873910478</v>
+      </c>
+      <c r="O3">
+        <v>0.15790927189902959</v>
+      </c>
+      <c r="P3">
+        <v>0.14332858231773571</v>
+      </c>
+      <c r="Q3">
+        <v>0.38635387301837909</v>
+      </c>
+      <c r="R3">
+        <v>0.1503294675271718</v>
+      </c>
+      <c r="S3">
+        <v>6.2877551464453063E-2</v>
+      </c>
+      <c r="T3">
+        <v>0.18371240595342897</v>
+      </c>
+      <c r="U3">
+        <v>0.95400249954604988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1.9047619047619047</v>
+        <v>113.40620145014975</v>
       </c>
       <c r="B4">
-        <v>1.0952380952380953</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>74.362086843733209</v>
+      </c>
+      <c r="C4">
+        <v>117.409617548813</v>
+      </c>
+      <c r="D4">
+        <v>109.60971806931445</v>
+      </c>
+      <c r="E4">
+        <v>110.03405524014761</v>
+      </c>
+      <c r="F4">
+        <v>99.076656688831918</v>
+      </c>
+      <c r="G4">
+        <v>116.06359179016795</v>
+      </c>
+      <c r="H4">
+        <v>99.896443334611718</v>
+      </c>
+      <c r="I4">
+        <v>124.25412169313222</v>
+      </c>
+      <c r="J4">
+        <v>92.693248835345912</v>
+      </c>
+      <c r="K4">
+        <v>79.333026689698045</v>
+      </c>
+      <c r="L4">
+        <v>99.529538559770572</v>
+      </c>
+      <c r="M4">
+        <v>121.15113722922467</v>
+      </c>
+      <c r="N4">
+        <v>113.25936280525661</v>
+      </c>
+      <c r="O4">
+        <v>105.11325346336798</v>
+      </c>
+      <c r="P4">
+        <v>121.59731175385218</v>
+      </c>
+      <c r="Q4">
+        <v>113.26252610648942</v>
+      </c>
+      <c r="R4">
+        <v>97.065776189862504</v>
+      </c>
+      <c r="S4">
+        <v>140.06627112313345</v>
+      </c>
+      <c r="T4">
+        <v>82.463436890872003</v>
+      </c>
+      <c r="U4">
+        <v>101.71017821962448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1.5714285714285714</v>
+        <v>18.766100466323792</v>
       </c>
       <c r="B5">
-        <v>1.4285714285714286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46.46996064773748</v>
+      </c>
+      <c r="C5">
+        <v>7.1093226876230347</v>
+      </c>
+      <c r="D5">
+        <v>3.4976490647172795</v>
+      </c>
+      <c r="E5">
+        <v>6.3866492712104446</v>
+      </c>
+      <c r="F5">
+        <v>14.232973449410792</v>
+      </c>
+      <c r="G5">
+        <v>11.329110669724628</v>
+      </c>
+      <c r="H5">
+        <v>6.9047241251001878</v>
+      </c>
+      <c r="I5">
+        <v>115.03894904024935</v>
+      </c>
+      <c r="J5">
+        <v>53.828408067930127</v>
+      </c>
+      <c r="K5">
+        <v>9.1553614350439148</v>
+      </c>
+      <c r="L5">
+        <v>165.84443427416954</v>
+      </c>
+      <c r="M5">
+        <v>53.061202584182411</v>
+      </c>
+      <c r="N5">
+        <v>132.88721875884039</v>
+      </c>
+      <c r="O5">
+        <v>0.54385251099051857</v>
+      </c>
+      <c r="P5">
+        <v>86.784551065549408</v>
+      </c>
+      <c r="Q5">
+        <v>192.19941869969944</v>
+      </c>
+      <c r="R5">
+        <v>3.945357503610694</v>
+      </c>
+      <c r="S5">
+        <v>78.547152999352647</v>
+      </c>
+      <c r="T5">
+        <v>7.8937883368990924</v>
+      </c>
+      <c r="U5">
+        <v>7.0848834289901106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1.5</v>
+        <v>942.72214677077864</v>
       </c>
       <c r="B6">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1005.3032525712556</v>
+      </c>
+      <c r="C6">
+        <v>953.17849124985787</v>
+      </c>
+      <c r="D6">
+        <v>447.94443617588831</v>
+      </c>
+      <c r="E6">
+        <v>7420.0766166610811</v>
+      </c>
+      <c r="F6">
+        <v>308.17485316992725</v>
+      </c>
+      <c r="G6">
+        <v>6577.9497214451221</v>
+      </c>
+      <c r="H6">
+        <v>163.35934032528303</v>
+      </c>
+      <c r="I6">
+        <v>7001.5133211927641</v>
+      </c>
+      <c r="J6">
+        <v>6104.4789225941759</v>
+      </c>
+      <c r="K6">
+        <v>5397.7417075074472</v>
+      </c>
+      <c r="L6">
+        <v>2446.8010520629932</v>
+      </c>
+      <c r="M6">
+        <v>4028.0411722540821</v>
+      </c>
+      <c r="N6">
+        <v>5267.2390949079136</v>
+      </c>
+      <c r="O6">
+        <v>8071.700748922327</v>
+      </c>
+      <c r="P6">
+        <v>688.182333727681</v>
+      </c>
+      <c r="Q6">
+        <v>12202.239824735301</v>
+      </c>
+      <c r="R6">
+        <v>15832.821850722859</v>
+      </c>
+      <c r="S6">
+        <v>2728.1845463811296</v>
+      </c>
+      <c r="T6">
+        <v>1487.391951173171</v>
+      </c>
+      <c r="U6">
+        <v>393.18157133175919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1.6666666666666667</v>
+        <v>34.750037698258893</v>
       </c>
       <c r="B7">
-        <v>1.3333333333333333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79.578977186783959</v>
+      </c>
+      <c r="C7">
+        <v>45.100601172887991</v>
+      </c>
+      <c r="D7">
+        <v>68.006321689795641</v>
+      </c>
+      <c r="E7">
+        <v>51.087155189338318</v>
+      </c>
+      <c r="F7">
+        <v>36.473426846714574</v>
+      </c>
+      <c r="G7">
+        <v>36.833602621925138</v>
+      </c>
+      <c r="H7">
+        <v>81.085707163590541</v>
+      </c>
+      <c r="I7">
+        <v>44.32053312022208</v>
+      </c>
+      <c r="J7">
+        <v>60.119872568540814</v>
+      </c>
+      <c r="K7">
+        <v>44.916495462751527</v>
+      </c>
+      <c r="L7">
+        <v>42.296060298132488</v>
+      </c>
+      <c r="M7">
+        <v>61.389176140502059</v>
+      </c>
+      <c r="N7">
+        <v>50.118784887315996</v>
+      </c>
+      <c r="O7">
+        <v>37.589007150943189</v>
+      </c>
+      <c r="P7">
+        <v>58.016445809033939</v>
+      </c>
+      <c r="Q7">
+        <v>29.409026874263645</v>
+      </c>
+      <c r="R7">
+        <v>81.012888877173282</v>
+      </c>
+      <c r="S7">
+        <v>31.265185804026714</v>
+      </c>
+      <c r="T7">
+        <v>48.910569524788116</v>
+      </c>
+      <c r="U7">
+        <v>40.747334966970584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1.1428571428571428</v>
+        <v>36.800870396328719</v>
       </c>
       <c r="B8">
-        <v>1.8571428571428572</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44.293557557422901</v>
+      </c>
+      <c r="C8">
+        <v>42.06958039520805</v>
+      </c>
+      <c r="D8">
+        <v>29.60057809055661</v>
+      </c>
+      <c r="E8">
+        <v>38.139824564909304</v>
+      </c>
+      <c r="F8">
+        <v>36.351456181822869</v>
+      </c>
+      <c r="G8">
+        <v>33.988850548966184</v>
+      </c>
+      <c r="H8">
+        <v>29.741240205576105</v>
+      </c>
+      <c r="I8">
+        <v>42.533607929068239</v>
+      </c>
+      <c r="J8">
+        <v>34.025219698156889</v>
+      </c>
+      <c r="K8">
+        <v>31.034722242269254</v>
+      </c>
+      <c r="L8">
+        <v>34.613494591628751</v>
+      </c>
+      <c r="M8">
+        <v>35.810516960954374</v>
+      </c>
+      <c r="N8">
+        <v>38.149940106303802</v>
+      </c>
+      <c r="O8">
+        <v>33.364279341641122</v>
+      </c>
+      <c r="P8">
+        <v>35.854808704038533</v>
+      </c>
+      <c r="Q8">
+        <v>34.860498103486862</v>
+      </c>
+      <c r="R8">
+        <v>36.711138705835765</v>
+      </c>
+      <c r="S8">
+        <v>32.275598131933293</v>
+      </c>
+      <c r="T8">
+        <v>41.504658321282932</v>
+      </c>
+      <c r="U8">
+        <v>36.458284021515283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1.7619047619047619</v>
+        <v>180.78127548879138</v>
       </c>
       <c r="B9">
-        <v>1.2380952380952381</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>180.78127394370949</v>
+      </c>
+      <c r="C9">
+        <v>180.78127200652671</v>
+      </c>
+      <c r="D9">
+        <v>180.78154209872582</v>
+      </c>
+      <c r="E9">
+        <v>180.78130896940138</v>
+      </c>
+      <c r="F9">
+        <v>180.78127301833501</v>
+      </c>
+      <c r="G9">
+        <v>180.78127339740831</v>
+      </c>
+      <c r="H9">
+        <v>180.78127228638004</v>
+      </c>
+      <c r="I9">
+        <v>180.78130118236186</v>
+      </c>
+      <c r="J9">
+        <v>180.78127264119621</v>
+      </c>
+      <c r="K9">
+        <v>180.78127500350865</v>
+      </c>
+      <c r="L9">
+        <v>180.78128489501705</v>
+      </c>
+      <c r="M9">
+        <v>180.78127199634355</v>
+      </c>
+      <c r="N9">
+        <v>180.78128948352105</v>
+      </c>
+      <c r="O9">
+        <v>180.78127483192156</v>
+      </c>
+      <c r="P9">
+        <v>180.78127202530413</v>
+      </c>
+      <c r="Q9">
+        <v>180.78127686072867</v>
+      </c>
+      <c r="R9">
+        <v>180.78127512854826</v>
+      </c>
+      <c r="S9">
+        <v>180.78130241399185</v>
+      </c>
+      <c r="T9">
+        <v>180.78127814230811</v>
+      </c>
+      <c r="U9">
+        <v>180.78128016952905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1.5714285714285714</v>
+        <v>100.65975213459114</v>
       </c>
       <c r="B10">
-        <v>1.4285714285714286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100.5935338802642</v>
+      </c>
+      <c r="C10">
+        <v>100.68527364721695</v>
+      </c>
+      <c r="D10">
+        <v>100.72462103668158</v>
+      </c>
+      <c r="E10">
+        <v>100.76557089213838</v>
+      </c>
+      <c r="F10">
+        <v>100.71930988146096</v>
+      </c>
+      <c r="G10">
+        <v>100.79775292820159</v>
+      </c>
+      <c r="H10">
+        <v>100.9537043287437</v>
+      </c>
+      <c r="I10">
+        <v>101.04739808420254</v>
+      </c>
+      <c r="J10">
+        <v>100.61734641734711</v>
+      </c>
+      <c r="K10">
+        <v>100.75997611713228</v>
+      </c>
+      <c r="L10">
+        <v>100.72034783285653</v>
+      </c>
+      <c r="M10">
+        <v>221.49305796833505</v>
+      </c>
+      <c r="N10">
+        <v>100.84651837183583</v>
+      </c>
+      <c r="O10">
+        <v>100.5442260234986</v>
+      </c>
+      <c r="P10">
+        <v>100.66286329506966</v>
+      </c>
+      <c r="Q10">
+        <v>100.50401924929292</v>
+      </c>
+      <c r="R10">
+        <v>100.62594237404937</v>
+      </c>
+      <c r="S10">
+        <v>100.89665279138853</v>
+      </c>
+      <c r="T10">
+        <v>100.69471003438957</v>
+      </c>
+      <c r="U10">
+        <v>100.4636991636221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1.8571428571428572</v>
+        <v>300.00021240990145</v>
       </c>
       <c r="B11">
-        <v>1.1428571428571428</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>300.00009732107401</v>
+      </c>
+      <c r="C11">
+        <v>300.00028366411607</v>
+      </c>
+      <c r="D11">
+        <v>300.00010967413436</v>
+      </c>
+      <c r="E11">
+        <v>400.00008557081719</v>
+      </c>
+      <c r="F11">
+        <v>300.00019790442366</v>
+      </c>
+      <c r="G11">
+        <v>300.00038954897127</v>
+      </c>
+      <c r="H11">
+        <v>300.00015693944397</v>
+      </c>
+      <c r="I11">
+        <v>300.00007783550836</v>
+      </c>
+      <c r="J11">
+        <v>400.00001515663416</v>
+      </c>
+      <c r="K11">
+        <v>300.00009170494468</v>
+      </c>
+      <c r="L11">
+        <v>300.00017502225319</v>
+      </c>
+      <c r="M11">
+        <v>400.05658865079795</v>
+      </c>
+      <c r="N11">
+        <v>400.00002551635725</v>
+      </c>
+      <c r="O11">
+        <v>300.00012198998911</v>
+      </c>
+      <c r="P11">
+        <v>400.00003411571515</v>
+      </c>
+      <c r="Q11">
+        <v>300.00014212793621</v>
+      </c>
+      <c r="R11">
+        <v>400.00002619337738</v>
+      </c>
+      <c r="S11">
+        <v>300.00012984432396</v>
+      </c>
+      <c r="T11">
+        <v>300.00008507902476</v>
+      </c>
+      <c r="U11">
+        <v>300.00015447519445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1.7619047619047619</v>
+        <v>243.15349778932341</v>
       </c>
       <c r="B12">
-        <v>1.2380952380952381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1.6765873015873016</v>
-      </c>
-      <c r="B13">
-        <v>1.3234126984126986</v>
+        <v>246.56171577974601</v>
+      </c>
+      <c r="C12">
+        <v>241.4732236489358</v>
+      </c>
+      <c r="D12">
+        <v>241.47934145547833</v>
+      </c>
+      <c r="E12">
+        <v>255.45751062137651</v>
+      </c>
+      <c r="F12">
+        <v>244.3672074944966</v>
+      </c>
+      <c r="G12">
+        <v>244.67794710185262</v>
+      </c>
+      <c r="H12">
+        <v>240.2066447780785</v>
+      </c>
+      <c r="I12">
+        <v>240.59523555235501</v>
+      </c>
+      <c r="J12">
+        <v>232.90105221341082</v>
+      </c>
+      <c r="K12">
+        <v>248.42447066051</v>
+      </c>
+      <c r="L12">
+        <v>246.0777919966954</v>
+      </c>
+      <c r="M12">
+        <v>252.39800328290357</v>
+      </c>
+      <c r="N12">
+        <v>256.17816545254709</v>
+      </c>
+      <c r="O12">
+        <v>246.92932199247525</v>
+      </c>
+      <c r="P12">
+        <v>248.13309413713796</v>
+      </c>
+      <c r="Q12">
+        <v>244.5787224611322</v>
+      </c>
+      <c r="R12">
+        <v>252.82106059186754</v>
+      </c>
+      <c r="S12">
+        <v>245.14718255565003</v>
+      </c>
+      <c r="T12">
+        <v>252.60280147464573</v>
+      </c>
+      <c r="U12">
+        <v>242.05806823122111</v>
       </c>
     </row>
   </sheetData>
@@ -2563,34 +4104,793 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688A6359-D622-4D8B-87B4-89F573AF5D66}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAA5192-33EC-4236-ABE4-45A867562E25}">
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection sqref="A1:U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>36988</v>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>2.0725110516650602E-10</v>
+      </c>
+      <c r="B1">
+        <v>4.3900740820390638E-9</v>
+      </c>
+      <c r="C1">
+        <v>1.4825900507275946E-9</v>
+      </c>
+      <c r="D1">
+        <v>2.0997390492993873E-9</v>
+      </c>
+      <c r="E1">
+        <v>2.1336177269404288E-9</v>
+      </c>
+      <c r="F1">
+        <v>1.5929799701552838E-9</v>
+      </c>
+      <c r="G1">
+        <v>4.7748471843078732E-12</v>
+      </c>
+      <c r="H1">
+        <v>2.1280470718920697E-9</v>
+      </c>
+      <c r="I1">
+        <v>4.2754379592224723E-8</v>
+      </c>
+      <c r="J1">
+        <v>8.3798568084603176E-10</v>
+      </c>
+      <c r="K1">
+        <v>3.9176484278868884E-10</v>
+      </c>
+      <c r="L1">
+        <v>7.0770056481705979E-11</v>
+      </c>
+      <c r="M1">
+        <v>1.9269918993813917E-11</v>
+      </c>
+      <c r="N1">
+        <v>2.7426949600339867E-10</v>
+      </c>
+      <c r="O1">
+        <v>9.2086338554508984E-12</v>
+      </c>
+      <c r="P1">
+        <v>1.3646740626427345E-8</v>
+      </c>
+      <c r="Q1">
+        <v>4.2803094402188435E-11</v>
+      </c>
+      <c r="R1">
+        <v>5.0757194003381301E-9</v>
+      </c>
+      <c r="S1">
+        <v>2.0463630789890885E-12</v>
+      </c>
+      <c r="T1">
+        <v>4.662902597374341E-7</v>
+      </c>
+      <c r="U1">
+        <v>4.9067239160649478E-10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1.6458509811968725E-2</v>
+      </c>
+      <c r="B2">
+        <v>49.084478979481446</v>
+      </c>
+      <c r="C2">
+        <v>49.08447897948156</v>
+      </c>
+      <c r="D2">
+        <v>44.89546931745133</v>
+      </c>
+      <c r="E2">
+        <v>49.084478979481275</v>
+      </c>
+      <c r="F2">
+        <v>49.084478979481787</v>
+      </c>
+      <c r="G2">
+        <v>49.084478979481332</v>
+      </c>
+      <c r="H2">
+        <v>49.08447897948156</v>
+      </c>
+      <c r="I2">
+        <v>4.030261286885775</v>
+      </c>
+      <c r="J2">
+        <v>49.084478979481787</v>
+      </c>
+      <c r="K2">
+        <v>0.35802435180096381</v>
+      </c>
+      <c r="L2">
+        <v>49.08447897948156</v>
+      </c>
+      <c r="M2">
+        <v>0.75047629462642362</v>
+      </c>
+      <c r="N2">
+        <v>49.084478979481446</v>
+      </c>
+      <c r="O2">
+        <v>49.084478979481219</v>
+      </c>
+      <c r="P2">
+        <v>44.895469317451386</v>
+      </c>
+      <c r="Q2">
+        <v>49.08447897948156</v>
+      </c>
+      <c r="R2">
+        <v>4.0302601910403837</v>
+      </c>
+      <c r="S2">
+        <v>49.08447897948173</v>
+      </c>
+      <c r="T2">
+        <v>49.08447897948156</v>
+      </c>
+      <c r="U2">
+        <v>49.084478979481389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3.5379012695102574E-4</v>
+      </c>
+      <c r="B3">
+        <v>2.9803450388499186E-5</v>
+      </c>
+      <c r="C3">
+        <v>2.5380773024608061E-4</v>
+      </c>
+      <c r="D3">
+        <v>5.0789838507967033E-2</v>
+      </c>
+      <c r="E3">
+        <v>2.4737491139603662E-4</v>
+      </c>
+      <c r="F3">
+        <v>3.7487229178623238E-4</v>
+      </c>
+      <c r="G3">
+        <v>6.3820882689924474E-4</v>
+      </c>
+      <c r="H3">
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="I3">
+        <v>3.1755975879832476E-3</v>
+      </c>
+      <c r="J3">
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="K3">
+        <v>3.9524513840660802E-4</v>
+      </c>
+      <c r="L3">
+        <v>6.6705673543765442E-4</v>
+      </c>
+      <c r="M3">
+        <v>3.6992925174672564E-5</v>
+      </c>
+      <c r="N3">
+        <v>2.4136369885354725E-3</v>
+      </c>
+      <c r="O3">
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="P3">
+        <v>1.521823102621056E-3</v>
+      </c>
+      <c r="Q3">
+        <v>1.6212120366958516E-2</v>
+      </c>
+      <c r="R3">
+        <v>1.0889643817790784E-5</v>
+      </c>
+      <c r="S3">
+        <v>2.7028849834209723E-2</v>
+      </c>
+      <c r="T3">
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="U3">
+        <v>3.2763888151521314E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>40.865986952212893</v>
+      </c>
+      <c r="B4">
+        <v>61.014424562806084</v>
+      </c>
+      <c r="C4">
+        <v>39.549262936491914</v>
+      </c>
+      <c r="D4">
+        <v>14.924380819798785</v>
+      </c>
+      <c r="E4">
+        <v>65.865666751272556</v>
+      </c>
+      <c r="F4">
+        <v>39.360877172965274</v>
+      </c>
+      <c r="G4">
+        <v>38.365978252684044</v>
+      </c>
+      <c r="H4">
+        <v>26.160372811520574</v>
+      </c>
+      <c r="I4">
+        <v>19.157931192685396</v>
+      </c>
+      <c r="J4">
+        <v>44.214084532752736</v>
+      </c>
+      <c r="K4">
+        <v>27.660234889118101</v>
+      </c>
+      <c r="L4">
+        <v>31.526303421489843</v>
+      </c>
+      <c r="M4">
+        <v>67.714192917225091</v>
+      </c>
+      <c r="N4">
+        <v>35.828058127139002</v>
+      </c>
+      <c r="O4">
+        <v>72.036262300766452</v>
+      </c>
+      <c r="P4">
+        <v>45.191333894574655</v>
+      </c>
+      <c r="Q4">
+        <v>44.292053993669924</v>
+      </c>
+      <c r="R4">
+        <v>26.412053321951817</v>
+      </c>
+      <c r="S4">
+        <v>53.747760752412432</v>
+      </c>
+      <c r="T4">
+        <v>48.037277676109397</v>
+      </c>
+      <c r="U4">
+        <v>34.534168911664096</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1.1527680964098863</v>
+      </c>
+      <c r="B5">
+        <v>0.54385226900751604</v>
+      </c>
+      <c r="C5">
+        <v>8.9528250416719857E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.1820706866240016</v>
+      </c>
+      <c r="E5">
+        <v>1.4525003061889947</v>
+      </c>
+      <c r="F5">
+        <v>1.9068243247797909</v>
+      </c>
+      <c r="G5">
+        <v>8.952825041660617E-2</v>
+      </c>
+      <c r="H5">
+        <v>3.2697752246383516</v>
+      </c>
+      <c r="I5">
+        <v>1.7210850574382448</v>
+      </c>
+      <c r="J5">
+        <v>0.90864803718170606</v>
+      </c>
+      <c r="K5">
+        <v>4.6327261244979354</v>
+      </c>
+      <c r="L5">
+        <v>8.952825041660617E-2</v>
+      </c>
+      <c r="M5">
+        <v>2.1820706866240016</v>
+      </c>
+      <c r="N5">
+        <v>0.81243702025665243</v>
+      </c>
+      <c r="O5">
+        <v>0.17905650083321234</v>
+      </c>
+      <c r="P5">
+        <v>2.725922955631745</v>
+      </c>
+      <c r="Q5">
+        <v>1.1368683772161603E-13</v>
+      </c>
+      <c r="R5">
+        <v>0.26858475124959114</v>
+      </c>
+      <c r="S5">
+        <v>1.1772327884317519</v>
+      </c>
+      <c r="T5">
+        <v>1.0877045380150321</v>
+      </c>
+      <c r="U5">
+        <v>0.63338051942389484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>174.61758082895949</v>
+      </c>
+      <c r="B6">
+        <v>135.76789467239701</v>
+      </c>
+      <c r="C6">
+        <v>3478.1489570568956</v>
+      </c>
+      <c r="D6">
+        <v>546.05223300981743</v>
+      </c>
+      <c r="E6">
+        <v>103.44640538640601</v>
+      </c>
+      <c r="F6">
+        <v>115.14150922935869</v>
+      </c>
+      <c r="G6">
+        <v>8438.6793196704839</v>
+      </c>
+      <c r="H6">
+        <v>45.034580043284677</v>
+      </c>
+      <c r="I6">
+        <v>275.7731007342004</v>
+      </c>
+      <c r="J6">
+        <v>269.39306535828382</v>
+      </c>
+      <c r="K6">
+        <v>265.20492533464812</v>
+      </c>
+      <c r="L6">
+        <v>8098.6669525074994</v>
+      </c>
+      <c r="M6">
+        <v>72.720468944881532</v>
+      </c>
+      <c r="N6">
+        <v>1538.7233567870262</v>
+      </c>
+      <c r="O6">
+        <v>3207.1990023315457</v>
+      </c>
+      <c r="P6">
+        <v>206.96366050508414</v>
+      </c>
+      <c r="Q6">
+        <v>48.227076840965992</v>
+      </c>
+      <c r="R6">
+        <v>144.56368467801349</v>
+      </c>
+      <c r="S6">
+        <v>110.0906727627771</v>
+      </c>
+      <c r="T6">
+        <v>79.772183401254324</v>
+      </c>
+      <c r="U6">
+        <v>208.91981260466832</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>28.204430238860596</v>
+      </c>
+      <c r="B7">
+        <v>29.660628335606361</v>
+      </c>
+      <c r="C7">
+        <v>37.970712618276139</v>
+      </c>
+      <c r="D7">
+        <v>42.584939349193064</v>
+      </c>
+      <c r="E7">
+        <v>24.123793835617107</v>
+      </c>
+      <c r="F7">
+        <v>24.44551946437673</v>
+      </c>
+      <c r="G7">
+        <v>28.875023317413252</v>
+      </c>
+      <c r="H7">
+        <v>28.01117732710054</v>
+      </c>
+      <c r="I7">
+        <v>28.460495681666544</v>
+      </c>
+      <c r="J7">
+        <v>37.245188950876127</v>
+      </c>
+      <c r="K7">
+        <v>26.124914513912927</v>
+      </c>
+      <c r="L7">
+        <v>32.394424708290899</v>
+      </c>
+      <c r="M7">
+        <v>27.941578147286236</v>
+      </c>
+      <c r="N7">
+        <v>33.0630827939151</v>
+      </c>
+      <c r="O7">
+        <v>24.50361862759496</v>
+      </c>
+      <c r="P7">
+        <v>24.697967360561051</v>
+      </c>
+      <c r="Q7">
+        <v>24.680807394659269</v>
+      </c>
+      <c r="R7">
+        <v>26.326691341849482</v>
+      </c>
+      <c r="S7">
+        <v>24.918350727277812</v>
+      </c>
+      <c r="T7">
+        <v>31.38503541404998</v>
+      </c>
+      <c r="U7">
+        <v>19.076410503225134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>25.710300158149494</v>
+      </c>
+      <c r="B8">
+        <v>26.09591547152786</v>
+      </c>
+      <c r="C8">
+        <v>27.141543645064303</v>
+      </c>
+      <c r="D8">
+        <v>25.650981202152707</v>
+      </c>
+      <c r="E8">
+        <v>25.076266316511465</v>
+      </c>
+      <c r="F8">
+        <v>24.394931257014832</v>
+      </c>
+      <c r="G8">
+        <v>26.837508838488702</v>
+      </c>
+      <c r="H8">
+        <v>27.491907610097314</v>
+      </c>
+      <c r="I8">
+        <v>26.510823185924437</v>
+      </c>
+      <c r="J8">
+        <v>25.000425288833867</v>
+      </c>
+      <c r="K8">
+        <v>25.257339592733388</v>
+      </c>
+      <c r="L8">
+        <v>25.881170775843657</v>
+      </c>
+      <c r="M8">
+        <v>26.621729800719095</v>
+      </c>
+      <c r="N8">
+        <v>24.463917553437113</v>
+      </c>
+      <c r="O8">
+        <v>26.782255909109153</v>
+      </c>
+      <c r="P8">
+        <v>25.07193539198488</v>
+      </c>
+      <c r="Q8">
+        <v>26.042541368100501</v>
+      </c>
+      <c r="R8">
+        <v>24.752404184555871</v>
+      </c>
+      <c r="S8">
+        <v>27.907962716026759</v>
+      </c>
+      <c r="T8">
+        <v>26.608802666229622</v>
+      </c>
+      <c r="U8">
+        <v>26.97147543764504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>180.78127167774664</v>
+      </c>
+      <c r="B9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="C9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="D9">
+        <v>180.78127167774664</v>
+      </c>
+      <c r="E9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="F9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="G9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="H9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="I9">
+        <v>180.78127167774664</v>
+      </c>
+      <c r="J9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="K9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="L9">
+        <v>180.78127167775256</v>
+      </c>
+      <c r="M9">
+        <v>180.78127167774755</v>
+      </c>
+      <c r="N9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="O9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="P9">
+        <v>180.78127167774664</v>
+      </c>
+      <c r="Q9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="R9">
+        <v>180.78127167774664</v>
+      </c>
+      <c r="S9">
+        <v>180.78127167774664</v>
+      </c>
+      <c r="T9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="U9">
+        <v>180.78127167774664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>100.47569929257497</v>
+      </c>
+      <c r="B10">
+        <v>100.56687563691139</v>
+      </c>
+      <c r="C10">
+        <v>100.37498315900621</v>
+      </c>
+      <c r="D10">
+        <v>41.358912181688993</v>
+      </c>
+      <c r="E10">
+        <v>220.91130155503561</v>
+      </c>
+      <c r="F10">
+        <v>100.4380924208258</v>
+      </c>
+      <c r="G10">
+        <v>100.53542853924273</v>
+      </c>
+      <c r="H10">
+        <v>100.58780225910323</v>
+      </c>
+      <c r="I10">
+        <v>100.57324607120745</v>
+      </c>
+      <c r="J10">
+        <v>100.5693307775482</v>
+      </c>
+      <c r="K10">
+        <v>100.50704603370832</v>
+      </c>
+      <c r="L10">
+        <v>100.57247611096045</v>
+      </c>
+      <c r="M10">
+        <v>100.53013058889792</v>
+      </c>
+      <c r="N10">
+        <v>100.51210966517465</v>
+      </c>
+      <c r="O10">
+        <v>100.48929633590569</v>
+      </c>
+      <c r="P10">
+        <v>100.53593492914069</v>
+      </c>
+      <c r="Q10">
+        <v>100.46188913521473</v>
+      </c>
+      <c r="R10">
+        <v>100.49568186540546</v>
+      </c>
+      <c r="S10">
+        <v>100.49972391103347</v>
+      </c>
+      <c r="T10">
+        <v>100.50546108425078</v>
+      </c>
+      <c r="U10">
+        <v>100.64424873380767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4.5474735088646412E-13</v>
+      </c>
+      <c r="B11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="C11">
+        <v>300.00000000000136</v>
+      </c>
+      <c r="D11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="E11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="F11">
+        <v>400.00000000000091</v>
+      </c>
+      <c r="G11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="H11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="I11">
+        <v>300.00000000000045</v>
+      </c>
+      <c r="J11">
+        <v>400.00000000000091</v>
+      </c>
+      <c r="K11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="L11">
+        <v>400.00000000000045</v>
+      </c>
+      <c r="M11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="N11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="O11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="P11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="Q11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="R11">
+        <v>400.00000000000045</v>
+      </c>
+      <c r="S11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="T11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="U11">
+        <v>400.00000000000136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>239.49963704052925</v>
+      </c>
+      <c r="B12">
+        <v>242.11459302824414</v>
+      </c>
+      <c r="C12">
+        <v>249.37894157118353</v>
+      </c>
+      <c r="D12">
+        <v>248.53724122646281</v>
+      </c>
+      <c r="E12">
+        <v>242.88772501507765</v>
+      </c>
+      <c r="F12">
+        <v>249.88092278473459</v>
+      </c>
+      <c r="G12">
+        <v>241.00835674165455</v>
+      </c>
+      <c r="H12">
+        <v>235.81790832640218</v>
+      </c>
+      <c r="I12">
+        <v>239.44179589730084</v>
+      </c>
+      <c r="J12">
+        <v>244.58769745541304</v>
+      </c>
+      <c r="K12">
+        <v>243.80998495335189</v>
+      </c>
+      <c r="L12">
+        <v>241.23713039172935</v>
+      </c>
+      <c r="M12">
+        <v>240.34953639797504</v>
+      </c>
+      <c r="N12">
+        <v>248.16106831607885</v>
+      </c>
+      <c r="O12">
+        <v>245.04677119522148</v>
+      </c>
+      <c r="P12">
+        <v>240.04405076447347</v>
+      </c>
+      <c r="Q12">
+        <v>235.65492041127527</v>
+      </c>
+      <c r="R12">
+        <v>244.22486149308679</v>
+      </c>
+      <c r="S12">
+        <v>237.5945611913221</v>
+      </c>
+      <c r="T12">
+        <v>239.76745144364395</v>
+      </c>
+      <c r="U12">
+        <v>245.12514102906152</v>
       </c>
     </row>
   </sheetData>
@@ -2599,40 +4899,4318 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8143825A-1661-4CB6-9649-7EF07E2115DC}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8E70EF-C4DE-43F8-8049-54D8CC6DE86E}">
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>2.7174849037692184E-8</v>
+      </c>
+      <c r="B1">
+        <v>8.0895006249193102E-9</v>
+      </c>
+      <c r="C1">
+        <v>2.6830093702301383E-9</v>
+      </c>
+      <c r="D1">
+        <v>1.229284407600062E-8</v>
+      </c>
+      <c r="E1">
+        <v>8.619804816589749E-7</v>
+      </c>
+      <c r="F1">
+        <v>1.5184582480287645E-9</v>
+      </c>
+      <c r="G1">
+        <v>4.0893553432397312E-8</v>
+      </c>
+      <c r="H1">
+        <v>3.0863373012834927E-7</v>
+      </c>
+      <c r="I1">
+        <v>1.2176201380498242E-7</v>
+      </c>
+      <c r="J1">
+        <v>1.1904376151505858E-8</v>
+      </c>
+      <c r="K1">
+        <v>1.9628032532637008E-10</v>
+      </c>
+      <c r="L1">
+        <v>1.3991194691698183E-7</v>
+      </c>
+      <c r="M1">
+        <v>2.0048275928274961E-8</v>
+      </c>
+      <c r="N1">
+        <v>7.3805495048873127E-10</v>
+      </c>
+      <c r="O1">
+        <v>1.1187125892320182E-8</v>
+      </c>
+      <c r="P1">
+        <v>1.2505552149377763E-11</v>
+      </c>
+      <c r="Q1">
+        <v>2.8165914045530371E-10</v>
+      </c>
+      <c r="R1">
+        <v>5.7136162467941176E-9</v>
+      </c>
+      <c r="S1">
+        <v>7.5653474596037995E-9</v>
+      </c>
+      <c r="T1">
+        <v>1.2774421520589385E-9</v>
+      </c>
+      <c r="U1">
+        <v>2.5630697564338334E-10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>49.084478979481332</v>
+      </c>
+      <c r="B2">
+        <v>49.084478979481332</v>
+      </c>
+      <c r="C2">
+        <v>9.8044293622365331E-2</v>
+      </c>
+      <c r="D2">
+        <v>3.4802172665933995E-2</v>
+      </c>
+      <c r="E2">
+        <v>49.084478979481446</v>
+      </c>
+      <c r="F2">
+        <v>72.025272549504962</v>
+      </c>
+      <c r="G2">
+        <v>49.084478979481446</v>
+      </c>
+      <c r="H2">
+        <v>0.54614797289838179</v>
+      </c>
+      <c r="I2">
+        <v>49.08447897948156</v>
+      </c>
+      <c r="J2">
+        <v>49.084478979481332</v>
+      </c>
+      <c r="K2">
+        <v>49.084478979481787</v>
+      </c>
+      <c r="L2">
+        <v>44.895469317451443</v>
+      </c>
+      <c r="M2">
+        <v>0.19318293012423737</v>
+      </c>
+      <c r="N2">
+        <v>28.935606268911783</v>
+      </c>
+      <c r="O2">
+        <v>49.084478979481332</v>
+      </c>
+      <c r="P2">
+        <v>49.084478979481332</v>
+      </c>
+      <c r="Q2">
+        <v>0.15937652468460328</v>
+      </c>
+      <c r="R2">
+        <v>49.084478979481787</v>
+      </c>
+      <c r="S2">
+        <v>49.084478979481503</v>
+      </c>
+      <c r="T2">
+        <v>49.084478979481332</v>
+      </c>
+      <c r="U2">
+        <v>44.89546931745133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="B3">
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="C3">
+        <v>3.5242919693700969E-12</v>
+      </c>
+      <c r="D3">
+        <v>4.5509327264880994E-4</v>
+      </c>
+      <c r="E3">
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="F3">
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="G3">
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="H3">
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="I3">
+        <v>1.3390804201662831E-4</v>
+      </c>
+      <c r="J3">
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="K3">
+        <v>8.3630260405698209E-5</v>
+      </c>
+      <c r="L3">
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="M3">
+        <v>1.1368683772161603E-13</v>
+      </c>
+      <c r="N3">
+        <v>2.8669667585745628E-4</v>
+      </c>
+      <c r="O3">
+        <v>4.0488216802714305E-4</v>
+      </c>
+      <c r="P3">
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="Q3">
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="R3">
+        <v>2.654563103305918E-4</v>
+      </c>
+      <c r="S3">
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="T3">
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="U3">
+        <v>1.7898861387948273E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>37.335884306589605</v>
+      </c>
+      <c r="B4">
+        <v>59.74677607984961</v>
+      </c>
+      <c r="C4">
+        <v>62.976343398355425</v>
+      </c>
+      <c r="D4">
+        <v>46.614607100816443</v>
+      </c>
+      <c r="E4">
+        <v>51.056316701141668</v>
+      </c>
+      <c r="F4">
+        <v>52.270460239130216</v>
+      </c>
+      <c r="G4">
+        <v>46.782181867045779</v>
+      </c>
+      <c r="H4">
+        <v>56.909049032183816</v>
+      </c>
+      <c r="I4">
+        <v>63.327861616490964</v>
+      </c>
+      <c r="J4">
+        <v>50.55037495458123</v>
+      </c>
+      <c r="K4">
+        <v>68.741746597225642</v>
+      </c>
+      <c r="L4">
+        <v>63.171546586798968</v>
+      </c>
+      <c r="M4">
+        <v>28.28865002311295</v>
+      </c>
+      <c r="N4">
+        <v>52.478152976081446</v>
+      </c>
+      <c r="O4">
+        <v>45.45052293446156</v>
+      </c>
+      <c r="P4">
+        <v>48.500139392042229</v>
+      </c>
+      <c r="Q4">
+        <v>58.99075230623373</v>
+      </c>
+      <c r="R4">
+        <v>47.636781608108322</v>
+      </c>
+      <c r="S4">
+        <v>13.991800214867567</v>
+      </c>
+      <c r="T4">
+        <v>32.512943564291277</v>
+      </c>
+      <c r="U4">
+        <v>33.712320788283932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.99817628759819854</v>
+      </c>
+      <c r="B5">
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="C5">
+        <v>8.9528250416833544E-2</v>
+      </c>
+      <c r="D5">
+        <v>8.9528250416719857E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.63338051943560458</v>
+      </c>
+      <c r="F5">
+        <v>0.17905650083321234</v>
+      </c>
+      <c r="G5">
+        <v>0.90864803718193343</v>
+      </c>
+      <c r="H5">
+        <v>0.54385226900740236</v>
+      </c>
+      <c r="I5">
+        <v>8.9528250416833544E-2</v>
+      </c>
+      <c r="J5">
+        <v>8.952825041660617E-2</v>
+      </c>
+      <c r="K5">
+        <v>0.45432401859113725</v>
+      </c>
+      <c r="L5">
+        <v>1.3629720557726159</v>
+      </c>
+      <c r="M5">
+        <v>0.54385226900751604</v>
+      </c>
+      <c r="N5">
+        <v>0.72290876984050101</v>
+      </c>
+      <c r="O5">
+        <v>8.9528250416719857E-2</v>
+      </c>
+      <c r="P5">
+        <v>0.45432401859090987</v>
+      </c>
+      <c r="Q5">
+        <v>7.078142516547814E-10</v>
+      </c>
+      <c r="R5">
+        <v>1.7221160636524928</v>
+      </c>
+      <c r="S5">
+        <v>1.6315568070219797</v>
+      </c>
+      <c r="T5">
+        <v>1.4525003061889947</v>
+      </c>
+      <c r="U5">
+        <v>8.9528250416833544E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>59.493686257763102</v>
+      </c>
+      <c r="B6">
+        <v>1264.0033302643833</v>
+      </c>
+      <c r="C6">
+        <v>1160.1482371746679</v>
+      </c>
+      <c r="D6">
+        <v>80.888337943535589</v>
+      </c>
+      <c r="E6">
+        <v>112.77485831332228</v>
+      </c>
+      <c r="F6">
+        <v>447.54219404738888</v>
+      </c>
+      <c r="G6">
+        <v>95.578184080290157</v>
+      </c>
+      <c r="H6">
+        <v>593.9940471484374</v>
+      </c>
+      <c r="I6">
+        <v>42.509073657085764</v>
+      </c>
+      <c r="J6">
+        <v>7094.1264509100802</v>
+      </c>
+      <c r="K6">
+        <v>101.07575241080963</v>
+      </c>
+      <c r="L6">
+        <v>57.112019058963824</v>
+      </c>
+      <c r="M6">
+        <v>75.611051200028214</v>
+      </c>
+      <c r="N6">
+        <v>87.43133209852158</v>
+      </c>
+      <c r="O6">
+        <v>896.9146090785639</v>
+      </c>
+      <c r="P6">
+        <v>61.80883018217196</v>
+      </c>
+      <c r="Q6">
+        <v>106.73829171699072</v>
+      </c>
+      <c r="R6">
+        <v>162.02225494826826</v>
+      </c>
+      <c r="S6">
+        <v>272.36410555434895</v>
+      </c>
+      <c r="T6">
+        <v>112.82531075893553</v>
+      </c>
+      <c r="U6">
+        <v>50.043891533638771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>27.649815545690899</v>
+      </c>
+      <c r="B7">
+        <v>33.172166649208293</v>
+      </c>
+      <c r="C7">
+        <v>33.397760352664591</v>
+      </c>
+      <c r="D7">
+        <v>36.772477666047735</v>
+      </c>
+      <c r="E7">
+        <v>26.138929327014921</v>
+      </c>
+      <c r="F7">
+        <v>35.18404378795185</v>
+      </c>
+      <c r="G7">
+        <v>32.844016197220299</v>
+      </c>
+      <c r="H7">
+        <v>29.019805206941328</v>
+      </c>
+      <c r="I7">
+        <v>49.235660213192205</v>
+      </c>
+      <c r="J7">
+        <v>31.069032262351129</v>
+      </c>
+      <c r="K7">
+        <v>33.325017650171731</v>
+      </c>
+      <c r="L7">
+        <v>28.162816611314383</v>
+      </c>
+      <c r="M7">
+        <v>17.350142917664698</v>
+      </c>
+      <c r="N7">
+        <v>22.427109384060486</v>
+      </c>
+      <c r="O7">
+        <v>32.113673805547933</v>
+      </c>
+      <c r="P7">
+        <v>28.954033459699986</v>
+      </c>
+      <c r="Q7">
+        <v>25.787421320375188</v>
+      </c>
+      <c r="R7">
+        <v>28.587060745429653</v>
+      </c>
+      <c r="S7">
+        <v>37.369052845604529</v>
+      </c>
+      <c r="T7">
+        <v>32.229805396660367</v>
+      </c>
+      <c r="U7">
+        <v>29.668170097004577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>26.178286818686956</v>
+      </c>
+      <c r="B8">
+        <v>26.440375408411455</v>
+      </c>
+      <c r="C8">
+        <v>25.085246554039259</v>
+      </c>
+      <c r="D8">
+        <v>25.302256786405906</v>
+      </c>
+      <c r="E8">
+        <v>29.414656542694956</v>
+      </c>
+      <c r="F8">
+        <v>27.102328467137795</v>
+      </c>
+      <c r="G8">
+        <v>25.508676405429014</v>
+      </c>
+      <c r="H8">
+        <v>28.244965169955776</v>
+      </c>
+      <c r="I8">
+        <v>26.868830044175866</v>
+      </c>
+      <c r="J8">
+        <v>26.323737147516113</v>
+      </c>
+      <c r="K8">
+        <v>25.915510886966786</v>
+      </c>
+      <c r="L8">
+        <v>26.40569642885248</v>
+      </c>
+      <c r="M8">
+        <v>27.10383956631722</v>
+      </c>
+      <c r="N8">
+        <v>25.928375331643565</v>
+      </c>
+      <c r="O8">
+        <v>27.051764338235444</v>
+      </c>
+      <c r="P8">
+        <v>26.425278398756291</v>
+      </c>
+      <c r="Q8">
+        <v>25.091495883134485</v>
+      </c>
+      <c r="R8">
+        <v>26.865578878337601</v>
+      </c>
+      <c r="S8">
+        <v>26.232771754562236</v>
+      </c>
+      <c r="T8">
+        <v>27.097295404992565</v>
+      </c>
+      <c r="U8">
+        <v>26.43848810728332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="B9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="C9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="D9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="E9">
+        <v>180.78127167774664</v>
+      </c>
+      <c r="F9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="G9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="H9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="I9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="J9">
+        <v>180.78127167774664</v>
+      </c>
+      <c r="K9">
+        <v>180.78127167774664</v>
+      </c>
+      <c r="L9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="M9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="N9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="O9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="P9">
+        <v>180.78127167774664</v>
+      </c>
+      <c r="Q9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="R9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="S9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="T9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="U9">
+        <v>180.7812716777471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>100.46888178886684</v>
+      </c>
+      <c r="B10">
+        <v>100.50309570897207</v>
+      </c>
+      <c r="C10">
+        <v>100.4416510891574</v>
+      </c>
+      <c r="D10">
+        <v>100.47173468014535</v>
+      </c>
+      <c r="E10">
+        <v>100.53012455979479</v>
+      </c>
+      <c r="F10">
+        <v>100.43226065692625</v>
+      </c>
+      <c r="G10">
+        <v>100.6286646421986</v>
+      </c>
+      <c r="H10">
+        <v>100.51487500357189</v>
+      </c>
+      <c r="I10">
+        <v>100.42793910757337</v>
+      </c>
+      <c r="J10">
+        <v>100.50038809749958</v>
+      </c>
+      <c r="K10">
+        <v>100.43886582611731</v>
+      </c>
+      <c r="L10">
+        <v>100.46640307306052</v>
+      </c>
+      <c r="M10">
+        <v>100.43490254241306</v>
+      </c>
+      <c r="N10">
+        <v>100.39177661031135</v>
+      </c>
+      <c r="O10">
+        <v>100.51896130299747</v>
+      </c>
+      <c r="P10">
+        <v>100.54788815441179</v>
+      </c>
+      <c r="Q10">
+        <v>100.50381252471425</v>
+      </c>
+      <c r="R10">
+        <v>100.64916710502439</v>
+      </c>
+      <c r="S10">
+        <v>100.63985000342473</v>
+      </c>
+      <c r="T10">
+        <v>100.39427256255703</v>
+      </c>
+      <c r="U10">
+        <v>100.52614820017106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="B11">
+        <v>400.00000000000091</v>
+      </c>
+      <c r="C11">
+        <v>400.00000000000091</v>
+      </c>
+      <c r="D11">
+        <v>400.00000000000045</v>
+      </c>
+      <c r="E11">
+        <v>400.00000000000091</v>
+      </c>
+      <c r="F11">
+        <v>300.00000000000045</v>
+      </c>
+      <c r="G11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="H11">
+        <v>300.00000000000045</v>
+      </c>
+      <c r="I11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="J11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="K11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="L11">
+        <v>1.3642420526593924E-12</v>
+      </c>
+      <c r="M11">
+        <v>300.00000000000045</v>
+      </c>
+      <c r="N11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="O11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="P11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="Q11">
+        <v>400.00000000000091</v>
+      </c>
+      <c r="R11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="S11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="T11">
+        <v>400.00000000000091</v>
+      </c>
+      <c r="U11">
+        <v>300.00000000000091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>244.43298018086534</v>
+      </c>
+      <c r="B12">
+        <v>240.34953642061055</v>
+      </c>
+      <c r="C12">
+        <v>234.73599127031821</v>
+      </c>
+      <c r="D12">
+        <v>240.26716278030335</v>
+      </c>
+      <c r="E12">
+        <v>240.37708055848134</v>
+      </c>
+      <c r="F12">
+        <v>251.49473850332924</v>
+      </c>
+      <c r="G12">
+        <v>240.3495504514317</v>
+      </c>
+      <c r="H12">
+        <v>242.27701990919923</v>
+      </c>
+      <c r="I12">
+        <v>235.75106822978478</v>
+      </c>
+      <c r="J12">
+        <v>243.58828856978516</v>
+      </c>
+      <c r="K12">
+        <v>241.04260566985613</v>
+      </c>
+      <c r="L12">
+        <v>234.65111981988639</v>
+      </c>
+      <c r="M12">
+        <v>240.28829427749542</v>
+      </c>
+      <c r="N12">
+        <v>242.30497668033513</v>
+      </c>
+      <c r="O12">
+        <v>240.4007544711867</v>
+      </c>
+      <c r="P12">
+        <v>238.08496738639906</v>
+      </c>
+      <c r="Q12">
+        <v>242.11459302824414</v>
+      </c>
+      <c r="R12">
+        <v>249.56101252431245</v>
+      </c>
+      <c r="S12">
+        <v>249.920723301625</v>
+      </c>
+      <c r="T12">
+        <v>235.61500348443542</v>
+      </c>
+      <c r="U12">
+        <v>257.56952274491732</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D8E2EC-94A6-4AA9-AF8C-2BFA21447D2E}">
+  <dimension ref="A1:U12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:U12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1.3130829756846651E-11</v>
+      </c>
+      <c r="B1">
+        <v>5.5447912927775178E-8</v>
+      </c>
+      <c r="C1">
+        <v>1.0988856047333684E-8</v>
+      </c>
+      <c r="D1">
+        <v>9.8839336715172976E-10</v>
+      </c>
+      <c r="E1">
+        <v>2.9797888601024169E-9</v>
+      </c>
+      <c r="F1">
+        <v>4.6952152388257673E-8</v>
+      </c>
+      <c r="G1">
+        <v>2.2838037239125697E-8</v>
+      </c>
+      <c r="H1">
+        <v>1.822968442866113E-10</v>
+      </c>
+      <c r="I1">
+        <v>9.6838448371272534E-10</v>
+      </c>
+      <c r="J1">
+        <v>4.4007038013660349E-9</v>
+      </c>
+      <c r="K1">
+        <v>7.3430328484391794E-10</v>
+      </c>
+      <c r="L1">
+        <v>5.6843418860808015E-12</v>
+      </c>
+      <c r="M1">
+        <v>9.0557250587153248E-10</v>
+      </c>
+      <c r="N1">
+        <v>3.1451463655685075E-10</v>
+      </c>
+      <c r="O1">
+        <v>9.5781160780461505E-11</v>
+      </c>
+      <c r="P1">
+        <v>3.0027058528503403E-7</v>
+      </c>
+      <c r="Q1">
+        <v>2.9524471756303683E-10</v>
+      </c>
+      <c r="R1">
+        <v>2.9467628337442875E-10</v>
+      </c>
+      <c r="S1">
+        <v>9.7912788987741806E-10</v>
+      </c>
+      <c r="T1">
+        <v>3.4401637094561011E-10</v>
+      </c>
+      <c r="U1">
+        <v>1.3966996448289137E-8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>49.084478979481332</v>
+      </c>
+      <c r="B2">
+        <v>49.084478979481332</v>
+      </c>
+      <c r="C2">
+        <v>49.08447897948156</v>
+      </c>
+      <c r="D2">
+        <v>1.945288126938749E-2</v>
+      </c>
+      <c r="E2">
+        <v>49.084478979481275</v>
+      </c>
+      <c r="F2">
+        <v>49.084478979481787</v>
+      </c>
+      <c r="G2">
+        <v>0.28614813861639732</v>
+      </c>
+      <c r="H2">
+        <v>4.0302601582862962</v>
+      </c>
+      <c r="I2">
+        <v>6.1939750621310168</v>
+      </c>
+      <c r="J2">
+        <v>49.084478979481332</v>
+      </c>
+      <c r="K2">
+        <v>1.7606382847361601E-3</v>
+      </c>
+      <c r="L2">
+        <v>4.3483950502604785E-2</v>
+      </c>
+      <c r="M2">
+        <v>49.084478979481332</v>
+      </c>
+      <c r="N2">
+        <v>49.084478979481275</v>
+      </c>
+      <c r="O2">
+        <v>49.084478979481389</v>
+      </c>
+      <c r="P2">
+        <v>0.27070335266557777</v>
+      </c>
+      <c r="Q2">
+        <v>49.084478979481503</v>
+      </c>
+      <c r="R2">
+        <v>49.084478979481275</v>
+      </c>
+      <c r="S2">
+        <v>49.084478979481446</v>
+      </c>
+      <c r="T2">
+        <v>49.084478979481219</v>
+      </c>
+      <c r="U2">
+        <v>49.084478979481275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>9.5500769589307311E-5</v>
+      </c>
+      <c r="B3">
+        <v>4.3558693050727015E-5</v>
+      </c>
+      <c r="C3">
+        <v>6.8107484714573729E-2</v>
+      </c>
+      <c r="D3">
+        <v>6.0722372917325629E-3</v>
+      </c>
+      <c r="E3">
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="F3">
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="G3">
+        <v>6.3820700302130717E-4</v>
+      </c>
+      <c r="H3">
+        <v>3.3477014085292467E-5</v>
+      </c>
+      <c r="I3">
+        <v>1.405211962719477E-4</v>
+      </c>
+      <c r="J3">
+        <v>0.1389210320779739</v>
+      </c>
+      <c r="K3">
+        <v>1.1368683772161603E-13</v>
+      </c>
+      <c r="L3">
+        <v>6.634329443727438E-3</v>
+      </c>
+      <c r="M3">
+        <v>1.1040627813372339E-3</v>
+      </c>
+      <c r="N3">
+        <v>1.1368683772161603E-13</v>
+      </c>
+      <c r="O3">
+        <v>2.2830546970453724E-4</v>
+      </c>
+      <c r="P3">
+        <v>8.9929515911535418E-4</v>
+      </c>
+      <c r="Q3">
+        <v>9.5826819460853585E-5</v>
+      </c>
+      <c r="R3">
+        <v>1.2334353714209101E-2</v>
+      </c>
+      <c r="S3">
+        <v>3.5379020107484394E-4</v>
+      </c>
+      <c r="T3">
+        <v>1.2263643649475853E-2</v>
+      </c>
+      <c r="U3">
+        <v>2.2737367544323206E-13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>26.195854326063227</v>
+      </c>
+      <c r="B4">
+        <v>35.252836274189235</v>
+      </c>
+      <c r="C4">
+        <v>27.480445157073291</v>
+      </c>
+      <c r="D4">
+        <v>59.281417396219467</v>
+      </c>
+      <c r="E4">
+        <v>49.310366736212472</v>
+      </c>
+      <c r="F4">
+        <v>43.14095667883737</v>
+      </c>
+      <c r="G4">
+        <v>28.745282218574403</v>
+      </c>
+      <c r="H4">
+        <v>37.565418125656151</v>
+      </c>
+      <c r="I4">
+        <v>38.955661555807524</v>
+      </c>
+      <c r="J4">
+        <v>57.153642852046914</v>
+      </c>
+      <c r="K4">
+        <v>49.629995376712486</v>
+      </c>
+      <c r="L4">
+        <v>31.3925666766429</v>
+      </c>
+      <c r="M4">
+        <v>29.84971137153741</v>
+      </c>
+      <c r="N4">
+        <v>55.700588138590888</v>
+      </c>
+      <c r="O4">
+        <v>32.297434713668167</v>
+      </c>
+      <c r="P4">
+        <v>35.902283146043374</v>
+      </c>
+      <c r="Q4">
+        <v>41.223084420186751</v>
+      </c>
+      <c r="R4">
+        <v>47.667554152692333</v>
+      </c>
+      <c r="S4">
+        <v>38.637552095712749</v>
+      </c>
+      <c r="T4">
+        <v>66.848439352505011</v>
+      </c>
+      <c r="U4">
+        <v>66.624383996815368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1.8172960743634121</v>
+      </c>
+      <c r="B5">
+        <v>3.3593035730301608</v>
+      </c>
+      <c r="C5">
+        <v>3.7563686974447137</v>
+      </c>
+      <c r="D5">
+        <v>0.63338051942378115</v>
+      </c>
+      <c r="E5">
+        <v>47.300472083077693</v>
+      </c>
+      <c r="F5">
+        <v>1.08770453801651</v>
+      </c>
+      <c r="G5">
+        <v>8.9528250416719857E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.63338051942400853</v>
+      </c>
+      <c r="I5">
+        <v>4.4724287260972915</v>
+      </c>
+      <c r="J5">
+        <v>1.906824324780132</v>
+      </c>
+      <c r="K5">
+        <v>2.4896076585970377</v>
+      </c>
+      <c r="L5">
+        <v>3.4106051316484809E-13</v>
+      </c>
+      <c r="M5">
+        <v>0.17905650083309865</v>
+      </c>
+      <c r="N5">
+        <v>2.8154512060478964</v>
+      </c>
+      <c r="O5">
+        <v>0.72290876984072838</v>
+      </c>
+      <c r="P5">
+        <v>5.3378529688244498</v>
+      </c>
+      <c r="Q5">
+        <v>1.4525003061891084</v>
+      </c>
+      <c r="R5">
+        <v>1.1772327887731535</v>
+      </c>
+      <c r="S5">
+        <v>17.814528128866641</v>
+      </c>
+      <c r="T5">
+        <v>4.2704118935797624</v>
+      </c>
+      <c r="U5">
+        <v>3.5528475045900905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>76.023087825235734</v>
+      </c>
+      <c r="B6">
+        <v>243.05693743623033</v>
+      </c>
+      <c r="C6">
+        <v>12318.669987293581</v>
+      </c>
+      <c r="D6">
+        <v>740.07207186780397</v>
+      </c>
+      <c r="E6">
+        <v>116.00437600900204</v>
+      </c>
+      <c r="F6">
+        <v>106.93963524445735</v>
+      </c>
+      <c r="G6">
+        <v>2033.5648662195172</v>
+      </c>
+      <c r="H6">
+        <v>162.27675775497642</v>
+      </c>
+      <c r="I6">
+        <v>58.902025983342355</v>
+      </c>
+      <c r="J6">
+        <v>103.42436529964289</v>
+      </c>
+      <c r="K6">
+        <v>155.45346150850992</v>
+      </c>
+      <c r="L6">
+        <v>90.695428212565503</v>
+      </c>
+      <c r="M6">
+        <v>190.37808902838378</v>
+      </c>
+      <c r="N6">
+        <v>81.676226894876436</v>
+      </c>
+      <c r="O6">
+        <v>160.378534131587</v>
+      </c>
+      <c r="P6">
+        <v>121.39549917956333</v>
+      </c>
+      <c r="Q6">
+        <v>128.54472966965545</v>
+      </c>
+      <c r="R6">
+        <v>664.20802825243845</v>
+      </c>
+      <c r="S6">
+        <v>132.04892930010669</v>
+      </c>
+      <c r="T6">
+        <v>71.908581008189458</v>
+      </c>
+      <c r="U6">
+        <v>75.855905054189407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>29.07445215294274</v>
+      </c>
+      <c r="B7">
+        <v>47.143921979701645</v>
+      </c>
+      <c r="C7">
+        <v>42.865573539321986</v>
+      </c>
+      <c r="D7">
+        <v>26.638229305801588</v>
+      </c>
+      <c r="E7">
+        <v>58.783376452052835</v>
+      </c>
+      <c r="F7">
+        <v>26.191099405588375</v>
+      </c>
+      <c r="G7">
+        <v>33.476327397836712</v>
+      </c>
+      <c r="H7">
+        <v>24.327176745557153</v>
+      </c>
+      <c r="I7">
+        <v>28.478163845472636</v>
+      </c>
+      <c r="J7">
+        <v>35.152285310334037</v>
+      </c>
+      <c r="K7">
+        <v>27.683863469969083</v>
+      </c>
+      <c r="L7">
+        <v>30.550626901276701</v>
+      </c>
+      <c r="M7">
+        <v>28.060168536832407</v>
+      </c>
+      <c r="N7">
+        <v>38.289787057718286</v>
+      </c>
+      <c r="O7">
+        <v>30.73053408411306</v>
+      </c>
+      <c r="P7">
+        <v>42.215080256669125</v>
+      </c>
+      <c r="Q7">
+        <v>29.405860341441212</v>
+      </c>
+      <c r="R7">
+        <v>23.434250408720573</v>
+      </c>
+      <c r="S7">
+        <v>24.084160698156666</v>
+      </c>
+      <c r="T7">
+        <v>24.633970293948096</v>
+      </c>
+      <c r="U7">
+        <v>25.253673727142541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>26.853114551201998</v>
+      </c>
+      <c r="B8">
+        <v>24.824039879477368</v>
+      </c>
+      <c r="C8">
+        <v>24.659270703880793</v>
+      </c>
+      <c r="D8">
+        <v>26.729263987260765</v>
+      </c>
+      <c r="E8">
+        <v>26.402351428428119</v>
+      </c>
+      <c r="F8">
+        <v>25.867668327699903</v>
+      </c>
+      <c r="G8">
+        <v>24.811581472870785</v>
+      </c>
+      <c r="H8">
+        <v>25.770490749572218</v>
+      </c>
+      <c r="I8">
+        <v>26.600988403966312</v>
+      </c>
+      <c r="J8">
+        <v>26.606592635842844</v>
+      </c>
+      <c r="K8">
+        <v>25.855357187948812</v>
+      </c>
+      <c r="L8">
+        <v>24.566917013022248</v>
+      </c>
+      <c r="M8">
+        <v>25.713976878848371</v>
+      </c>
+      <c r="N8">
+        <v>26.886308507398553</v>
+      </c>
+      <c r="O8">
+        <v>25.25815825039308</v>
+      </c>
+      <c r="P8">
+        <v>25.727743817010833</v>
+      </c>
+      <c r="Q8">
+        <v>25.192492345324808</v>
+      </c>
+      <c r="R8">
+        <v>27.195151863604679</v>
+      </c>
+      <c r="S8">
+        <v>26.97945721656879</v>
+      </c>
+      <c r="T8">
+        <v>23.257546200436536</v>
+      </c>
+      <c r="U8">
+        <v>26.433327008140168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="B9">
+        <v>180.78127167774664</v>
+      </c>
+      <c r="C9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="D9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="E9">
+        <v>180.78127167774664</v>
+      </c>
+      <c r="F9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="G9">
+        <v>180.78127167774664</v>
+      </c>
+      <c r="H9">
+        <v>180.78127167774664</v>
+      </c>
+      <c r="I9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="J9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="K9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="L9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="M9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="N9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="O9">
+        <v>180.78127167774664</v>
+      </c>
+      <c r="P9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="Q9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="R9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="S9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="T9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="U9">
+        <v>180.78127167774664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>100.23839758939721</v>
+      </c>
+      <c r="B10">
+        <v>181.68852407264694</v>
+      </c>
+      <c r="C10">
+        <v>314.30504716925225</v>
+      </c>
+      <c r="D10">
+        <v>169.1983235903208</v>
+      </c>
+      <c r="E10">
+        <v>100.58832099175106</v>
+      </c>
+      <c r="F10">
+        <v>100.38304457365803</v>
+      </c>
+      <c r="G10">
+        <v>37.481727613957446</v>
+      </c>
+      <c r="H10">
+        <v>511.80239825282206</v>
+      </c>
+      <c r="I10">
+        <v>348.19391656550579</v>
+      </c>
+      <c r="J10">
+        <v>100.69898681600944</v>
+      </c>
+      <c r="K10">
+        <v>100.62068683405187</v>
+      </c>
+      <c r="L10">
+        <v>100.4293142702445</v>
+      </c>
+      <c r="M10">
+        <v>100.49463223447628</v>
+      </c>
+      <c r="N10">
+        <v>179.50073111005804</v>
+      </c>
+      <c r="O10">
+        <v>496.53746311819168</v>
+      </c>
+      <c r="P10">
+        <v>100.52264591302583</v>
+      </c>
+      <c r="Q10">
+        <v>302.74784403255944</v>
+      </c>
+      <c r="R10">
+        <v>100.67038422526775</v>
+      </c>
+      <c r="S10">
+        <v>100.53096874613129</v>
+      </c>
+      <c r="T10">
+        <v>124.45494897489152</v>
+      </c>
+      <c r="U10">
+        <v>100.4903623892842</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>300.00000000000045</v>
+      </c>
+      <c r="B11">
+        <v>300.00000000000045</v>
+      </c>
+      <c r="C11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="D11">
+        <v>400.00000000000045</v>
+      </c>
+      <c r="E11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="F11">
+        <v>400.00000000000091</v>
+      </c>
+      <c r="G11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="H11">
+        <v>300.00000000000045</v>
+      </c>
+      <c r="I11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="J11">
+        <v>400.00000000000091</v>
+      </c>
+      <c r="K11">
+        <v>760.45747560351765</v>
+      </c>
+      <c r="L11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="M11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="N11">
+        <v>300.00000000000136</v>
+      </c>
+      <c r="O11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="P11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="Q11">
+        <v>400.00000000000045</v>
+      </c>
+      <c r="R11">
+        <v>400.00000000000136</v>
+      </c>
+      <c r="S11">
+        <v>300.00000000000045</v>
+      </c>
+      <c r="T11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="U11">
+        <v>400.00000000000091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>248.16063321613274</v>
+      </c>
+      <c r="B12">
+        <v>239.34248970202543</v>
+      </c>
+      <c r="C12">
+        <v>244.43976730866098</v>
+      </c>
+      <c r="D12">
+        <v>244.59998488336805</v>
+      </c>
+      <c r="E12">
+        <v>240.20417460118551</v>
+      </c>
+      <c r="F12">
+        <v>238.63582143994154</v>
+      </c>
+      <c r="G12">
+        <v>265.66834940747049</v>
+      </c>
+      <c r="H12">
+        <v>245.34303732785656</v>
+      </c>
+      <c r="I12">
+        <v>239.44179589730174</v>
+      </c>
+      <c r="J12">
+        <v>242.82399363373224</v>
+      </c>
+      <c r="K12">
+        <v>246.84395855222419</v>
+      </c>
+      <c r="L12">
+        <v>242.85431318667588</v>
+      </c>
+      <c r="M12">
+        <v>245.04676941238631</v>
+      </c>
+      <c r="N12">
+        <v>238.77993120655356</v>
+      </c>
+      <c r="O12">
+        <v>243.74377889847756</v>
+      </c>
+      <c r="P12">
+        <v>233.98396073827371</v>
+      </c>
+      <c r="Q12">
+        <v>240.83013882695059</v>
+      </c>
+      <c r="R12">
+        <v>243.1549380750057</v>
+      </c>
+      <c r="S12">
+        <v>241.58248998157933</v>
+      </c>
+      <c r="T12">
+        <v>232.45770196557442</v>
+      </c>
+      <c r="U12">
+        <v>234.80885118542983</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D97FE3-50CF-4FB1-B15C-1A2F310F74F0}">
+  <dimension ref="A1:U12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:U12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1.1959286894125398E-9</v>
+      </c>
+      <c r="B1">
+        <v>1.1368683772161603E-11</v>
+      </c>
+      <c r="C1">
+        <v>6.2635763242724352E-10</v>
+      </c>
+      <c r="D1">
+        <v>1.0948042472591624E-10</v>
+      </c>
+      <c r="E1">
+        <v>2.2077983885537833E-10</v>
+      </c>
+      <c r="F1">
+        <v>1.0032863428932615E-10</v>
+      </c>
+      <c r="G1">
+        <v>4.6725290303584188E-11</v>
+      </c>
+      <c r="H1">
+        <v>3.9707970245217439E-9</v>
+      </c>
+      <c r="I1">
+        <v>9.9475983006414026E-12</v>
+      </c>
+      <c r="J1">
+        <v>1.9637752757262206E-8</v>
+      </c>
+      <c r="K1">
+        <v>3.3367086871294305E-11</v>
+      </c>
+      <c r="L1">
+        <v>2.7193891583010554E-10</v>
+      </c>
+      <c r="M1">
+        <v>8.6970430857036263E-11</v>
+      </c>
+      <c r="N1">
+        <v>4.6043169277254492E-12</v>
+      </c>
+      <c r="O1">
+        <v>6.042455424903892E-10</v>
+      </c>
+      <c r="P1">
+        <v>2.9894522413087543E-9</v>
+      </c>
+      <c r="Q1">
+        <v>3.4145841709687375E-9</v>
+      </c>
+      <c r="R1">
+        <v>2.6625457394402474E-10</v>
+      </c>
+      <c r="S1">
+        <v>1.3159251466277055E-10</v>
+      </c>
+      <c r="T1">
+        <v>4.7577941586496308E-11</v>
+      </c>
+      <c r="U1">
+        <v>7.0031092036515474E-11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.47383309930853557</v>
+      </c>
+      <c r="B2">
+        <v>49.084478979482014</v>
+      </c>
+      <c r="C2">
+        <v>1.6765805841771453E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.26020555231099252</v>
+      </c>
+      <c r="E2">
+        <v>49.08447897948156</v>
+      </c>
+      <c r="F2">
+        <v>49.084478979481901</v>
+      </c>
+      <c r="G2">
+        <v>3.1537353600356255</v>
+      </c>
+      <c r="H2">
+        <v>49.08447897948173</v>
+      </c>
+      <c r="I2">
+        <v>49.084478979481617</v>
+      </c>
+      <c r="J2">
+        <v>0.32380282791922355</v>
+      </c>
+      <c r="K2">
+        <v>6.0916646246482742E-3</v>
+      </c>
+      <c r="L2">
+        <v>49.084478979482128</v>
+      </c>
+      <c r="M2">
+        <v>3.9435550642906492E-2</v>
+      </c>
+      <c r="N2">
+        <v>49.08447897948156</v>
+      </c>
+      <c r="O2">
+        <v>49.084478979481332</v>
+      </c>
+      <c r="P2">
+        <v>6.601385273370397E-4</v>
+      </c>
+      <c r="Q2">
+        <v>49.084478979481503</v>
+      </c>
+      <c r="R2">
+        <v>49.084478979482299</v>
+      </c>
+      <c r="S2">
+        <v>49.084478979481673</v>
+      </c>
+      <c r="T2">
+        <v>49.084478979482355</v>
+      </c>
+      <c r="U2">
+        <v>49.084478979481901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5.5087378700591216E-4</v>
+      </c>
+      <c r="B3">
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="C3">
+        <v>1.357095485445825E-4</v>
+      </c>
+      <c r="D3">
+        <v>3.3451945103024627E-4</v>
+      </c>
+      <c r="E3">
+        <v>5.4571346913689922E-4</v>
+      </c>
+      <c r="F3">
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="G3">
+        <v>8.3629978348653822E-5</v>
+      </c>
+      <c r="H3">
+        <v>1.1368683772161603E-13</v>
+      </c>
+      <c r="I3">
+        <v>4.5433324237365014E-4</v>
+      </c>
+      <c r="J3">
+        <v>3.347970891809382E-5</v>
+      </c>
+      <c r="K3">
+        <v>8.363006975287135E-5</v>
+      </c>
+      <c r="L3">
+        <v>1.1368683772161603E-13</v>
+      </c>
+      <c r="M3">
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="N3">
+        <v>6.8032672367053237E-3</v>
+      </c>
+      <c r="O3">
+        <v>1.5418497664541064E-3</v>
+      </c>
+      <c r="P3">
+        <v>8.1946128152026176E-2</v>
+      </c>
+      <c r="Q3">
+        <v>1.1368683772161603E-13</v>
+      </c>
+      <c r="R3">
+        <v>3.6894265451792307E-4</v>
+      </c>
+      <c r="S3">
+        <v>8.3629747223312734E-5</v>
+      </c>
+      <c r="T3">
+        <v>8.484047056072086E-4</v>
+      </c>
+      <c r="U3">
+        <v>2.2737367544323206E-13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>51.749016843988329</v>
+      </c>
+      <c r="B4">
+        <v>36.762981926760631</v>
+      </c>
+      <c r="C4">
+        <v>52.396780192748565</v>
+      </c>
+      <c r="D4">
+        <v>49.892475794732263</v>
+      </c>
+      <c r="E4">
+        <v>40.643526305338128</v>
+      </c>
+      <c r="F4">
+        <v>36.881309899744565</v>
+      </c>
+      <c r="G4">
+        <v>37.965118231122005</v>
+      </c>
+      <c r="H4">
+        <v>34.913532368432811</v>
+      </c>
+      <c r="I4">
+        <v>25.385494530901042</v>
+      </c>
+      <c r="J4">
+        <v>25.927358973103765</v>
+      </c>
+      <c r="K4">
+        <v>32.851194230986152</v>
+      </c>
+      <c r="L4">
+        <v>41.462029519964972</v>
+      </c>
+      <c r="M4">
+        <v>37.18741012309215</v>
+      </c>
+      <c r="N4">
+        <v>39.962896465513381</v>
+      </c>
+      <c r="O4">
+        <v>54.8086778964215</v>
+      </c>
+      <c r="P4">
+        <v>44.829360695342757</v>
+      </c>
+      <c r="Q4">
+        <v>37.050578982524598</v>
+      </c>
+      <c r="R4">
+        <v>55.225850533075118</v>
+      </c>
+      <c r="S4">
+        <v>69.489198107796938</v>
+      </c>
+      <c r="T4">
+        <v>52.809211543218339</v>
+      </c>
+      <c r="U4">
+        <v>47.227084603559661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3.1802469742222002</v>
+      </c>
+      <c r="B5">
+        <v>0.26858475124970482</v>
+      </c>
+      <c r="C5">
+        <v>0.45432401859125093</v>
+      </c>
+      <c r="D5">
+        <v>0.45432401859102356</v>
+      </c>
+      <c r="E5">
+        <v>0.54385226901240458</v>
+      </c>
+      <c r="F5">
+        <v>5.5835744524636084</v>
+      </c>
+      <c r="G5">
+        <v>3.9098173546569797</v>
+      </c>
+      <c r="H5">
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="I5">
+        <v>2.2715989370407215</v>
+      </c>
+      <c r="J5">
+        <v>13.236254250666661</v>
+      </c>
+      <c r="K5">
+        <v>0.17905650083321234</v>
+      </c>
+      <c r="L5">
+        <v>2.1509443840078575</v>
+      </c>
+      <c r="M5">
+        <v>1.8172960743634121</v>
+      </c>
+      <c r="N5">
+        <v>2.5157401521821612</v>
+      </c>
+      <c r="O5">
+        <v>8.9528250416492483E-2</v>
+      </c>
+      <c r="P5">
+        <v>0.54385226900728867</v>
+      </c>
+      <c r="Q5">
+        <v>1.7861486158335538</v>
+      </c>
+      <c r="R5">
+        <v>0.26858475124947745</v>
+      </c>
+      <c r="S5">
+        <v>0.17905650083332603</v>
+      </c>
+      <c r="T5">
+        <v>5.427381219241056</v>
+      </c>
+      <c r="U5">
+        <v>0.90864803718181975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>93.580558393945466</v>
+      </c>
+      <c r="B6">
+        <v>6950.1837710893069</v>
+      </c>
+      <c r="C6">
+        <v>257.43940427504958</v>
+      </c>
+      <c r="D6">
+        <v>370.60605639434289</v>
+      </c>
+      <c r="E6">
+        <v>66.012361248966272</v>
+      </c>
+      <c r="F6">
+        <v>61.353630674276019</v>
+      </c>
+      <c r="G6">
+        <v>119.9694234991116</v>
+      </c>
+      <c r="H6">
+        <v>2762.9165635319923</v>
+      </c>
+      <c r="I6">
+        <v>2356.1039749955144</v>
+      </c>
+      <c r="J6">
+        <v>395.73310349756593</v>
+      </c>
+      <c r="K6">
+        <v>60.464863802914579</v>
+      </c>
+      <c r="L6">
+        <v>172.37004456622458</v>
+      </c>
+      <c r="M6">
+        <v>217.47918160719428</v>
+      </c>
+      <c r="N6">
+        <v>121.72038207285277</v>
+      </c>
+      <c r="O6">
+        <v>87.181629920200521</v>
+      </c>
+      <c r="P6">
+        <v>487.3908586156831</v>
+      </c>
+      <c r="Q6">
+        <v>50.643321458940136</v>
+      </c>
+      <c r="R6">
+        <v>7461.5295783545353</v>
+      </c>
+      <c r="S6">
+        <v>88.95629796719868</v>
+      </c>
+      <c r="T6">
+        <v>86.536829844230169</v>
+      </c>
+      <c r="U6">
+        <v>68.045876353886342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>35.803039511510406</v>
+      </c>
+      <c r="B7">
+        <v>26.666690497038871</v>
+      </c>
+      <c r="C7">
+        <v>33.280877816085876</v>
+      </c>
+      <c r="D7">
+        <v>37.11964636855555</v>
+      </c>
+      <c r="E7">
+        <v>44.281144347356985</v>
+      </c>
+      <c r="F7">
+        <v>32.4355142592824</v>
+      </c>
+      <c r="G7">
+        <v>22.529825425574927</v>
+      </c>
+      <c r="H7">
+        <v>36.077307064420665</v>
+      </c>
+      <c r="I7">
+        <v>35.994464261272924</v>
+      </c>
+      <c r="J7">
+        <v>30.381342846781763</v>
+      </c>
+      <c r="K7">
+        <v>30.428954722465733</v>
+      </c>
+      <c r="L7">
+        <v>32.518768560779108</v>
+      </c>
+      <c r="M7">
+        <v>32.270144413808339</v>
+      </c>
+      <c r="N7">
+        <v>26.947594960857032</v>
+      </c>
+      <c r="O7">
+        <v>22.868784516590722</v>
+      </c>
+      <c r="P7">
+        <v>31.199219104009671</v>
+      </c>
+      <c r="Q7">
+        <v>27.126067081494057</v>
+      </c>
+      <c r="R7">
+        <v>29.922360817237859</v>
+      </c>
+      <c r="S7">
+        <v>28.343119494399616</v>
+      </c>
+      <c r="T7">
+        <v>34.452038146626819</v>
+      </c>
+      <c r="U7">
+        <v>33.018803035418159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>26.302178341572471</v>
+      </c>
+      <c r="B8">
+        <v>26.126411258403095</v>
+      </c>
+      <c r="C8">
+        <v>25.703142504094103</v>
+      </c>
+      <c r="D8">
+        <v>25.889157136504764</v>
+      </c>
+      <c r="E8">
+        <v>25.645600791535799</v>
+      </c>
+      <c r="F8">
+        <v>24.778902779138207</v>
+      </c>
+      <c r="G8">
+        <v>25.755479504442519</v>
+      </c>
+      <c r="H8">
+        <v>25.103947234799762</v>
+      </c>
+      <c r="I8">
+        <v>25.526254939429236</v>
+      </c>
+      <c r="J8">
+        <v>24.858366102884247</v>
+      </c>
+      <c r="K8">
+        <v>27.317276456605668</v>
+      </c>
+      <c r="L8">
+        <v>24.701748831922941</v>
+      </c>
+      <c r="M8">
+        <v>25.530717130605808</v>
+      </c>
+      <c r="N8">
+        <v>25.491241934228583</v>
+      </c>
+      <c r="O8">
+        <v>24.5860072189721</v>
+      </c>
+      <c r="P8">
+        <v>24.256931355868801</v>
+      </c>
+      <c r="Q8">
+        <v>25.468366387008246</v>
+      </c>
+      <c r="R8">
+        <v>25.386571477632515</v>
+      </c>
+      <c r="S8">
+        <v>26.684881066365961</v>
+      </c>
+      <c r="T8">
+        <v>25.934016619067734</v>
+      </c>
+      <c r="U8">
+        <v>25.963997447524889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="B9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="C9">
+        <v>180.78127167774755</v>
+      </c>
+      <c r="D9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="E9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="F9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="G9">
+        <v>180.78127167774755</v>
+      </c>
+      <c r="H9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="I9">
+        <v>180.78127167774755</v>
+      </c>
+      <c r="J9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="K9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="L9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="M9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="N9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="O9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="P9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="Q9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="R9">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="S9">
+        <v>180.78127167774801</v>
+      </c>
+      <c r="T9">
+        <v>180.78127167774755</v>
+      </c>
+      <c r="U9">
+        <v>180.78127167774755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>100.59243264556608</v>
+      </c>
+      <c r="B10">
+        <v>100.52831936750999</v>
+      </c>
+      <c r="C10">
+        <v>100.41040671196424</v>
+      </c>
+      <c r="D10">
+        <v>100.59492758596889</v>
+      </c>
+      <c r="E10">
+        <v>100.45118905545996</v>
+      </c>
+      <c r="F10">
+        <v>100.49052242906555</v>
+      </c>
+      <c r="G10">
+        <v>100.43660556330178</v>
+      </c>
+      <c r="H10">
+        <v>100.49270362047355</v>
+      </c>
+      <c r="I10">
+        <v>100.42180274427483</v>
+      </c>
+      <c r="J10">
+        <v>100.55478549498639</v>
+      </c>
+      <c r="K10">
+        <v>100.43743895831085</v>
+      </c>
+      <c r="L10">
+        <v>236.1791097231885</v>
+      </c>
+      <c r="M10">
+        <v>229.20137890293927</v>
+      </c>
+      <c r="N10">
+        <v>225.91863342174292</v>
+      </c>
+      <c r="O10">
+        <v>100.43026996121125</v>
+      </c>
+      <c r="P10">
+        <v>100.39653892057186</v>
+      </c>
+      <c r="Q10">
+        <v>100.40058132287641</v>
+      </c>
+      <c r="R10">
+        <v>100.45311643025025</v>
+      </c>
+      <c r="S10">
+        <v>100.3875432251557</v>
+      </c>
+      <c r="T10">
+        <v>100.36125740631815</v>
+      </c>
+      <c r="U10">
+        <v>100.45041805053279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="B11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="C11">
+        <v>300.00000000000045</v>
+      </c>
+      <c r="D11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="E11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="F11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="G11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="H11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="I11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="J11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="K11">
+        <v>300.00000000000182</v>
+      </c>
+      <c r="L11">
+        <v>400.00000000000091</v>
+      </c>
+      <c r="M11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="N11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="O11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="P11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="Q11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="R11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="S11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="T11">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="U11">
+        <v>300.00000000000091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>267.03055906963118</v>
+      </c>
+      <c r="B12">
+        <v>255.6225420697001</v>
+      </c>
+      <c r="C12">
+        <v>248.63515907040983</v>
+      </c>
+      <c r="D12">
+        <v>257.17367642763884</v>
+      </c>
+      <c r="E12">
+        <v>246.47060022370943</v>
+      </c>
+      <c r="F12">
+        <v>251.53503008890675</v>
+      </c>
+      <c r="G12">
+        <v>240.73501560383875</v>
+      </c>
+      <c r="H12">
+        <v>262.23751702931804</v>
+      </c>
+      <c r="I12">
+        <v>257.56475075505887</v>
+      </c>
+      <c r="J12">
+        <v>239.19597724244886</v>
+      </c>
+      <c r="K12">
+        <v>239.03004323723599</v>
+      </c>
+      <c r="L12">
+        <v>253.54568115350366</v>
+      </c>
+      <c r="M12">
+        <v>269.35329268988653</v>
+      </c>
+      <c r="N12">
+        <v>245.09567396057992</v>
+      </c>
+      <c r="O12">
+        <v>249.82324423022192</v>
+      </c>
+      <c r="P12">
+        <v>254.71123311327437</v>
+      </c>
+      <c r="Q12">
+        <v>239.03299005771714</v>
+      </c>
+      <c r="R12">
+        <v>248.42459936265277</v>
+      </c>
+      <c r="S12">
+        <v>244.65110895510816</v>
+      </c>
+      <c r="T12">
+        <v>263.86770964560219</v>
+      </c>
+      <c r="U12">
+        <v>264.63803331277359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E318FE-4C7A-45E3-BD3B-DA07728F9955}">
+  <dimension ref="A1:F96"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>4318.7561638178422</v>
+      </c>
+      <c r="B1">
+        <v>12143.502303314055</v>
+      </c>
+      <c r="C1">
+        <v>5143.4774494852245</v>
+      </c>
+      <c r="D1">
+        <v>11978.001143465133</v>
+      </c>
+      <c r="E1">
+        <v>21866.881866446172</v>
+      </c>
+      <c r="F1">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5.6843418860808015E-14</v>
+      </c>
+      <c r="B2">
+        <v>5.9550248330370304E-14</v>
+      </c>
+      <c r="C2">
+        <v>1.2404250937606346E-14</v>
+      </c>
+      <c r="D2">
+        <v>5.6843418860808015E-14</v>
+      </c>
+      <c r="E2">
+        <v>1.1368683772161603E-13</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>13788.577882633481</v>
+      </c>
+      <c r="B3">
+        <v>23625.007775645889</v>
+      </c>
+      <c r="C3">
+        <v>6916.0796372752884</v>
+      </c>
+      <c r="D3">
+        <v>22663.983693962102</v>
+      </c>
+      <c r="E3">
+        <v>37785.47954226088</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1.6765873015873016</v>
-      </c>
-      <c r="C2">
-        <v>1.3234126984126986</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2687.0943882380334</v>
+      </c>
+      <c r="B4">
+        <v>8464.1624299373907</v>
+      </c>
+      <c r="C4">
+        <v>3275.950158863368</v>
+      </c>
+      <c r="D4">
+        <v>7905.4496270365962</v>
+      </c>
+      <c r="E4">
+        <v>16923.156042179722</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2.0463630789890885E-12</v>
+      </c>
+      <c r="B5">
+        <v>2.5902141130375511E-8</v>
+      </c>
+      <c r="C5">
+        <v>1.0134493591713827E-7</v>
+      </c>
+      <c r="D5">
+        <v>8.3798568084603176E-10</v>
+      </c>
+      <c r="E5">
+        <v>4.662902597374341E-7</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1.2505552149377763E-11</v>
+      </c>
+      <c r="B6">
+        <v>7.5434351336817995E-8</v>
+      </c>
+      <c r="C6">
+        <v>1.9449513559060318E-7</v>
+      </c>
+      <c r="D6">
+        <v>8.0895006249193102E-9</v>
+      </c>
+      <c r="E6">
+        <v>8.619804816589749E-7</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5.6843418860808015E-12</v>
+      </c>
+      <c r="B7">
+        <v>2.2093626653042433E-8</v>
+      </c>
+      <c r="C7">
+        <v>6.5597646562194881E-8</v>
+      </c>
+      <c r="D7">
+        <v>9.6838448371272534E-10</v>
+      </c>
+      <c r="E7">
+        <v>3.0027058528503403E-7</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4.6043169277254492E-12</v>
+      </c>
+      <c r="B8">
+        <v>1.6119088286359329E-9</v>
+      </c>
+      <c r="C8">
+        <v>4.3004676193080786E-9</v>
+      </c>
+      <c r="D8">
+        <v>1.3159251466277055E-10</v>
+      </c>
+      <c r="E8">
+        <v>1.9637752757262206E-8</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>44.896412149605567</v>
+      </c>
+      <c r="B9">
+        <v>61.515050084816494</v>
+      </c>
+      <c r="C9">
+        <v>31.393963318855096</v>
+      </c>
+      <c r="D9">
+        <v>49.13741158875672</v>
+      </c>
+      <c r="E9">
+        <v>190.94000650271335</v>
+      </c>
+      <c r="F9">
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5.6843418860808015E-14</v>
+      </c>
+      <c r="B10">
+        <v>30.370510844070104</v>
+      </c>
+      <c r="C10">
+        <v>23.660212023971912</v>
+      </c>
+      <c r="D10">
+        <v>49.084478979481219</v>
+      </c>
+      <c r="E10">
+        <v>49.084478979481446</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>49.133831041149676</v>
+      </c>
+      <c r="B11">
+        <v>64.576467937709452</v>
+      </c>
+      <c r="C11">
+        <v>15.509285268930531</v>
+      </c>
+      <c r="D11">
+        <v>58.955758258248409</v>
+      </c>
+      <c r="E11">
+        <v>105.22285135485834</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>44.895490609892136</v>
+      </c>
+      <c r="B12">
+        <v>53.11195925392952</v>
+      </c>
+      <c r="C12">
+        <v>9.3558873306767438</v>
+      </c>
+      <c r="D12">
+        <v>49.087802319364755</v>
+      </c>
+      <c r="E12">
+        <v>73.899396287098114</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1.6458509811968725E-2</v>
+      </c>
+      <c r="B13">
+        <v>37.436148808657585</v>
+      </c>
+      <c r="C13">
+        <v>20.449473201309523</v>
+      </c>
+      <c r="D13">
+        <v>49.084478979481389</v>
+      </c>
+      <c r="E13">
+        <v>49.084478979481787</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3.4802172665933995E-2</v>
+      </c>
+      <c r="B14">
+        <v>37.180815195290116</v>
+      </c>
+      <c r="C14">
+        <v>22.290409236245285</v>
+      </c>
+      <c r="D14">
+        <v>49.084478979481332</v>
+      </c>
+      <c r="E14">
+        <v>72.025272549504962</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1.7606382847361601E-3</v>
+      </c>
+      <c r="B15">
+        <v>33.239451899737873</v>
+      </c>
+      <c r="C15">
+        <v>23.00291983267547</v>
+      </c>
+      <c r="D15">
+        <v>49.084478979481275</v>
+      </c>
+      <c r="E15">
+        <v>49.084478979481787</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6.601385273370397E-4</v>
+      </c>
+      <c r="B16">
+        <v>30.589178892022602</v>
+      </c>
+      <c r="C16">
+        <v>24.167549337292286</v>
+      </c>
+      <c r="D16">
+        <v>49.08447897948156</v>
+      </c>
+      <c r="E16">
+        <v>49.084478979482355</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.11335610487583381</v>
+      </c>
+      <c r="B17">
+        <v>0.69906189262111362</v>
+      </c>
+      <c r="C17">
+        <v>0.5321639293193493</v>
+      </c>
+      <c r="D17">
+        <v>0.56536525226738377</v>
+      </c>
+      <c r="E17">
+        <v>2.4839223023013801</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1.1368683772161603E-13</v>
+      </c>
+      <c r="B18">
+        <v>7.9741052418501656E-6</v>
+      </c>
+      <c r="C18">
+        <v>1.7944538105708463E-5</v>
+      </c>
+      <c r="D18">
+        <v>2.5428349772482761E-6</v>
+      </c>
+      <c r="E18">
+        <v>8.3629747223312734E-5</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.86790174386794661</v>
+      </c>
+      <c r="B19">
+        <v>3.4575372206134087</v>
+      </c>
+      <c r="C19">
+        <v>2.0538144281551838</v>
+      </c>
+      <c r="D19">
+        <v>3.483533541725933</v>
+      </c>
+      <c r="E19">
+        <v>7.6898118907398612</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>6.2877551464453063E-2</v>
+      </c>
+      <c r="B20">
+        <v>0.71569335393636335</v>
+      </c>
+      <c r="C20">
+        <v>0.82929891015537571</v>
+      </c>
+      <c r="D20">
+        <v>0.38635387301837909</v>
+      </c>
+      <c r="E20">
+        <v>3.5074333025884243</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="B21">
+        <v>5.1155379516590726E-3</v>
+      </c>
+      <c r="C21">
+        <v>1.2356817709232332E-2</v>
+      </c>
+      <c r="D21">
+        <v>3.7487229178623238E-4</v>
+      </c>
+      <c r="E21">
+        <v>5.0789838507967033E-2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1.1368683772161603E-13</v>
+      </c>
+      <c r="B22">
+        <v>1.6283585116417227E-4</v>
+      </c>
+      <c r="C22">
+        <v>3.9971824230006995E-4</v>
+      </c>
+      <c r="D22">
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="E22">
+        <v>1.7898861387948273E-3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1.1368683772161603E-13</v>
+      </c>
+      <c r="B23">
+        <v>1.1807886952348261E-2</v>
+      </c>
+      <c r="C23">
+        <v>3.2707648593887646E-2</v>
+      </c>
+      <c r="D23">
+        <v>2.2830546970453724E-4</v>
+      </c>
+      <c r="E23">
+        <v>0.1389210320779739</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1.1368683772161603E-13</v>
+      </c>
+      <c r="B24">
+        <v>4.4673386437569292E-3</v>
+      </c>
+      <c r="C24">
+        <v>1.7813683329620755E-2</v>
+      </c>
+      <c r="D24">
+        <v>8.363006975287135E-5</v>
+      </c>
+      <c r="E24">
+        <v>8.1946128152026176E-2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>92.116029349200517</v>
+      </c>
+      <c r="B25">
+        <v>114.31895494165759</v>
+      </c>
+      <c r="C25">
+        <v>11.410740726673929</v>
+      </c>
+      <c r="D25">
+        <v>116.03466435010705</v>
+      </c>
+      <c r="E25">
+        <v>131.63813394104659</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>13.929416723667941</v>
+      </c>
+      <c r="B26">
+        <v>19.804408498436064</v>
+      </c>
+      <c r="C26">
+        <v>3.9159474630373934</v>
+      </c>
+      <c r="D26">
+        <v>18.904212009134426</v>
+      </c>
+      <c r="E26">
+        <v>29.848746523703426</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>101.45800412043536</v>
+      </c>
+      <c r="B27">
+        <v>123.47069833829089</v>
+      </c>
+      <c r="C27">
+        <v>13.566301699421555</v>
+      </c>
+      <c r="D27">
+        <v>121.96246243204109</v>
+      </c>
+      <c r="E27">
+        <v>152.57128027615897</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>74.362086843733209</v>
+      </c>
+      <c r="B28">
+        <v>106.25512192978093</v>
+      </c>
+      <c r="C28">
+        <v>15.898789369927311</v>
+      </c>
+      <c r="D28">
+        <v>109.60971806931445</v>
+      </c>
+      <c r="E28">
+        <v>140.06627112313345</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>14.924380819798785</v>
+      </c>
+      <c r="B29">
+        <v>41.736126961491003</v>
+      </c>
+      <c r="C29">
+        <v>15.609613781893316</v>
+      </c>
+      <c r="D29">
+        <v>39.549262936491914</v>
+      </c>
+      <c r="E29">
+        <v>72.036262300766452</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>13.991800214867567</v>
+      </c>
+      <c r="B30">
+        <v>48.621200585128207</v>
+      </c>
+      <c r="C30">
+        <v>13.447874216439677</v>
+      </c>
+      <c r="D30">
+        <v>50.55037495458123</v>
+      </c>
+      <c r="E30">
+        <v>68.741746597225642</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>26.195854326063227</v>
+      </c>
+      <c r="B31">
+        <v>42.802641655323214</v>
+      </c>
+      <c r="C31">
+        <v>12.620333708541766</v>
+      </c>
+      <c r="D31">
+        <v>38.955661555807524</v>
+      </c>
+      <c r="E31">
+        <v>66.848439352505011</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>25.385494530901042</v>
+      </c>
+      <c r="B32">
+        <v>43.115289893731791</v>
+      </c>
+      <c r="C32">
+        <v>10.672978114617328</v>
+      </c>
+      <c r="D32">
+        <v>40.643526305338128</v>
+      </c>
+      <c r="E32">
+        <v>69.489198107796938</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.97771751198467882</v>
+      </c>
+      <c r="B33">
+        <v>15.575675833526589</v>
+      </c>
+      <c r="C33">
+        <v>26.758704126101254</v>
+      </c>
+      <c r="D33">
+        <v>4.6112193147689595</v>
+      </c>
+      <c r="E33">
+        <v>91.752298141544429</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1.1368683772161603E-13</v>
+      </c>
+      <c r="B34">
+        <v>0.50452632305019141</v>
+      </c>
+      <c r="C34">
+        <v>0.63173331158902468</v>
+      </c>
+      <c r="D34">
+        <v>0.26858475124947745</v>
+      </c>
+      <c r="E34">
+        <v>2.3611271874569866</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>5.6096161795032913</v>
+      </c>
+      <c r="B35">
+        <v>212.76026892588683</v>
+      </c>
+      <c r="C35">
+        <v>172.67904850347566</v>
+      </c>
+      <c r="D35">
+        <v>182.84228998798562</v>
+      </c>
+      <c r="E35">
+        <v>658.06630295706509</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.54385251099051857</v>
+      </c>
+      <c r="B36">
+        <v>48.64338424225501</v>
+      </c>
+      <c r="C36">
+        <v>58.424478080938776</v>
+      </c>
+      <c r="D36">
+        <v>14.232973449410792</v>
+      </c>
+      <c r="E36">
+        <v>192.19941869969944</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1.1368683772161603E-13</v>
+      </c>
+      <c r="B37">
+        <v>1.2907249827848741</v>
+      </c>
+      <c r="C37">
+        <v>1.2049547781710146</v>
+      </c>
+      <c r="D37">
+        <v>1.0877045380150321</v>
+      </c>
+      <c r="E37">
+        <v>4.6327261244979354</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="B38">
+        <v>0.57832559171100417</v>
+      </c>
+      <c r="C38">
+        <v>0.56576189507708607</v>
+      </c>
+      <c r="D38">
+        <v>0.45432401859113725</v>
+      </c>
+      <c r="E38">
+        <v>1.7221160636524928</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>3.4106051316484809E-13</v>
+      </c>
+      <c r="B39">
+        <v>4.9937659539150827</v>
+      </c>
+      <c r="C39">
+        <v>10.399176107454906</v>
+      </c>
+      <c r="D39">
+        <v>1.906824324780132</v>
+      </c>
+      <c r="E39">
+        <v>47.300472083077693</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="B40">
+        <v>2.1794673229354493</v>
+      </c>
+      <c r="C40">
+        <v>3.0506982424325448</v>
+      </c>
+      <c r="D40">
+        <v>0.90864803718181975</v>
+      </c>
+      <c r="E40">
+        <v>13.236254250666661</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>46.352623688182803</v>
+      </c>
+      <c r="B49">
+        <v>87.553184303855886</v>
+      </c>
+      <c r="C49">
+        <v>20.637612106171723</v>
+      </c>
+      <c r="D49">
+        <v>90.046231705034643</v>
+      </c>
+      <c r="E49">
+        <v>125.41302746688507</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1.3071502906893784</v>
+      </c>
+      <c r="B50">
+        <v>12.092420416829642</v>
+      </c>
+      <c r="C50">
+        <v>8.3744909337062605</v>
+      </c>
+      <c r="D50">
+        <v>12.273646728768881</v>
+      </c>
+      <c r="E50">
+        <v>22.04261807140756</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>43.670487254841646</v>
+      </c>
+      <c r="B51">
+        <v>89.574455009878591</v>
+      </c>
+      <c r="C51">
+        <v>23.512421751851068</v>
+      </c>
+      <c r="D51">
+        <v>89.807594178112595</v>
+      </c>
+      <c r="E51">
+        <v>128.45869937101088</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>29.409026874263645</v>
+      </c>
+      <c r="B52">
+        <v>50.620343383521877</v>
+      </c>
+      <c r="C52">
+        <v>16.066917512904762</v>
+      </c>
+      <c r="D52">
+        <v>45.100601172887991</v>
+      </c>
+      <c r="E52">
+        <v>81.085707163590541</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>19.076410503225134</v>
+      </c>
+      <c r="B53">
+        <v>28.794990031029016</v>
+      </c>
+      <c r="C53">
+        <v>5.4852950631868111</v>
+      </c>
+      <c r="D53">
+        <v>28.01117732710054</v>
+      </c>
+      <c r="E53">
+        <v>42.584939349193064</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>17.350142917664698</v>
+      </c>
+      <c r="B54">
+        <v>30.974191021038894</v>
+      </c>
+      <c r="C54">
+        <v>6.2910236486386069</v>
+      </c>
+      <c r="D54">
+        <v>31.069032262351129</v>
+      </c>
+      <c r="E54">
+        <v>49.235660213192205</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>23.434250408720573</v>
+      </c>
+      <c r="B55">
+        <v>32.212980090980828</v>
+      </c>
+      <c r="C55">
+        <v>9.0624079207980461</v>
+      </c>
+      <c r="D55">
+        <v>29.07445215294274</v>
+      </c>
+      <c r="E55">
+        <v>58.783376452052835</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>22.529825425574927</v>
+      </c>
+      <c r="B56">
+        <v>31.603128916741309</v>
+      </c>
+      <c r="C56">
+        <v>5.0209767901952596</v>
+      </c>
+      <c r="D56">
+        <v>32.270144413808339</v>
+      </c>
+      <c r="E56">
+        <v>44.281144347356985</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>33.782407858914212</v>
+      </c>
+      <c r="B57">
+        <v>38.267543103278143</v>
+      </c>
+      <c r="C57">
+        <v>2.6093531934200151</v>
+      </c>
+      <c r="D57">
+        <v>38.124352949507738</v>
+      </c>
+      <c r="E57">
+        <v>43.086826567696789</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>20.578310335949482</v>
+      </c>
+      <c r="B58">
+        <v>21.734096732455676</v>
+      </c>
+      <c r="C58">
+        <v>0.56036024743114177</v>
+      </c>
+      <c r="D58">
+        <v>21.840993343799255</v>
+      </c>
+      <c r="E58">
+        <v>22.686417572396749</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>37.595095934571418</v>
+      </c>
+      <c r="B59">
+        <v>45.46146797530929</v>
+      </c>
+      <c r="C59">
+        <v>6.5029282696138084</v>
+      </c>
+      <c r="D59">
+        <v>44.1940110725468</v>
+      </c>
+      <c r="E59">
+        <v>66.706061332906302</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>29.60057809055661</v>
+      </c>
+      <c r="B60">
+        <v>36.103939276138377</v>
+      </c>
+      <c r="C60">
+        <v>4.036621442475532</v>
+      </c>
+      <c r="D60">
+        <v>35.854808704038533</v>
+      </c>
+      <c r="E60">
+        <v>44.293557557422901</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>24.394931257014832</v>
+      </c>
+      <c r="B61">
+        <v>26.012958970007144</v>
+      </c>
+      <c r="C61">
+        <v>1.0106776535894271</v>
+      </c>
+      <c r="D61">
+        <v>26.042541368100501</v>
+      </c>
+      <c r="E61">
+        <v>27.907962716026759</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>25.085246554039259</v>
+      </c>
+      <c r="B62">
+        <v>26.525021634454053</v>
+      </c>
+      <c r="C62">
+        <v>1.0120323214471283</v>
+      </c>
+      <c r="D62">
+        <v>26.425278398756291</v>
+      </c>
+      <c r="E62">
+        <v>29.414656542694956</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>23.257546200436536</v>
+      </c>
+      <c r="B63">
+        <v>25.818657068042761</v>
+      </c>
+      <c r="C63">
+        <v>1.0108932065270082</v>
+      </c>
+      <c r="D63">
+        <v>25.855357187948812</v>
+      </c>
+      <c r="E63">
+        <v>27.195151863604679</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>24.256931355868801</v>
+      </c>
+      <c r="B64">
+        <v>25.571961738981308</v>
+      </c>
+      <c r="C64">
+        <v>0.72243788616104498</v>
+      </c>
+      <c r="D64">
+        <v>25.530717130605808</v>
+      </c>
+      <c r="E64">
+        <v>27.317276456605668</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>180.78606554065891</v>
+      </c>
+      <c r="B65">
+        <v>180.83189816502093</v>
+      </c>
+      <c r="C65">
+        <v>0.12538890554420573</v>
+      </c>
+      <c r="D65">
+        <v>180.803779938562</v>
+      </c>
+      <c r="E65">
+        <v>181.37636573537475</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>180.78127167774664</v>
+      </c>
+      <c r="B66">
+        <v>180.78127167774682</v>
+      </c>
+      <c r="C66">
+        <v>2.2630535155933993E-13</v>
+      </c>
+      <c r="D66">
+        <v>180.78127167774664</v>
+      </c>
+      <c r="E66">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>180.86262296587756</v>
+      </c>
+      <c r="B67">
+        <v>181.91802523625788</v>
+      </c>
+      <c r="C67">
+        <v>1.2622659656567914</v>
+      </c>
+      <c r="D67">
+        <v>181.48658418082368</v>
+      </c>
+      <c r="E67">
+        <v>185.47408789186966</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>180.78127199634355</v>
+      </c>
+      <c r="B68">
+        <v>180.78129266588371</v>
+      </c>
+      <c r="C68">
+        <v>5.8212686959768351E-5</v>
+      </c>
+      <c r="D68">
+        <v>180.78127512854826</v>
+      </c>
+      <c r="E68">
+        <v>180.78154209872582</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>180.78127167774664</v>
+      </c>
+      <c r="B69">
+        <v>180.78127167774724</v>
+      </c>
+      <c r="C69">
+        <v>1.2466249050013682E-12</v>
+      </c>
+      <c r="D69">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="E69">
+        <v>180.78127167775256</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>180.78127167774664</v>
+      </c>
+      <c r="B70">
+        <v>180.78127167774701</v>
+      </c>
+      <c r="C70">
+        <v>1.8298372427602627E-13</v>
+      </c>
+      <c r="D70">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="E70">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>180.78127167774664</v>
+      </c>
+      <c r="B71">
+        <v>180.78127167774696</v>
+      </c>
+      <c r="C71">
+        <v>2.1087682627637088E-13</v>
+      </c>
+      <c r="D71">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="E71">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="B72">
+        <v>180.78127167774724</v>
+      </c>
+      <c r="C72">
+        <v>2.627279206623512E-13</v>
+      </c>
+      <c r="D72">
+        <v>180.7812716777471</v>
+      </c>
+      <c r="E72">
+        <v>180.78127167774801</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>100.64195808624027</v>
+      </c>
+      <c r="B73">
+        <v>559.4071341678673</v>
+      </c>
+      <c r="C73">
+        <v>881.93935349799972</v>
+      </c>
+      <c r="D73">
+        <v>101.02586570807034</v>
+      </c>
+      <c r="E73">
+        <v>2788.4396021939283</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>100.20380653766733</v>
+      </c>
+      <c r="B74">
+        <v>112.40246563293427</v>
+      </c>
+      <c r="C74">
+        <v>38.344616951183539</v>
+      </c>
+      <c r="D74">
+        <v>100.261831421637</v>
+      </c>
+      <c r="E74">
+        <v>231.79476955763948</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>100.50579607491409</v>
+      </c>
+      <c r="B75">
+        <v>100.97321862295261</v>
+      </c>
+      <c r="C75">
+        <v>0.29241440979635075</v>
+      </c>
+      <c r="D75">
+        <v>100.91430801951628</v>
+      </c>
+      <c r="E75">
+        <v>101.85260235159058</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>100.4636991636221</v>
+      </c>
+      <c r="B76">
+        <v>106.46553697391994</v>
+      </c>
+      <c r="C76">
+        <v>26.356500667388151</v>
+      </c>
+      <c r="D76">
+        <v>100.71930988146096</v>
+      </c>
+      <c r="E76">
+        <v>221.49305796833505</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>41.358912181688993</v>
+      </c>
+      <c r="B77">
+        <v>103.43550810888783</v>
+      </c>
+      <c r="C77">
+        <v>29.845989829289319</v>
+      </c>
+      <c r="D77">
+        <v>100.51210966517465</v>
+      </c>
+      <c r="E77">
+        <v>220.91130155503561</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>100.39177661031135</v>
+      </c>
+      <c r="B78">
+        <v>100.4967458685671</v>
+      </c>
+      <c r="C78">
+        <v>7.4019690404034402E-2</v>
+      </c>
+      <c r="D78">
+        <v>100.50038809749958</v>
+      </c>
+      <c r="E78">
+        <v>100.64916710502439</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>37.481727613957446</v>
+      </c>
+      <c r="B79">
+        <v>179.59898424207159</v>
+      </c>
+      <c r="C79">
+        <v>135.03559493672813</v>
+      </c>
+      <c r="D79">
+        <v>100.67038422526775</v>
+      </c>
+      <c r="E79">
+        <v>511.80239825282206</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>100.36125740631815</v>
+      </c>
+      <c r="B80">
+        <v>119.02809435912711</v>
+      </c>
+      <c r="C80">
+        <v>46.633524113855266</v>
+      </c>
+      <c r="D80">
+        <v>100.45118905545996</v>
+      </c>
+      <c r="E80">
+        <v>236.1791097231885</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>0.10250604564180321</v>
+      </c>
+      <c r="B81">
+        <v>367.54360812102709</v>
+      </c>
+      <c r="C81">
+        <v>212.79010828328555</v>
+      </c>
+      <c r="D81">
+        <v>300.07159760328159</v>
+      </c>
+      <c r="E81">
+        <v>1018.9193100809207</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>4.5474735088646412E-13</v>
+      </c>
+      <c r="B82">
+        <v>300.00000000000063</v>
+      </c>
+      <c r="C82">
+        <v>109.54451150103323</v>
+      </c>
+      <c r="D82">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="E82">
+        <v>400.00000000000045</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>19.183826185249927</v>
+      </c>
+      <c r="B83">
+        <v>341.36312097342898</v>
+      </c>
+      <c r="C83">
+        <v>117.74657466653886</v>
+      </c>
+      <c r="D83">
+        <v>309.59455214623677</v>
+      </c>
+      <c r="E83">
+        <v>610.79659122585599</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>300.00007783550836</v>
+      </c>
+      <c r="B84">
+        <v>328.57424765452095</v>
+      </c>
+      <c r="C84">
+        <v>46.295311876072454</v>
+      </c>
+      <c r="D84">
+        <v>300.00017502225319</v>
+      </c>
+      <c r="E84">
+        <v>400.05658865079795</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>4.5474735088646412E-13</v>
+      </c>
+      <c r="B85">
+        <v>309.52380952381037</v>
+      </c>
+      <c r="C85">
+        <v>83.094896983881696</v>
+      </c>
+      <c r="D85">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="E85">
+        <v>400.00000000000136</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1.3642420526593924E-12</v>
+      </c>
+      <c r="B86">
+        <v>314.28571428571513</v>
+      </c>
+      <c r="C86">
+        <v>85.356395693083641</v>
+      </c>
+      <c r="D86">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="E86">
+        <v>400.00000000000091</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>300.00000000000045</v>
+      </c>
+      <c r="B87">
+        <v>350.49797502873963</v>
+      </c>
+      <c r="C87">
+        <v>104.51558058899579</v>
+      </c>
+      <c r="D87">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="E87">
+        <v>760.45747560351765</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>300.00000000000045</v>
+      </c>
+      <c r="B88">
+        <v>304.76190476190567</v>
+      </c>
+      <c r="C88">
+        <v>21.821789023599237</v>
+      </c>
+      <c r="D88">
+        <v>300.00000000000091</v>
+      </c>
+      <c r="E88">
+        <v>400.00000000000091</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>245.97465335638526</v>
+      </c>
+      <c r="B89">
+        <v>260.72018163884047</v>
+      </c>
+      <c r="C89">
+        <v>8.6009627708486693</v>
+      </c>
+      <c r="D89">
+        <v>259.04516663377217</v>
+      </c>
+      <c r="E89">
+        <v>278.7721478124904</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>233.61407157731128</v>
+      </c>
+      <c r="B90">
+        <v>239.79306540837371</v>
+      </c>
+      <c r="C90">
+        <v>3.6016088887669411</v>
+      </c>
+      <c r="D90">
+        <v>240.34953639595096</v>
+      </c>
+      <c r="E90">
+        <v>245.71899579971614</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>241.27048415300851</v>
+      </c>
+      <c r="B91">
+        <v>254.14980630391074</v>
+      </c>
+      <c r="C91">
+        <v>9.8781698064696926</v>
+      </c>
+      <c r="D91">
+        <v>252.80513553969558</v>
+      </c>
+      <c r="E91">
+        <v>279.08951026766772</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>232.90105221341082</v>
+      </c>
+      <c r="B92">
+        <v>246.01057425104003</v>
+      </c>
+      <c r="C92">
+        <v>5.6647876132299384</v>
+      </c>
+      <c r="D92">
+        <v>245.14718255565003</v>
+      </c>
+      <c r="E92">
+        <v>256.17816545254709</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>235.65492041127527</v>
+      </c>
+      <c r="B93">
+        <v>242.57953793686772</v>
+      </c>
+      <c r="C93">
+        <v>4.1758434722010618</v>
+      </c>
+      <c r="D93">
+        <v>242.11459302824414</v>
+      </c>
+      <c r="E93">
+        <v>249.88092278473459</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>234.65111981988639</v>
+      </c>
+      <c r="B94">
+        <v>242.15128525060962</v>
+      </c>
+      <c r="C94">
+        <v>5.8310229552743902</v>
+      </c>
+      <c r="D94">
+        <v>240.4007544711867</v>
+      </c>
+      <c r="E94">
+        <v>257.56952274491732</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>232.45770196557442</v>
+      </c>
+      <c r="B95">
+        <v>242.51175616413371</v>
+      </c>
+      <c r="C95">
+        <v>6.7162080685428753</v>
+      </c>
+      <c r="D95">
+        <v>242.82399363373224</v>
+      </c>
+      <c r="E95">
+        <v>265.66834940747049</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>239.03004323723599</v>
+      </c>
+      <c r="B96">
+        <v>252.30354463329604</v>
+      </c>
+      <c r="C96">
+        <v>9.4857817521958641</v>
+      </c>
+      <c r="D96">
+        <v>251.53503008890675</v>
+      </c>
+      <c r="E96">
+        <v>269.35329268988653</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
